--- a/assets/ChartBuilder/public/Data/Backups/Rational/HRS/hrs.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Rational/HRS/hrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Rational\HRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Rational\HRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408727A7-2420-4AC3-A325-16BC46C4178E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E79D53-B498-469B-A0B2-F76EB8C767FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="793" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="793" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA - Overall" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="107">
   <si>
     <t>MONTHLY RETURNS</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Correlation vs. S&amp;P 500 TR</t>
   </si>
   <si>
-    <t>2020YTD</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>2021 YTD</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1544,6 +1544,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1558,7 +1571,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2371,15 +2384,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2421,14 +2425,41 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="35" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2438,6 +2469,24 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2475,27 +2524,6 @@
     <xf numFmtId="169" fontId="8" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2509,6 +2537,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2538,11 +2569,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="35" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="35" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2558,17 +2586,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="258">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="131">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3337,738 +3355,6 @@
         <color theme="0"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4102,13 +3388,13 @@
             <v>Total Months</v>
           </cell>
           <cell r="C8">
-            <v>164</v>
+            <v>167</v>
           </cell>
           <cell r="D8">
-            <v>164</v>
+            <v>167</v>
           </cell>
           <cell r="F8">
-            <v>164</v>
+            <v>167</v>
           </cell>
         </row>
         <row r="9">
@@ -4116,10 +3402,10 @@
             <v>Inception*</v>
           </cell>
           <cell r="C9">
-            <v>-1.38987214146572E-2</v>
+            <v>-1.2788895279366774E-2</v>
           </cell>
           <cell r="D9">
-            <v>-1.2085353116480957E-2</v>
+            <v>-1.1002547415217223E-2</v>
           </cell>
           <cell r="F9">
             <v>-1</v>
@@ -4130,10 +3416,10 @@
             <v>Annualized Return*</v>
           </cell>
           <cell r="C10">
-            <v>-1.388582169946817E-2</v>
+            <v>-1.2780354068795408E-2</v>
           </cell>
           <cell r="D10">
-            <v>-1.2074126107658456E-2</v>
+            <v>-1.0995192583569069E-2</v>
           </cell>
           <cell r="F10">
             <v>-1</v>
@@ -4144,10 +3430,10 @@
             <v>Cumulative Return*</v>
           </cell>
           <cell r="C11">
-            <v>-0.1741</v>
+            <v>-0.16400000000000001</v>
           </cell>
           <cell r="D11">
-            <v>-0.15310000000000001</v>
+            <v>-0.14269999999999999</v>
           </cell>
           <cell r="F11">
             <v>-1</v>
@@ -4158,10 +3444,10 @@
             <v>Standard Deviation</v>
           </cell>
           <cell r="C12">
-            <v>0.18141425379701789</v>
+            <v>0.17977640114402976</v>
           </cell>
           <cell r="D12">
-            <v>0.18182455677974027</v>
+            <v>0.1801823149485598</v>
           </cell>
           <cell r="F12">
             <v>0.23188031681967808</v>
@@ -4172,10 +3458,10 @@
             <v>10 Years</v>
           </cell>
           <cell r="C13">
-            <v>-1.1310839363227743E-3</v>
+            <v>-7.4685140863456345E-3</v>
           </cell>
           <cell r="D13">
-            <v>4.4707681864886162E-4</v>
+            <v>-6.0197581578534942E-3</v>
           </cell>
           <cell r="F13">
             <v>-1</v>
@@ -4186,10 +3472,10 @@
             <v>5 Years</v>
           </cell>
           <cell r="C14">
-            <v>6.0540658789299595E-2</v>
+            <v>5.9632122370227414E-2</v>
           </cell>
           <cell r="D14">
-            <v>6.2318516198524909E-2</v>
+            <v>6.1006706725691418E-2</v>
           </cell>
           <cell r="F14">
             <v>-1</v>
@@ -4200,10 +3486,10 @@
             <v>3 Years</v>
           </cell>
           <cell r="C15">
-            <v>6.620343988837174E-2</v>
+            <v>6.4234679562744201E-2</v>
           </cell>
           <cell r="D15">
-            <v>6.8409349492220217E-2</v>
+            <v>6.5693192466216743E-2</v>
           </cell>
           <cell r="F15" t="e">
             <v>#DIV/0!</v>
@@ -4214,10 +3500,10 @@
             <v>2 Years</v>
           </cell>
           <cell r="C16">
-            <v>5.2250962102252885E-2</v>
+            <v>4.6268789226484808E-2</v>
           </cell>
           <cell r="D16">
-            <v>5.4516852412320294E-2</v>
+            <v>4.8435324147332759E-2</v>
           </cell>
           <cell r="F16" t="e">
             <v>#DIV/0!</v>
@@ -4228,16 +3514,16 @@
             <v>Since 12/5/17</v>
           </cell>
           <cell r="C17">
-            <v>6.7518938402899575E-2</v>
+            <v>6.6175891820999144E-2</v>
           </cell>
           <cell r="D17">
-            <v>6.9988156990374639E-2</v>
+            <v>6.8472312204649777E-2</v>
           </cell>
           <cell r="E17">
-            <v>6.0533172875340435E-2</v>
+            <v>5.925029936541959E-2</v>
           </cell>
           <cell r="F17">
-            <v>0.14493718060639527</v>
+            <v>0.15396680488046344</v>
           </cell>
         </row>
         <row r="18">
@@ -4245,16 +3531,16 @@
             <v>1 Year</v>
           </cell>
           <cell r="C18">
-            <v>2.4435623914661374E-2</v>
+            <v>3.1589338598223098E-2</v>
           </cell>
           <cell r="D18">
-            <v>2.6421039873954673E-2</v>
+            <v>3.5386473429951694E-2</v>
           </cell>
           <cell r="E18">
-            <v>1.7791750724361011E-2</v>
+            <v>2.5063670554658968E-2</v>
           </cell>
           <cell r="F18">
-            <v>0.18396276753647034</v>
+            <v>0.56348260735089295</v>
           </cell>
         </row>
         <row r="19">
@@ -4262,16 +3548,16 @@
             <v>YTD</v>
           </cell>
           <cell r="C19">
-            <v>2.4435623914661374E-2</v>
+            <v>1.2229083424143359E-2</v>
           </cell>
           <cell r="D19">
-            <v>2.6421039873954673E-2</v>
+            <v>1.2280080292832684E-2</v>
           </cell>
           <cell r="E19">
-            <v>1.7791750724361011E-2</v>
+            <v>1.0731783186873178E-2</v>
           </cell>
           <cell r="F19">
-            <v>0.18396276753647034</v>
+            <v>6.1748728952811804E-2</v>
           </cell>
         </row>
         <row r="20">
@@ -4279,13 +3565,13 @@
             <v>Sharpe Ratio</v>
           </cell>
           <cell r="C20">
-            <v>-8.0527419393482694E-2</v>
+            <v>-7.2074832883179632E-2</v>
           </cell>
           <cell r="D20">
-            <v>-7.0381725847739676E-2</v>
+            <v>-6.2004934206548602E-2</v>
           </cell>
           <cell r="F20">
-            <v>-4.3156875655738087</v>
+            <v>-4.3133329025843477</v>
           </cell>
         </row>
         <row r="21">
@@ -4304,10 +3590,10 @@
             <v>Alpha vs. S&amp;P GSCI Index</v>
           </cell>
           <cell r="C22">
-            <v>0.62542856648071055</v>
+            <v>0.62673082617477527</v>
           </cell>
           <cell r="D22">
-            <v>0.62830690426189262</v>
+            <v>0.62958204788349981</v>
           </cell>
         </row>
         <row r="23">
@@ -4326,13 +3612,13 @@
             <v>% Positive Months</v>
           </cell>
           <cell r="C24">
-            <v>0.58536585365853655</v>
+            <v>0.59281437125748504</v>
           </cell>
           <cell r="D24">
-            <v>0.57926829268292679</v>
+            <v>0.58682634730538918</v>
           </cell>
           <cell r="F24">
-            <v>0.3902439024390244</v>
+            <v>0.38323353293413176</v>
           </cell>
         </row>
         <row r="25">
@@ -4374,13 +3660,13 @@
             <v>Excess Return</v>
           </cell>
           <cell r="C30">
-            <v>-1.460882169946817E-2</v>
+            <v>-1.2957354068795408E-2</v>
           </cell>
           <cell r="D30">
-            <v>-1.2797126107658456E-2</v>
+            <v>-1.1172192583569069E-2</v>
           </cell>
           <cell r="F30">
-            <v>-1.000723</v>
+            <v>-1.0001770000000001</v>
           </cell>
         </row>
         <row r="31">
@@ -4432,7 +3718,7 @@
         </row>
         <row r="5">
           <cell r="C5">
-            <v>44196</v>
+            <v>44286</v>
           </cell>
         </row>
         <row r="8">
@@ -4440,10 +3726,10 @@
             <v>Total Months</v>
           </cell>
           <cell r="D8">
-            <v>36.838709677419352</v>
+            <v>39.838709677419352</v>
           </cell>
           <cell r="H8">
-            <v>36.838709677419352</v>
+            <v>39.838709677419352</v>
           </cell>
         </row>
         <row r="9">
@@ -4456,19 +3742,19 @@
             <v>Annualized Return*</v>
           </cell>
           <cell r="D10">
-            <v>6.9988156990374639E-2</v>
+            <v>6.8472312204649777E-2</v>
           </cell>
           <cell r="E10">
-            <v>6.7518938402899575E-2</v>
+            <v>6.6175891820999144E-2</v>
           </cell>
           <cell r="F10">
-            <v>6.0533172875340435E-2</v>
+            <v>5.925029936541959E-2</v>
           </cell>
           <cell r="G10">
-            <v>5.0729625283800317E-2</v>
+            <v>5.0661173188810471E-2</v>
           </cell>
           <cell r="H10">
-            <v>0.14493718060639527</v>
+            <v>0.15396680488046344</v>
           </cell>
         </row>
         <row r="11">
@@ -4476,10 +3762,10 @@
             <v>Cumulative Growth of 10K</v>
           </cell>
           <cell r="D11">
-            <v>12308.079174557</v>
+            <v>12459.223375071102</v>
           </cell>
           <cell r="H11">
-            <v>15151.421220038012</v>
+            <v>16087.002222204019</v>
           </cell>
         </row>
         <row r="12">
@@ -4487,10 +3773,10 @@
             <v>Cumulative Return*</v>
           </cell>
           <cell r="D12">
-            <v>0.23080791745570006</v>
+            <v>0.24592233750711023</v>
           </cell>
           <cell r="H12">
-            <v>0.51514212200380105</v>
+            <v>0.60870022222040188</v>
           </cell>
         </row>
         <row r="13">
@@ -4498,10 +3784,10 @@
             <v>Standard Deviation</v>
           </cell>
           <cell r="D13">
-            <v>1.9987161464971911E-2</v>
+            <v>1.927597067358322E-2</v>
           </cell>
           <cell r="H13">
-            <v>0.18534879892899031</v>
+            <v>0.17953544402088195</v>
           </cell>
         </row>
         <row r="14">
@@ -4524,13 +3810,13 @@
             <v>1 Year</v>
           </cell>
           <cell r="D17">
-            <v>2.642103987395461E-2</v>
+            <v>3.5386473429951382E-2</v>
           </cell>
           <cell r="F17">
-            <v>1.7791750724361011E-2</v>
+            <v>2.5063670554658968E-2</v>
           </cell>
           <cell r="H17">
-            <v>0.18396276753647034</v>
+            <v>0.56348260735089295</v>
           </cell>
         </row>
         <row r="18">
@@ -4538,13 +3824,13 @@
             <v>YTD</v>
           </cell>
           <cell r="D18">
-            <v>2.642103987395461E-2</v>
+            <v>1.2280080292832674E-2</v>
           </cell>
           <cell r="F18">
-            <v>1.7791750724361011E-2</v>
+            <v>1.0731783186873178E-2</v>
           </cell>
           <cell r="H18">
-            <v>0.18396276753647034</v>
+            <v>6.1748728952811804E-2</v>
           </cell>
         </row>
         <row r="19">
@@ -4552,10 +3838,10 @@
             <v>Sharpe Ratio</v>
           </cell>
           <cell r="D19">
-            <v>3.4654824354005376</v>
+            <v>3.5430284347882508</v>
           </cell>
           <cell r="H19">
-            <v>0.66326397212583743</v>
+            <v>0.73503483170217065</v>
           </cell>
         </row>
         <row r="20">
@@ -4563,7 +3849,7 @@
             <v>Beta vs. S&amp;P 500 TR</v>
           </cell>
           <cell r="D20">
-            <v>4.2190735938126334E-2</v>
+            <v>4.0745167634476449E-2</v>
           </cell>
           <cell r="H20">
             <v>1</v>
@@ -4574,7 +3860,7 @@
             <v>Alpha vs. S&amp;P 500 TR</v>
           </cell>
           <cell r="D21">
-            <v>6.3180654577876957E-2</v>
+            <v>6.2029120824321875E-2</v>
           </cell>
           <cell r="H21">
             <v>0</v>
@@ -4585,7 +3871,7 @@
             <v>Correlation vs. S&amp;P 500 TR</v>
           </cell>
           <cell r="D22">
-            <v>0.40211935698679946</v>
+            <v>0.38922922046237279</v>
           </cell>
           <cell r="H22">
             <v>1</v>
@@ -4596,10 +3882,10 @@
             <v>% Positive Months</v>
           </cell>
           <cell r="D23">
-            <v>0.91891891891891897</v>
+            <v>0.92500000000000004</v>
           </cell>
           <cell r="H23">
-            <v>0.70270270270270274</v>
+            <v>0.7</v>
           </cell>
         </row>
         <row r="24">
@@ -4683,10 +3969,10 @@
             <v>1 Year</v>
           </cell>
           <cell r="F13" t="str">
-            <v>Since 12/5/17</v>
+            <v>3 Years</v>
           </cell>
           <cell r="G13" t="str">
-            <v>3 Years</v>
+            <v>Since 12/5/17</v>
           </cell>
           <cell r="H13" t="str">
             <v>5 Years</v>
@@ -5046,80 +4332,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FBC2B5-DA97-4020-9B2D-476A04DA1347}">
-  <dimension ref="A1:CS258"/>
+  <dimension ref="A1:CS261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.44140625" style="95" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="96" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="97" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0.6640625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="99" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="100" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="101" customWidth="1"/>
-    <col min="17" max="17" width="0.6640625" style="102" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="103" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="100" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="104" customWidth="1"/>
-    <col min="21" max="21" width="0.6640625" style="102" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="105" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" style="100" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" style="106" customWidth="1"/>
-    <col min="25" max="25" width="0.6640625" style="102" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" style="105" customWidth="1"/>
-    <col min="27" max="27" width="6.6640625" style="100" customWidth="1"/>
-    <col min="28" max="28" width="6.6640625" style="106" customWidth="1"/>
-    <col min="29" max="29" width="0.6640625" style="100" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="107" customWidth="1"/>
-    <col min="31" max="31" width="6.6640625" style="100" customWidth="1"/>
-    <col min="32" max="32" width="6.6640625" style="108" customWidth="1"/>
-    <col min="33" max="33" width="0.6640625" style="100" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" style="107" customWidth="1"/>
-    <col min="35" max="35" width="6.6640625" style="100" customWidth="1"/>
-    <col min="36" max="36" width="6.6640625" style="108" customWidth="1"/>
-    <col min="37" max="37" width="0.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="94" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" style="95" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="96" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="97" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="98" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0.7109375" style="16" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="99" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="100" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="101" customWidth="1"/>
+    <col min="17" max="17" width="0.7109375" style="102" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="103" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="100" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="104" customWidth="1"/>
+    <col min="21" max="21" width="0.7109375" style="102" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="105" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" style="100" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" style="106" customWidth="1"/>
+    <col min="25" max="25" width="0.7109375" style="102" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" style="105" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" style="100" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="106" customWidth="1"/>
+    <col min="29" max="29" width="0.7109375" style="100" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="107" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" style="100" customWidth="1"/>
+    <col min="32" max="32" width="6.7109375" style="108" customWidth="1"/>
+    <col min="33" max="33" width="0.7109375" style="100" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" style="107" customWidth="1"/>
+    <col min="35" max="35" width="6.7109375" style="100" customWidth="1"/>
+    <col min="36" max="36" width="6.7109375" style="108" customWidth="1"/>
+    <col min="37" max="37" width="0.7109375" style="7" customWidth="1"/>
     <col min="38" max="38" width="6" style="109" customWidth="1"/>
-    <col min="39" max="39" width="5.88671875" style="110" customWidth="1"/>
+    <col min="39" max="39" width="5.85546875" style="110" customWidth="1"/>
     <col min="40" max="40" width="6" style="111" customWidth="1"/>
-    <col min="41" max="41" width="0.6640625" style="7" customWidth="1"/>
-    <col min="42" max="42" width="6.6640625" style="112" customWidth="1"/>
-    <col min="43" max="43" width="6.6640625" style="100" customWidth="1"/>
+    <col min="41" max="41" width="0.7109375" style="7" customWidth="1"/>
+    <col min="42" max="42" width="6.7109375" style="112" customWidth="1"/>
+    <col min="43" max="43" width="6.7109375" style="100" customWidth="1"/>
     <col min="44" max="44" width="6" style="113" customWidth="1"/>
-    <col min="45" max="45" width="0.6640625" style="7" customWidth="1"/>
-    <col min="46" max="46" width="6.6640625" style="112" customWidth="1"/>
-    <col min="47" max="47" width="7.33203125" style="100" customWidth="1"/>
-    <col min="48" max="48" width="6.6640625" style="113" customWidth="1"/>
-    <col min="49" max="49" width="0.6640625" style="7" customWidth="1"/>
-    <col min="50" max="50" width="6.109375" style="105" customWidth="1"/>
-    <col min="51" max="51" width="6.109375" style="100" customWidth="1"/>
-    <col min="52" max="52" width="6.109375" style="106" customWidth="1"/>
-    <col min="53" max="53" width="0.6640625" style="100" customWidth="1"/>
+    <col min="45" max="45" width="0.7109375" style="7" customWidth="1"/>
+    <col min="46" max="46" width="6.7109375" style="112" customWidth="1"/>
+    <col min="47" max="47" width="7.28515625" style="100" customWidth="1"/>
+    <col min="48" max="48" width="6.7109375" style="113" customWidth="1"/>
+    <col min="49" max="49" width="0.7109375" style="7" customWidth="1"/>
+    <col min="50" max="50" width="6.140625" style="105" customWidth="1"/>
+    <col min="51" max="51" width="6.140625" style="100" customWidth="1"/>
+    <col min="52" max="52" width="6.140625" style="106" customWidth="1"/>
+    <col min="53" max="53" width="0.7109375" style="100" customWidth="1"/>
     <col min="54" max="54" width="6" style="114" customWidth="1"/>
-    <col min="55" max="55" width="5.88671875" style="110" customWidth="1"/>
+    <col min="55" max="55" width="5.85546875" style="110" customWidth="1"/>
     <col min="56" max="56" width="6" style="111" customWidth="1"/>
-    <col min="57" max="57" width="0.6640625" style="7" customWidth="1"/>
-    <col min="58" max="58" width="6.6640625" style="105" customWidth="1"/>
-    <col min="59" max="59" width="6.6640625" style="100" customWidth="1"/>
-    <col min="60" max="60" width="6.6640625" style="106" customWidth="1"/>
-    <col min="61" max="61" width="0.6640625" style="100" customWidth="1"/>
+    <col min="57" max="57" width="0.7109375" style="7" customWidth="1"/>
+    <col min="58" max="58" width="6.7109375" style="105" customWidth="1"/>
+    <col min="59" max="59" width="6.7109375" style="100" customWidth="1"/>
+    <col min="60" max="60" width="6.7109375" style="106" customWidth="1"/>
+    <col min="61" max="61" width="0.7109375" style="100" customWidth="1"/>
     <col min="62" max="62" width="6" style="114" customWidth="1"/>
-    <col min="63" max="63" width="5.88671875" style="110" customWidth="1"/>
+    <col min="63" max="63" width="5.85546875" style="110" customWidth="1"/>
     <col min="64" max="64" width="6" style="162" customWidth="1"/>
-    <col min="65" max="65" width="8.88671875" style="163"/>
+    <col min="65" max="65" width="8.85546875" style="163"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:97">
@@ -5128,84 +4414,84 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="335" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="336"/>
-      <c r="L1" s="337"/>
+      <c r="J1" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="342"/>
+      <c r="L1" s="343"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="353" t="s">
+      <c r="N1" s="344" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="354"/>
-      <c r="P1" s="355"/>
+      <c r="O1" s="345"/>
+      <c r="P1" s="346"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="353" t="s">
+      <c r="R1" s="344" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="354"/>
-      <c r="T1" s="355"/>
+      <c r="S1" s="345"/>
+      <c r="T1" s="346"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="335" t="s">
+      <c r="V1" s="341" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="336"/>
-      <c r="X1" s="337"/>
+      <c r="W1" s="342"/>
+      <c r="X1" s="343"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="335" t="s">
+      <c r="Z1" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="336"/>
-      <c r="AB1" s="337"/>
+      <c r="AA1" s="342"/>
+      <c r="AB1" s="343"/>
       <c r="AC1" s="7"/>
-      <c r="AD1" s="350" t="s">
+      <c r="AD1" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="351"/>
-      <c r="AF1" s="352"/>
+      <c r="AE1" s="339"/>
+      <c r="AF1" s="340"/>
       <c r="AG1" s="8"/>
-      <c r="AH1" s="350" t="s">
+      <c r="AH1" s="338" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="351"/>
-      <c r="AJ1" s="352"/>
-      <c r="AL1" s="338" t="s">
+      <c r="AI1" s="339"/>
+      <c r="AJ1" s="340"/>
+      <c r="AL1" s="350" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="339"/>
-      <c r="AN1" s="340"/>
-      <c r="AP1" s="350" t="s">
+      <c r="AM1" s="351"/>
+      <c r="AN1" s="352"/>
+      <c r="AP1" s="338" t="s">
         <v>8</v>
       </c>
-      <c r="AQ1" s="351"/>
-      <c r="AR1" s="352"/>
-      <c r="AT1" s="350" t="s">
+      <c r="AQ1" s="339"/>
+      <c r="AR1" s="340"/>
+      <c r="AT1" s="338" t="s">
         <v>9</v>
       </c>
-      <c r="AU1" s="351"/>
-      <c r="AV1" s="352"/>
-      <c r="AX1" s="335" t="s">
+      <c r="AU1" s="339"/>
+      <c r="AV1" s="340"/>
+      <c r="AX1" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="AY1" s="336"/>
-      <c r="AZ1" s="337"/>
+      <c r="AY1" s="342"/>
+      <c r="AZ1" s="343"/>
       <c r="BA1" s="7"/>
-      <c r="BB1" s="338" t="s">
+      <c r="BB1" s="350" t="s">
         <v>11</v>
       </c>
-      <c r="BC1" s="339"/>
-      <c r="BD1" s="340"/>
-      <c r="BF1" s="335" t="s">
+      <c r="BC1" s="351"/>
+      <c r="BD1" s="352"/>
+      <c r="BF1" s="341" t="s">
         <v>12</v>
       </c>
-      <c r="BG1" s="336"/>
-      <c r="BH1" s="337"/>
+      <c r="BG1" s="342"/>
+      <c r="BH1" s="343"/>
       <c r="BI1" s="7"/>
-      <c r="BJ1" s="338" t="s">
+      <c r="BJ1" s="350" t="s">
         <v>13</v>
       </c>
-      <c r="BK1" s="339"/>
-      <c r="BL1" s="340"/>
+      <c r="BK1" s="351"/>
+      <c r="BL1" s="352"/>
     </row>
     <row r="2" spans="1:97">
       <c r="C2" s="9" t="s">
@@ -5392,12 +4678,12 @@
       <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="341" t="s">
+      <c r="C3" s="353" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="343"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="355"/>
       <c r="H3" s="24" t="str">
         <f>C4</f>
         <v>05/01/2007</v>
@@ -5488,14 +4774,14 @@
       <c r="B4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="344" t="s">
+      <c r="C4" s="356" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="344" t="s">
+      <c r="D4" s="356" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344" t="s">
+      <c r="E4" s="356"/>
+      <c r="F4" s="356" t="s">
         <v>70</v>
       </c>
       <c r="G4" s="3"/>
@@ -5699,12 +4985,12 @@
       <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="345">
-        <v>44196</v>
-      </c>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="346"/>
+      <c r="C5" s="357">
+        <v>44286</v>
+      </c>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="F5" s="358"/>
       <c r="H5" s="43">
         <f>EOMONTH(H4,1)</f>
         <v>39263</v>
@@ -5878,18 +5164,18 @@
       </c>
     </row>
     <row r="6" spans="1:97">
-      <c r="A6" s="347" t="s">
+      <c r="A6" s="359" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="348">
-        <v>0</v>
-      </c>
-      <c r="D6" s="348"/>
-      <c r="E6" s="348"/>
-      <c r="F6" s="348"/>
+      <c r="C6" s="360">
+        <v>0</v>
+      </c>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
       <c r="H6" s="4">
         <f t="shared" ref="H6:H69" si="21">EOMONTH(H5,1)</f>
         <v>39294</v>
@@ -6054,20 +5340,20 @@
       </c>
     </row>
     <row r="7" spans="1:97" s="54" customFormat="1">
-      <c r="A7" s="347"/>
+      <c r="A7" s="359"/>
       <c r="B7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="349">
-        <v>7.2300000000000001E-4</v>
-      </c>
-      <c r="D7" s="349">
+      <c r="C7" s="361">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="D7" s="361">
         <v>1.395E-3</v>
       </c>
-      <c r="E7" s="349">
+      <c r="E7" s="361">
         <v>1.395E-3</v>
       </c>
-      <c r="F7" s="349">
+      <c r="F7" s="361">
         <v>1.395E-3</v>
       </c>
       <c r="G7" s="3"/>
@@ -6273,17 +5559,17 @@
         <v>22</v>
       </c>
       <c r="C8" s="173">
-        <f>COUNTA(J4:J167)</f>
-        <v>164</v>
+        <f>COUNTA(J4:J170)</f>
+        <v>167</v>
       </c>
       <c r="D8" s="173">
         <f>C8</f>
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E8" s="173"/>
       <c r="F8" s="173">
         <f>D8</f>
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H8" s="142">
         <f t="shared" si="21"/>
@@ -6466,11 +5752,11 @@
       </c>
       <c r="C9" s="216">
         <f>C56</f>
-        <v>-1.38987214146572E-2</v>
+        <v>-1.2788895279366774E-2</v>
       </c>
       <c r="D9" s="216">
         <f>D56</f>
-        <v>-1.2085353116480957E-2</v>
+        <v>-1.1002547415217223E-2</v>
       </c>
       <c r="E9" s="216"/>
       <c r="F9" s="216">
@@ -6647,11 +5933,11 @@
       </c>
       <c r="C10" s="217">
         <f>POWER(C49/C39,365/($B$49-$B$39))-1</f>
-        <v>-1.388582169946817E-2</v>
+        <v>-1.2780354068795408E-2</v>
       </c>
       <c r="D10" s="223">
         <f>POWER(D49/D39,365/($B$49-$B$39))-1</f>
-        <v>-1.2074126107658456E-2</v>
+        <v>-1.0995192583569069E-2</v>
       </c>
       <c r="E10" s="223"/>
       <c r="F10" s="223">
@@ -6855,7 +6141,7 @@
       <c r="CR10"/>
       <c r="CS10"/>
     </row>
-    <row r="11" spans="1:97" ht="15" thickBot="1">
+    <row r="11" spans="1:97" ht="15.75" thickBot="1">
       <c r="A11" s="173" t="s">
         <v>61</v>
       </c>
@@ -6864,11 +6150,11 @@
       </c>
       <c r="C11" s="252">
         <f>(C49-C39)/C39</f>
-        <v>-0.1741</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="D11" s="263">
         <f>(D49-D39)/D39</f>
-        <v>-0.15310000000000001</v>
+        <v>-0.14269999999999999</v>
       </c>
       <c r="E11" s="263"/>
       <c r="F11" s="263">
@@ -7064,16 +6350,16 @@
         <v>26</v>
       </c>
       <c r="C12" s="253">
-        <f>STDEV(IF(J4:J167&lt;&gt;0,J4:J167))*SQRT(12)</f>
-        <v>0.18141425379701789</v>
+        <f>STDEV(IF(J4:J170&lt;&gt;0,J4:J170))*SQRT(12)</f>
+        <v>0.17977640114402976</v>
       </c>
       <c r="D12" s="253">
-        <f>STDEV(IF(K4:K167&lt;&gt;0,K4:K167))*SQRT(12)</f>
-        <v>0.18182455677974027</v>
+        <f>STDEV(IF(K4:K170&lt;&gt;0,K4:K170))*SQRT(12)</f>
+        <v>0.1801823149485598</v>
       </c>
       <c r="E12" s="253"/>
       <c r="F12" s="253">
-        <f>STDEV(IF(L4:L167&lt;&gt;0,L4:L167))*SQRT(12)</f>
+        <f>STDEV(IF(L4:L170&lt;&gt;0,L4:L170))*SQRT(12)</f>
         <v>0.23188031681967808</v>
       </c>
       <c r="H12" s="43">
@@ -7248,11 +6534,11 @@
       </c>
       <c r="C13" s="216">
         <f t="shared" ref="C13:F15" si="22">C57</f>
-        <v>-1.1310839363227743E-3</v>
+        <v>-7.4685140863456345E-3</v>
       </c>
       <c r="D13" s="216">
         <f t="shared" si="22"/>
-        <v>4.4707681864886162E-4</v>
+        <v>-6.0197581578534942E-3</v>
       </c>
       <c r="E13" s="216"/>
       <c r="F13" s="216">
@@ -7465,11 +6751,11 @@
       </c>
       <c r="C14" s="216">
         <f t="shared" si="22"/>
-        <v>6.0540658789299595E-2</v>
+        <v>5.9632122370227414E-2</v>
       </c>
       <c r="D14" s="216">
         <f t="shared" si="22"/>
-        <v>6.2318516198524909E-2</v>
+        <v>6.1006706725691418E-2</v>
       </c>
       <c r="E14" s="216"/>
       <c r="F14" s="216">
@@ -7657,11 +6943,11 @@
       </c>
       <c r="C15" s="217">
         <f t="shared" si="22"/>
-        <v>6.620343988837174E-2</v>
+        <v>6.4234679562744201E-2</v>
       </c>
       <c r="D15" s="217">
         <f t="shared" si="22"/>
-        <v>6.8409349492220217E-2</v>
+        <v>6.5693192466216743E-2</v>
       </c>
       <c r="E15" s="217"/>
       <c r="F15" s="217" t="e">
@@ -7831,18 +7117,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:97" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="16" spans="1:97" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="173"/>
       <c r="B16" s="56" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="217">
         <f>POWER(C49/C43,365/($B$49-$B$43))-1</f>
-        <v>5.2250962102252885E-2</v>
+        <v>4.6268789226484808E-2</v>
       </c>
       <c r="D16" s="217">
         <f>POWER(D49/D43,365/($B$49-$B$43))-1</f>
-        <v>5.4516852412320294E-2</v>
+        <v>4.8435324147332759E-2</v>
       </c>
       <c r="E16" s="217"/>
       <c r="F16" s="217" t="e">
@@ -8055,19 +7341,19 @@
       </c>
       <c r="C17" s="217">
         <f>'[1]DATA - Since Change'!E10</f>
-        <v>6.7518938402899575E-2</v>
+        <v>6.6175891820999144E-2</v>
       </c>
       <c r="D17" s="217">
         <f>'[1]DATA - Since Change'!D10</f>
-        <v>6.9988156990374639E-2</v>
+        <v>6.8472312204649777E-2</v>
       </c>
       <c r="E17" s="217">
         <f>'[1]DATA - Since Change'!F10</f>
-        <v>6.0533172875340435E-2</v>
+        <v>5.925029936541959E-2</v>
       </c>
       <c r="F17" s="217">
         <f>'[1]DATA - Since Change'!H10</f>
-        <v>0.14493718060639527</v>
+        <v>0.15396680488046344</v>
       </c>
       <c r="H17" s="142">
         <f t="shared" si="21"/>
@@ -8250,19 +7536,19 @@
       </c>
       <c r="C18" s="217">
         <f>(C49-C44)/C44</f>
-        <v>2.4435623914661374E-2</v>
+        <v>3.1589338598223098E-2</v>
       </c>
       <c r="D18" s="217">
         <f>(D49-D44)/D44</f>
-        <v>2.6421039873954673E-2</v>
+        <v>3.5386473429951694E-2</v>
       </c>
       <c r="E18" s="217">
         <f>'[1]DATA - Since Change'!F17</f>
-        <v>1.7791750724361011E-2</v>
+        <v>2.5063670554658968E-2</v>
       </c>
       <c r="F18" s="217">
         <f>'[1]DATA - Since Change'!H17</f>
-        <v>0.18396276753647034</v>
+        <v>0.56348260735089295</v>
       </c>
       <c r="H18" s="43">
         <f t="shared" si="21"/>
@@ -8436,19 +7722,19 @@
       </c>
       <c r="C19" s="217">
         <f>(C49-C48)/C48</f>
-        <v>2.4435623914661374E-2</v>
+        <v>1.2229083424143359E-2</v>
       </c>
       <c r="D19" s="217">
         <f>(D49-D48)/D48</f>
-        <v>2.6421039873954673E-2</v>
+        <v>1.2280080292832684E-2</v>
       </c>
       <c r="E19" s="217">
         <f>'[1]DATA - Since Change'!F18</f>
-        <v>1.7791750724361011E-2</v>
+        <v>1.0731783186873178E-2</v>
       </c>
       <c r="F19" s="217">
         <f>'[1]DATA - Since Change'!H18</f>
-        <v>0.18396276753647034</v>
+        <v>6.1748728952811804E-2</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="43">
@@ -8656,16 +7942,16 @@
       </c>
       <c r="C20" s="256">
         <f>(C10-$C$7)/C12</f>
-        <v>-8.0527419393482694E-2</v>
+        <v>-7.2074832883179632E-2</v>
       </c>
       <c r="D20" s="264">
         <f>(D10-$C$7)/D12</f>
-        <v>-7.0381725847739676E-2</v>
+        <v>-6.2004934206548602E-2</v>
       </c>
       <c r="E20" s="264"/>
       <c r="F20" s="264">
         <f>(F10-$C$7)/F12</f>
-        <v>-4.3156875655738087</v>
+        <v>-4.3133329025843477</v>
       </c>
       <c r="H20" s="142">
         <f t="shared" si="21"/>
@@ -8847,11 +8133,11 @@
         <v>45</v>
       </c>
       <c r="C21" s="256">
-        <f>COVAR(J4:J167,$L$4:$L$167)/VAR($L$4:$L$167)</f>
+        <f>COVAR(J4:J170,$L$4:$L$170)/VAR($L$4:$L$170)</f>
         <v>0.63957497547291187</v>
       </c>
       <c r="D21" s="265">
-        <f>COVAR(K4:K167,$L$4:$L$167)/VAR($L$4:$L$167)</f>
+        <f>COVAR(K4:K170,$L$4:$L$170)/VAR($L$4:$L$170)</f>
         <v>0.64064084703714319</v>
       </c>
       <c r="E21" s="265"/>
@@ -9028,11 +8314,11 @@
       </c>
       <c r="C22" s="253">
         <f>C30-($F$30*C21)</f>
-        <v>0.62542856648071055</v>
+        <v>0.62673082617477527</v>
       </c>
       <c r="D22" s="267">
         <f>D30-($F$30*D21)</f>
-        <v>0.62830690426189262</v>
+        <v>0.62958204788349981</v>
       </c>
       <c r="E22" s="267"/>
       <c r="F22" s="268"/>
@@ -9233,7 +8519,7 @@
       <c r="CR22"/>
       <c r="CS22"/>
     </row>
-    <row r="23" spans="1:97" ht="15" thickBot="1">
+    <row r="23" spans="1:97" ht="15.75" thickBot="1">
       <c r="A23" s="173" t="s">
         <v>61</v>
       </c>
@@ -9241,11 +8527,11 @@
         <v>47</v>
       </c>
       <c r="C23" s="257">
-        <f>CORREL(J4:J167,$L$4:$L$167)</f>
+        <f>CORREL(J4:J170,$L$4:$L$170)</f>
         <v>0.72107840907587306</v>
       </c>
       <c r="D23" s="269">
-        <f>CORREL(K4:K167,$L$4:$L$167)</f>
+        <f>CORREL(K4:K170,$L$4:$L$170)</f>
         <v>0.72065228630250189</v>
       </c>
       <c r="E23" s="269"/>
@@ -9440,17 +8726,17 @@
         <v>48</v>
       </c>
       <c r="C24" s="270">
-        <f>(COUNTIF(J4:J167,"&gt;0"))/C8</f>
-        <v>0.58536585365853655</v>
+        <f>(COUNTIF(J4:J170,"&gt;0"))/C8</f>
+        <v>0.59281437125748504</v>
       </c>
       <c r="D24" s="271">
-        <f>(COUNTIF(K4:K167,"&gt;0"))/D8</f>
-        <v>0.57926829268292679</v>
+        <f>(COUNTIF(K4:K170,"&gt;0"))/D8</f>
+        <v>0.58682634730538918</v>
       </c>
       <c r="E24" s="271"/>
       <c r="F24" s="271">
-        <f>(COUNTIF(L4:L167,"&gt;0"))/F8</f>
-        <v>0.3902439024390244</v>
+        <f>(COUNTIF(L4:L170,"&gt;0"))/F8</f>
+        <v>0.38323353293413176</v>
       </c>
       <c r="H24" s="43">
         <f t="shared" si="21"/>
@@ -9623,16 +8909,16 @@
         <v>39</v>
       </c>
       <c r="C25" s="252">
-        <f>MIN(AT9:AT167)</f>
+        <f>MIN(AT9:AT170)</f>
         <v>-0.60707474824934915</v>
       </c>
       <c r="D25" s="263">
-        <f>MIN(AU9:AU167)</f>
+        <f>MIN(AU9:AU170)</f>
         <v>-0.60625433665516926</v>
       </c>
       <c r="E25" s="263"/>
       <c r="F25" s="263">
-        <f>MIN(AV9:AV167)</f>
+        <f>MIN(AV9:AV170)</f>
         <v>-1</v>
       </c>
       <c r="G25" s="3"/>
@@ -10185,7 +9471,7 @@
         <v>33.808712121212125</v>
       </c>
     </row>
-    <row r="28" spans="1:97" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="28" spans="1:97" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A28" s="173"/>
       <c r="B28" s="259" t="s">
         <v>33</v>
@@ -10579,16 +9865,16 @@
       </c>
       <c r="C30" s="253">
         <f>C10-C7</f>
-        <v>-1.460882169946817E-2</v>
+        <v>-1.2957354068795408E-2</v>
       </c>
       <c r="D30" s="253">
         <f>D10-C7</f>
-        <v>-1.2797126107658456E-2</v>
+        <v>-1.1172192583569069E-2</v>
       </c>
       <c r="E30" s="253"/>
       <c r="F30" s="253">
         <f>F10-C7</f>
-        <v>-1.000723</v>
+        <v>-1.0001770000000001</v>
       </c>
       <c r="H30" s="43">
         <f t="shared" si="21"/>
@@ -11518,7 +10804,7 @@
       <c r="CR34"/>
       <c r="CS34"/>
     </row>
-    <row r="35" spans="1:97" ht="15" thickBot="1">
+    <row r="35" spans="1:97" ht="15.75" thickBot="1">
       <c r="A35" s="173"/>
       <c r="B35" s="259" t="s">
         <v>41</v>
@@ -12290,7 +11576,7 @@
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="64">
-        <f>SUMIF($H:$H,$B39,P:P)</f>
+        <f t="shared" ref="F39:F49" si="29">SUMIF($H:$H,$B39,P:P)</f>
         <v>10000</v>
       </c>
       <c r="H39" s="43">
@@ -12456,26 +11742,26 @@
         <v>32.916433601100373</v>
       </c>
     </row>
-    <row r="40" spans="1:97" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="40" spans="1:97" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A40" s="62" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="63">
         <f>EOMONTH($C$5,-120)</f>
-        <v>40543</v>
+        <v>40633</v>
       </c>
       <c r="C40" s="64">
         <f t="shared" si="28"/>
-        <v>8353</v>
+        <v>9010.7999999999993</v>
       </c>
       <c r="D40" s="64">
         <f t="shared" si="28"/>
-        <v>8431.23</v>
+        <v>9106.58</v>
       </c>
       <c r="E40" s="64"/>
       <c r="F40" s="64">
-        <f>SUMIF($H:$H,$B40,P:P)</f>
-        <v>8433.5191184674477</v>
+        <f t="shared" si="29"/>
+        <v>9408.8484221911676</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="43">
@@ -12680,20 +11966,20 @@
       </c>
       <c r="B41" s="63">
         <f>EOMONTH($C$5,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="C41" s="64">
         <f t="shared" si="28"/>
-        <v>6155.89</v>
+        <v>6257.93</v>
       </c>
       <c r="D41" s="64">
         <f t="shared" si="28"/>
-        <v>6259.77</v>
+        <v>6375.91</v>
       </c>
       <c r="E41" s="64"/>
       <c r="F41" s="64">
-        <f>SUMIF($H:$H,$B41,P:P)</f>
-        <v>3703.0952246908278</v>
+        <f t="shared" si="29"/>
+        <v>3610.6803420903138</v>
       </c>
       <c r="H41" s="142">
         <f t="shared" si="21"/>
@@ -12873,19 +12159,19 @@
       </c>
       <c r="B42" s="63">
         <f>EOMONTH($C$5,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="C42" s="64">
         <f t="shared" si="28"/>
-        <v>6814.08</v>
+        <v>6935.76</v>
       </c>
       <c r="D42" s="64">
         <f t="shared" si="28"/>
-        <v>6944.15</v>
+        <v>7083.31</v>
       </c>
       <c r="E42" s="64"/>
       <c r="F42" s="64">
-        <f>SUMIF($H:$H,$B42,P:P)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H42" s="43">
@@ -13057,19 +12343,19 @@
       </c>
       <c r="B43" s="63">
         <f>EOMONTH($C$5,-24)</f>
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="C43" s="64">
         <f t="shared" si="28"/>
-        <v>7458.1</v>
+        <v>7636</v>
       </c>
       <c r="D43" s="64">
         <f t="shared" si="28"/>
-        <v>7614.86</v>
+        <v>7798.18</v>
       </c>
       <c r="E43" s="64"/>
       <c r="F43" s="64">
-        <f t="shared" ref="F43:F49" si="29">SUMIF($H:$H,$B43,P:P)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G43" s="3"/>
@@ -13275,15 +12561,15 @@
       </c>
       <c r="B44" s="63">
         <f>EOMONTH($C$5,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="C44" s="64">
         <f t="shared" si="28"/>
-        <v>8062</v>
+        <v>8104</v>
       </c>
       <c r="D44" s="64">
         <f t="shared" si="28"/>
-        <v>8251</v>
+        <v>8280</v>
       </c>
       <c r="E44" s="64"/>
       <c r="F44" s="64">
@@ -13468,15 +12754,15 @@
       </c>
       <c r="B45" s="63">
         <f>EOMONTH($C$5,-6)</f>
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="C45" s="64">
         <f t="shared" si="28"/>
-        <v>8175</v>
+        <v>8147</v>
       </c>
       <c r="D45" s="64">
         <f t="shared" si="28"/>
-        <v>8382</v>
+        <v>8353</v>
       </c>
       <c r="E45" s="64"/>
       <c r="F45" s="64">
@@ -13652,15 +12938,15 @@
       </c>
       <c r="B46" s="63">
         <f>EOMONTH($C$5,-3)</f>
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="C46" s="64">
         <f t="shared" si="28"/>
-        <v>8147</v>
+        <v>8259</v>
       </c>
       <c r="D46" s="64">
         <f t="shared" si="28"/>
-        <v>8353</v>
+        <v>8469</v>
       </c>
       <c r="E46" s="64"/>
       <c r="F46" s="64">
@@ -13864,21 +13150,21 @@
       <c r="CR46"/>
       <c r="CS46"/>
     </row>
-    <row r="47" spans="1:97" ht="15" thickBot="1">
+    <row r="47" spans="1:97" ht="15.75" thickBot="1">
       <c r="A47" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="63">
         <f>EOMONTH($C$5,-1)</f>
-        <v>44165</v>
+        <v>44255</v>
       </c>
       <c r="C47" s="64">
         <f t="shared" si="28"/>
-        <v>8203</v>
+        <v>8332</v>
       </c>
       <c r="D47" s="64">
         <f t="shared" si="28"/>
-        <v>8411</v>
+        <v>8544</v>
       </c>
       <c r="E47" s="64"/>
       <c r="F47" s="64">
@@ -14068,18 +13354,18 @@
     </row>
     <row r="48" spans="1:97">
       <c r="A48" s="62" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B48" s="66">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="C48" s="64">
         <f t="shared" si="28"/>
-        <v>8062</v>
+        <v>8259</v>
       </c>
       <c r="D48" s="64">
         <f t="shared" si="28"/>
-        <v>8251</v>
+        <v>8469</v>
       </c>
       <c r="E48" s="64"/>
       <c r="F48" s="64">
@@ -14253,17 +13539,17 @@
       <c r="A49" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="330">
+      <c r="B49" s="327">
         <f>C5</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="C49" s="64">
         <f t="shared" si="28"/>
-        <v>8259</v>
+        <v>8360</v>
       </c>
       <c r="D49" s="64">
         <f t="shared" si="28"/>
-        <v>8469</v>
+        <v>8573</v>
       </c>
       <c r="E49" s="64"/>
       <c r="F49" s="64">
@@ -14641,7 +13927,7 @@
       </c>
     </row>
     <row r="51" spans="1:97">
-      <c r="A51" s="332" t="s">
+      <c r="A51" s="347" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="224" t="str">
@@ -14650,11 +13936,11 @@
       </c>
       <c r="C51" s="225">
         <f>(C49-C39)/C39</f>
-        <v>-0.1741</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="D51" s="225">
         <f>(D49-D39)/D39</f>
-        <v>-0.15310000000000001</v>
+        <v>-0.14269999999999999</v>
       </c>
       <c r="E51" s="225"/>
       <c r="F51" s="225">
@@ -14824,19 +14110,19 @@
         <v>29.49052266017538</v>
       </c>
     </row>
-    <row r="52" spans="1:97" s="57" customFormat="1" ht="15" thickBot="1">
-      <c r="A52" s="333"/>
+    <row r="52" spans="1:97" s="57" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A52" s="348"/>
       <c r="B52" s="224" t="str">
         <f>A40</f>
         <v>10YRS</v>
       </c>
       <c r="C52" s="225">
         <f>(C49-C40)/C40</f>
-        <v>-1.125344187716988E-2</v>
+        <v>-7.2224441780973869E-2</v>
       </c>
       <c r="D52" s="225">
         <f t="shared" ref="D52:F52" si="30">(D49-D40)/D40</f>
-        <v>4.4797734138435838E-3</v>
+        <v>-5.8592797735263942E-2</v>
       </c>
       <c r="E52" s="225"/>
       <c r="F52" s="225">
@@ -15041,18 +14327,18 @@
       <c r="CS52"/>
     </row>
     <row r="53" spans="1:97">
-      <c r="A53" s="333"/>
+      <c r="A53" s="348"/>
       <c r="B53" s="224" t="str">
         <f>A41</f>
         <v>5YRS</v>
       </c>
       <c r="C53" s="225">
         <f>(C49-C41)/C41</f>
-        <v>0.34164190718157722</v>
+        <v>0.33590500373126569</v>
       </c>
       <c r="D53" s="225">
         <f>(D49-D41)/D41</f>
-        <v>0.35292510747199968</v>
+        <v>0.34459237975441942</v>
       </c>
       <c r="E53" s="225"/>
       <c r="F53" s="225">
@@ -15232,18 +14518,18 @@
       </c>
     </row>
     <row r="54" spans="1:97">
-      <c r="A54" s="334"/>
+      <c r="A54" s="349"/>
       <c r="B54" s="224" t="str">
         <f>A42</f>
         <v>3YRS</v>
       </c>
       <c r="C54" s="225">
         <f>(C49-C42)/C42</f>
-        <v>0.21204916877993801</v>
+        <v>0.20534735919351299</v>
       </c>
       <c r="D54" s="225">
         <f>(D49-D42)/D42</f>
-        <v>0.21958771051892606</v>
+        <v>0.21030986925603984</v>
       </c>
       <c r="E54" s="225"/>
       <c r="F54" s="225" t="e">
@@ -15618,7 +14904,7 @@
       <c r="CS55"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="332" t="s">
+      <c r="A56" s="347" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="224" t="s">
@@ -15626,11 +14912,11 @@
       </c>
       <c r="C56" s="226">
         <f>((1+C51)^(1/(C8/12))-1)</f>
-        <v>-1.38987214146572E-2</v>
+        <v>-1.2788895279366774E-2</v>
       </c>
       <c r="D56" s="226">
         <f>((1+D51)^(1/(D8/12))-1)</f>
-        <v>-1.2085353116480957E-2</v>
+        <v>-1.1002547415217223E-2</v>
       </c>
       <c r="E56" s="226"/>
       <c r="F56" s="226">
@@ -15810,17 +15096,17 @@
       </c>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="333"/>
+      <c r="A57" s="348"/>
       <c r="B57" s="224" t="s">
         <v>77</v>
       </c>
       <c r="C57" s="226">
         <f>((1+C52)^(1/(120/12))-1)</f>
-        <v>-1.1310839363227743E-3</v>
+        <v>-7.4685140863456345E-3</v>
       </c>
       <c r="D57" s="226">
         <f>((1+D52)^(1/(120/12))-1)</f>
-        <v>4.4707681864886162E-4</v>
+        <v>-6.0197581578534942E-3</v>
       </c>
       <c r="E57" s="226"/>
       <c r="F57" s="226">
@@ -15991,17 +15277,17 @@
       </c>
     </row>
     <row r="58" spans="1:97" s="54" customFormat="1">
-      <c r="A58" s="333"/>
+      <c r="A58" s="348"/>
       <c r="B58" s="224" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="226">
         <f>((1+C53)^(1/(60/12))-1)</f>
-        <v>6.0540658789299595E-2</v>
+        <v>5.9632122370227414E-2</v>
       </c>
       <c r="D58" s="226">
         <f>((1+D53)^(1/(60/12))-1)</f>
-        <v>6.2318516198524909E-2</v>
+        <v>6.1006706725691418E-2</v>
       </c>
       <c r="E58" s="226"/>
       <c r="F58" s="226">
@@ -16205,18 +15491,18 @@
       <c r="CR58"/>
       <c r="CS58"/>
     </row>
-    <row r="59" spans="1:97" ht="15" thickBot="1">
-      <c r="A59" s="334"/>
+    <row r="59" spans="1:97" ht="15.75" thickBot="1">
+      <c r="A59" s="349"/>
       <c r="B59" s="224" t="s">
         <v>51</v>
       </c>
       <c r="C59" s="226">
         <f>((1+C54)^(1/(36/12))-1)</f>
-        <v>6.620343988837174E-2</v>
+        <v>6.4234679562744201E-2</v>
       </c>
       <c r="D59" s="226">
         <f>((1+D54)^(1/(36/12))-1)</f>
-        <v>6.8409349492220217E-2</v>
+        <v>6.5693192466216743E-2</v>
       </c>
       <c r="E59" s="226"/>
       <c r="F59" s="226" t="e">
@@ -17109,7 +16395,7 @@
         <v>23.975386928873164</v>
       </c>
     </row>
-    <row r="64" spans="1:97" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="64" spans="1:97" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A64"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -18395,7 +17681,7 @@
       <c r="CR70"/>
       <c r="CS70"/>
     </row>
-    <row r="71" spans="1:97" ht="15" thickBot="1">
+    <row r="71" spans="1:97" ht="15.75" thickBot="1">
       <c r="H71" s="72">
         <f t="shared" si="53"/>
         <v>41274</v>
@@ -19282,7 +18568,7 @@
         <v>20.317105314537145</v>
       </c>
     </row>
-    <row r="76" spans="1:97" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="76" spans="1:97" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A76"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -20568,7 +19854,7 @@
       <c r="CR82"/>
       <c r="CS82"/>
     </row>
-    <row r="83" spans="1:97" ht="15" thickBot="1">
+    <row r="83" spans="1:97" ht="15.75" thickBot="1">
       <c r="H83" s="72">
         <f t="shared" si="53"/>
         <v>41639</v>
@@ -21455,7 +20741,7 @@
         <v>19.050030837532649</v>
       </c>
     </row>
-    <row r="88" spans="1:97" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="88" spans="1:97" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A88"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -22661,7 +21947,7 @@
         <v>16.676211608994983</v>
       </c>
     </row>
-    <row r="95" spans="1:97" ht="15" thickBot="1">
+    <row r="95" spans="1:97" ht="15.75" thickBot="1">
       <c r="H95" s="72">
         <f t="shared" si="53"/>
         <v>42004</v>
@@ -24346,7 +23632,7 @@
         <v>8.9349679180187156</v>
       </c>
     </row>
-    <row r="105" spans="2:97" ht="15" thickBot="1">
+    <row r="105" spans="2:97" ht="15.75" thickBot="1">
       <c r="G105" s="71"/>
       <c r="H105" s="43">
         <f t="shared" si="53"/>
@@ -24675,7 +23961,7 @@
         <v>8.9349679180187156</v>
       </c>
     </row>
-    <row r="107" spans="2:97" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="107" spans="2:97" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="B107" s="69"/>
       <c r="C107" s="70"/>
       <c r="D107" s="70"/>
@@ -26727,7 +26013,7 @@
         <v>6.9614069099733955</v>
       </c>
     </row>
-    <row r="119" spans="1:97" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="119" spans="1:97" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A119"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
@@ -27277,7 +26563,7 @@
         <v>6.9614069099733955</v>
       </c>
     </row>
-    <row r="122" spans="1:97" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="122" spans="1:97" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A122"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
@@ -27818,7 +27104,7 @@
         <v>6.6097238358761752</v>
       </c>
     </row>
-    <row r="125" spans="1:97" ht="15" thickBot="1">
+    <row r="125" spans="1:97" ht="15.75" thickBot="1">
       <c r="H125" s="72">
         <f t="shared" si="53"/>
         <v>42916</v>
@@ -28319,7 +27605,7 @@
         <v>6.2486525631091467</v>
       </c>
     </row>
-    <row r="128" spans="1:97" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="128" spans="1:97" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A128"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
@@ -28850,7 +28136,7 @@
         <v>6.2486525631091467</v>
       </c>
     </row>
-    <row r="131" spans="8:64" ht="15" thickBot="1">
+    <row r="131" spans="8:64" ht="15.75" thickBot="1">
       <c r="H131" s="72">
         <f t="shared" si="53"/>
         <v>43100</v>
@@ -29052,15 +28338,15 @@
       <c r="P132" s="45"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="31">
-        <f t="shared" ref="R132:R167" si="81">(N132-$N$3)/$N$3</f>
+        <f t="shared" ref="R132:R170" si="81">(N132-$N$3)/$N$3</f>
         <v>-0.31453599999999998</v>
       </c>
       <c r="S132" s="47">
-        <f t="shared" ref="S132:S167" si="82">(O132-$O$3)/$O$3</f>
+        <f t="shared" ref="S132:S170" si="82">(O132-$O$3)/$O$3</f>
         <v>-0.30141000000000001</v>
       </c>
       <c r="T132" s="32">
-        <f t="shared" ref="T132:T167" si="83">(P132-$P$3)/$P$3</f>
+        <f t="shared" ref="T132:T170" si="83">(P132-$P$3)/$P$3</f>
         <v>-1</v>
       </c>
       <c r="U132" s="2"/>
@@ -29112,11 +28398,11 @@
       </c>
       <c r="AO132" s="1"/>
       <c r="AP132" s="33">
-        <f t="shared" ref="AP132:AP167" si="85">J132-L132</f>
+        <f t="shared" ref="AP132:AP170" si="85">J132-L132</f>
         <v>5.9523809523809312E-3</v>
       </c>
       <c r="AQ132" s="44">
-        <f t="shared" ref="AQ132:AQ167" si="86">K132-L132</f>
+        <f t="shared" ref="AQ132:AQ170" si="86">K132-L132</f>
         <v>6.0122549196086617E-3</v>
       </c>
       <c r="AR132" s="60"/>
@@ -29258,11 +28544,11 @@
       </c>
       <c r="AK133" s="1"/>
       <c r="AL133" s="37">
-        <f t="shared" ref="AL133:AL169" si="94">IF(J133&lt;$C$32,((($C$32*100)-(J133*100))^2),0)</f>
+        <f t="shared" ref="AL133:AL137" si="94">IF(J133&lt;$C$32,((($C$32*100)-(J133*100))^2),0)</f>
         <v>0</v>
       </c>
       <c r="AM133" s="48">
-        <f t="shared" ref="AM133:AM169" si="95">IF(K133&lt;$D$32,((($D$32*100)-(K133*100))^2),0)</f>
+        <f t="shared" ref="AM133:AM137" si="95">IF(K133&lt;$D$32,((($D$32*100)-(K133*100))^2),0)</f>
         <v>0</v>
       </c>
       <c r="AN133" s="39">
@@ -29345,9 +28631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="8:64" ht="15" thickBot="1">
+    <row r="134" spans="8:64" ht="15.75" thickBot="1">
       <c r="H134" s="72">
-        <f t="shared" ref="H134:H167" si="98">EOMONTH(H133,1)</f>
+        <f t="shared" ref="H134:H170" si="98">EOMONTH(H133,1)</f>
         <v>43190</v>
       </c>
       <c r="I134" s="59"/>
@@ -29831,7 +29117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="8:64" ht="15" thickBot="1">
+    <row r="137" spans="8:64" ht="15.75" thickBot="1">
       <c r="H137" s="72">
         <f t="shared" si="98"/>
         <v>43281</v>
@@ -30317,7 +29603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="8:64" ht="15" thickBot="1">
+    <row r="140" spans="8:64" ht="15.75" thickBot="1">
       <c r="H140" s="72">
         <f t="shared" si="98"/>
         <v>43373</v>
@@ -30557,15 +29843,15 @@
       </c>
       <c r="AK141" s="1"/>
       <c r="AL141" s="37">
-        <f t="shared" ref="AL141:AL167" si="107">IF(J141&lt;$C$32,((($C$32*100)-(J141*100))^2),0)</f>
+        <f t="shared" ref="AL141:AL170" si="107">IF(J141&lt;$C$32,((($C$32*100)-(J141*100))^2),0)</f>
         <v>0</v>
       </c>
       <c r="AM141" s="48">
-        <f t="shared" ref="AM141:AM167" si="108">IF(K141&lt;$D$32,((($D$32*100)-(K141*100))^2),0)</f>
+        <f t="shared" ref="AM141:AM170" si="108">IF(K141&lt;$D$32,((($D$32*100)-(K141*100))^2),0)</f>
         <v>0</v>
       </c>
       <c r="AN141" s="39">
-        <f t="shared" ref="AN141:AN167" si="109">IF(L141&lt;$F$32,((($F$32*100)-(L141*100))^2),0)</f>
+        <f t="shared" ref="AN141:AN170" si="109">IF(L141&lt;$F$32,((($F$32*100)-(L141*100))^2),0)</f>
         <v>0</v>
       </c>
       <c r="AO141" s="1"/>
@@ -30803,7 +30089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="8:64" ht="15" thickBot="1">
+    <row r="143" spans="8:64" ht="15.75" thickBot="1">
       <c r="H143" s="72">
         <f t="shared" si="98"/>
         <v>43465</v>
@@ -31298,7 +30584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="8:64" ht="15" thickBot="1">
+    <row r="146" spans="8:64" ht="15.75" thickBot="1">
       <c r="H146" s="72">
         <f t="shared" si="98"/>
         <v>43555</v>
@@ -31784,7 +31070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="8:64" ht="15" thickBot="1">
+    <row r="149" spans="8:64" ht="15.75" thickBot="1">
       <c r="H149" s="72">
         <f t="shared" si="98"/>
         <v>43646</v>
@@ -32270,7 +31556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="8:64" ht="15" thickBot="1">
+    <row r="152" spans="8:64" ht="15.75" thickBot="1">
       <c r="H152" s="72">
         <f t="shared" si="98"/>
         <v>43738</v>
@@ -32454,10 +31740,10 @@
       </c>
       <c r="L153" s="236"/>
       <c r="M153" s="2"/>
-      <c r="N153" s="318">
+      <c r="N153" s="315">
         <v>7964</v>
       </c>
-      <c r="O153" s="316">
+      <c r="O153" s="313">
         <v>8137</v>
       </c>
       <c r="P153" s="45"/>
@@ -32613,10 +31899,10 @@
       </c>
       <c r="L154" s="236"/>
       <c r="M154" s="2"/>
-      <c r="N154" s="318">
+      <c r="N154" s="315">
         <v>8019</v>
       </c>
-      <c r="O154" s="316">
+      <c r="O154" s="313">
         <v>8193</v>
       </c>
       <c r="P154" s="45"/>
@@ -32756,7 +32042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="8:64" ht="15" thickBot="1">
+    <row r="155" spans="8:64" ht="15.75" thickBot="1">
       <c r="H155" s="72">
         <f t="shared" si="98"/>
         <v>43830</v>
@@ -32772,10 +32058,10 @@
       </c>
       <c r="L155" s="237"/>
       <c r="M155" s="2"/>
-      <c r="N155" s="319">
+      <c r="N155" s="316">
         <v>8062</v>
       </c>
-      <c r="O155" s="317">
+      <c r="O155" s="314">
         <v>8251</v>
       </c>
       <c r="P155" s="77"/>
@@ -32949,10 +32235,10 @@
       </c>
       <c r="L156" s="236"/>
       <c r="M156" s="2"/>
-      <c r="N156" s="318">
+      <c r="N156" s="315">
         <v>8062</v>
       </c>
-      <c r="O156" s="316">
+      <c r="O156" s="313">
         <v>8251</v>
       </c>
       <c r="P156" s="45"/>
@@ -33108,10 +32394,10 @@
       </c>
       <c r="L157" s="236"/>
       <c r="M157" s="2"/>
-      <c r="N157" s="318">
+      <c r="N157" s="315">
         <v>8076</v>
       </c>
-      <c r="O157" s="316">
+      <c r="O157" s="313">
         <v>8266</v>
       </c>
       <c r="P157" s="45"/>
@@ -33251,7 +32537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="8:64" ht="15" thickBot="1">
+    <row r="158" spans="8:64" ht="15.75" thickBot="1">
       <c r="H158" s="72">
         <f t="shared" si="98"/>
         <v>43921</v>
@@ -33267,10 +32553,10 @@
       </c>
       <c r="L158" s="237"/>
       <c r="M158" s="2"/>
-      <c r="N158" s="319">
+      <c r="N158" s="316">
         <v>8104</v>
       </c>
-      <c r="O158" s="317">
+      <c r="O158" s="314">
         <v>8280</v>
       </c>
       <c r="P158" s="77"/>
@@ -33435,10 +32721,10 @@
       </c>
       <c r="L159" s="236"/>
       <c r="M159" s="2"/>
-      <c r="N159" s="318">
+      <c r="N159" s="315">
         <v>8147</v>
       </c>
-      <c r="O159" s="316">
+      <c r="O159" s="313">
         <v>8338</v>
       </c>
       <c r="P159" s="45"/>
@@ -33585,7 +32871,7 @@
       </c>
       <c r="I160" s="59"/>
       <c r="J160" s="33">
-        <f t="shared" ref="J160:K167" si="124">N160/N159-1</f>
+        <f t="shared" ref="J160:K170" si="124">N160/N159-1</f>
         <v>6.8736958389590264E-3</v>
       </c>
       <c r="K160" s="44">
@@ -33594,10 +32880,10 @@
       </c>
       <c r="L160" s="236"/>
       <c r="M160" s="2"/>
-      <c r="N160" s="318">
+      <c r="N160" s="315">
         <v>8203</v>
       </c>
-      <c r="O160" s="316">
+      <c r="O160" s="313">
         <v>8397</v>
       </c>
       <c r="P160" s="45"/>
@@ -33737,7 +33023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="8:64" ht="15" thickBot="1">
+    <row r="161" spans="8:64" ht="15.75" thickBot="1">
       <c r="H161" s="72">
         <f t="shared" si="98"/>
         <v>44012</v>
@@ -33753,10 +33039,10 @@
       </c>
       <c r="L161" s="236"/>
       <c r="M161" s="2"/>
-      <c r="N161" s="319">
+      <c r="N161" s="316">
         <v>8175</v>
       </c>
-      <c r="O161" s="317">
+      <c r="O161" s="314">
         <v>8382</v>
       </c>
       <c r="P161" s="45"/>
@@ -33900,10 +33186,10 @@
       </c>
       <c r="L162" s="236"/>
       <c r="M162" s="2"/>
-      <c r="N162" s="318">
+      <c r="N162" s="315">
         <v>8203</v>
       </c>
-      <c r="O162" s="316">
+      <c r="O162" s="313">
         <v>8397</v>
       </c>
       <c r="P162" s="45"/>
@@ -34038,10 +33324,10 @@
       </c>
       <c r="L163" s="236"/>
       <c r="M163" s="2"/>
-      <c r="N163" s="318">
+      <c r="N163" s="315">
         <v>8246</v>
       </c>
-      <c r="O163" s="316">
+      <c r="O163" s="313">
         <v>8455</v>
       </c>
       <c r="P163" s="45"/>
@@ -34160,7 +33446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="8:64" ht="15" thickBot="1">
+    <row r="164" spans="8:64" ht="15.75" thickBot="1">
       <c r="H164" s="72">
         <f t="shared" si="98"/>
         <v>44104</v>
@@ -34176,10 +33462,10 @@
       </c>
       <c r="L164" s="237"/>
       <c r="M164" s="2"/>
-      <c r="N164" s="319">
+      <c r="N164" s="316">
         <v>8147</v>
       </c>
-      <c r="O164" s="317">
+      <c r="O164" s="314">
         <v>8353</v>
       </c>
       <c r="P164" s="77"/>
@@ -34344,10 +33630,10 @@
       </c>
       <c r="L165" s="236"/>
       <c r="M165" s="2"/>
-      <c r="N165" s="318">
+      <c r="N165" s="315">
         <v>8175</v>
       </c>
-      <c r="O165" s="316">
+      <c r="O165" s="313">
         <v>8382</v>
       </c>
       <c r="P165" s="45"/>
@@ -34437,7 +33723,7 @@
       <c r="AZ165" s="28"/>
       <c r="BA165" s="1"/>
       <c r="BB165" s="51">
-        <f t="shared" ref="BB165:BD166" si="126">BB164*(1+AX165)</f>
+        <f t="shared" ref="BB165:BD170" si="126">BB164*(1+AX165)</f>
         <v>345.90501416022596</v>
       </c>
       <c r="BC165" s="52">
@@ -34454,7 +33740,7 @@
       <c r="BH165" s="28"/>
       <c r="BI165" s="1"/>
       <c r="BJ165" s="51">
-        <f t="shared" ref="BJ165:BL166" si="127">BJ164*(1+BF165)</f>
+        <f t="shared" ref="BJ165:BL170" si="127">BJ164*(1+BF165)</f>
         <v>19.699280788232997</v>
       </c>
       <c r="BK165" s="52">
@@ -34482,10 +33768,10 @@
       </c>
       <c r="L166" s="236"/>
       <c r="M166" s="2"/>
-      <c r="N166" s="318">
+      <c r="N166" s="315">
         <v>8203</v>
       </c>
-      <c r="O166" s="316">
+      <c r="O166" s="313">
         <v>8411</v>
       </c>
       <c r="P166" s="45"/>
@@ -34522,7 +33808,7 @@
       <c r="AF166" s="28"/>
       <c r="AG166" s="44"/>
       <c r="AH166" s="33">
-        <f t="shared" ref="AH166:AJ168" si="128">IF(AD166&lt;0,AD166,0)</f>
+        <f t="shared" ref="AH166:AJ170" si="128">IF(AD166&lt;0,AD166,0)</f>
         <v>0</v>
       </c>
       <c r="AI166" s="44">
@@ -34604,29 +33890,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="8:64" ht="15" thickBot="1">
-      <c r="H167" s="72">
+    <row r="167" spans="8:64" ht="15.75" thickBot="1">
+      <c r="H167" s="43">
         <f t="shared" si="98"/>
         <v>44196</v>
       </c>
       <c r="I167" s="59"/>
-      <c r="J167" s="144">
-        <f t="shared" ref="J167" si="129">N167/N166-1</f>
+      <c r="J167" s="33">
+        <f t="shared" ref="J167:J170" si="129">N167/N166-1</f>
         <v>6.8267706936486761E-3</v>
       </c>
-      <c r="K167" s="75">
+      <c r="K167" s="44">
         <f t="shared" si="124"/>
         <v>6.8957317798121753E-3</v>
       </c>
-      <c r="L167" s="237"/>
+      <c r="L167" s="236"/>
       <c r="M167" s="2"/>
-      <c r="N167" s="319">
+      <c r="N167" s="316">
         <v>8259</v>
       </c>
-      <c r="O167" s="317">
+      <c r="O167" s="314">
         <v>8469</v>
       </c>
-      <c r="P167" s="77"/>
+      <c r="P167" s="45"/>
       <c r="Q167" s="2"/>
       <c r="R167" s="31">
         <f t="shared" si="81"/>
@@ -34641,313 +33927,496 @@
         <v>-1</v>
       </c>
       <c r="U167" s="2"/>
-      <c r="V167" s="74">
-        <f>(N167-N164)/N164</f>
-        <v>1.3747391677918252E-2</v>
-      </c>
-      <c r="W167" s="74">
-        <f t="shared" ref="W167:X167" si="130">(O167-O164)/O164</f>
-        <v>1.3887226146294744E-2</v>
-      </c>
-      <c r="X167" s="74" t="e">
-        <f t="shared" si="130"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="V167" s="33"/>
+      <c r="W167" s="44"/>
+      <c r="X167" s="329"/>
       <c r="Y167" s="2"/>
-      <c r="Z167" s="144"/>
-      <c r="AA167" s="145"/>
-      <c r="AB167" s="146"/>
+      <c r="Z167" s="33"/>
+      <c r="AA167" s="44"/>
+      <c r="AB167" s="28"/>
       <c r="AC167" s="1"/>
-      <c r="AD167" s="74">
+      <c r="AD167" s="33">
         <f t="shared" si="121"/>
         <v>6.8267706936486761E-3</v>
       </c>
-      <c r="AE167" s="75">
+      <c r="AE167" s="44">
         <f t="shared" si="121"/>
         <v>6.8957317798121753E-3</v>
       </c>
-      <c r="AF167" s="76">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
+      <c r="AF167" s="28"/>
       <c r="AG167" s="44"/>
-      <c r="AH167" s="74">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AI167" s="75">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AJ167" s="76">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AK167" s="69"/>
-      <c r="AL167" s="153">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AM167" s="154">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AN167" s="155">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AO167" s="69"/>
-      <c r="AP167" s="144">
+      <c r="AH167" s="33"/>
+      <c r="AI167" s="44"/>
+      <c r="AJ167" s="28"/>
+      <c r="AK167" s="1"/>
+      <c r="AL167" s="37"/>
+      <c r="AM167" s="48"/>
+      <c r="AN167" s="39"/>
+      <c r="AO167" s="1"/>
+      <c r="AP167" s="33">
         <f t="shared" si="85"/>
         <v>6.8267706936486761E-3</v>
       </c>
-      <c r="AQ167" s="145">
+      <c r="AQ167" s="44">
         <f t="shared" si="86"/>
         <v>6.8957317798121753E-3</v>
       </c>
-      <c r="AR167" s="84"/>
-      <c r="AS167" s="69"/>
-      <c r="AT167" s="74">
+      <c r="AR167" s="60"/>
+      <c r="AS167" s="1"/>
+      <c r="AT167" s="33">
         <f>(N167-(MAX($N$3:N167)))/(MAX($N$3:N167))</f>
         <v>-0.30554154137993661</v>
       </c>
-      <c r="AU167" s="75">
+      <c r="AU167" s="44">
         <f>(O167-(MAX($O$3:O167)))/(MAX($O$3:O167))</f>
         <v>-0.29029695403396921</v>
       </c>
-      <c r="AV167" s="76">
+      <c r="AV167" s="28">
         <f>(P167-(MAX($P$3:P167)))/(MAX($P$3:P167))</f>
         <v>-1</v>
       </c>
-      <c r="AW167" s="69"/>
-      <c r="AX167" s="74">
-        <f t="shared" ref="AX167" si="131">SUMIF(AZ167,"&gt;0",V167)</f>
-        <v>0</v>
-      </c>
-      <c r="AY167" s="75">
-        <f t="shared" ref="AY167" si="132">SUMIF(AZ167,"&gt;0",W167)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ167" s="76">
-        <f t="shared" ref="AZ167" si="133">SUMIF(X167,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="BA167" s="69"/>
+      <c r="AW167" s="1"/>
+      <c r="AX167" s="33"/>
+      <c r="AY167" s="44"/>
+      <c r="AZ167" s="28"/>
+      <c r="BA167" s="1"/>
       <c r="BB167" s="51">
-        <f>BB163*(1+AX167)</f>
+        <f t="shared" si="126"/>
         <v>345.90501416022596</v>
       </c>
       <c r="BC167" s="52">
-        <f>BC163*(1+AY167)</f>
+        <f t="shared" si="126"/>
         <v>351.72291093838106</v>
       </c>
       <c r="BD167" s="53">
-        <f>BD163*(1+AZ167)</f>
+        <f t="shared" si="126"/>
         <v>635.17338599859647</v>
       </c>
-      <c r="BE167" s="69"/>
-      <c r="BF167" s="74">
-        <f t="shared" ref="BF167" si="134">SUMIF(BH167,"&lt;0",V167)</f>
-        <v>0</v>
-      </c>
-      <c r="BG167" s="75">
-        <f t="shared" ref="BG167" si="135">SUMIF(BH167,"&lt;0",W167)</f>
-        <v>0</v>
-      </c>
-      <c r="BH167" s="76">
-        <f t="shared" ref="BH167" si="136">SUMIF(X167,"&lt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="BI167" s="69"/>
-      <c r="BJ167" s="85">
-        <f>BJ163*(1+BF167)</f>
+      <c r="BE167" s="1"/>
+      <c r="BF167" s="33"/>
+      <c r="BG167" s="44"/>
+      <c r="BH167" s="28"/>
+      <c r="BI167" s="1"/>
+      <c r="BJ167" s="51">
+        <f t="shared" si="127"/>
         <v>19.699280788232997</v>
       </c>
-      <c r="BK167" s="86">
-        <f>BK163*(1+BG167)</f>
+      <c r="BK167" s="52">
+        <f t="shared" si="127"/>
         <v>19.743240443090031</v>
       </c>
-      <c r="BL167" s="82">
-        <f>BL163*(1+BH167)</f>
+      <c r="BL167" s="48">
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="8:64">
-      <c r="H168" s="35"/>
-      <c r="I168" s="88"/>
-      <c r="J168" s="44"/>
-      <c r="K168" s="44"/>
-      <c r="L168" s="44"/>
-      <c r="M168"/>
-      <c r="N168" s="89"/>
-      <c r="O168" s="34"/>
-      <c r="P168" s="89"/>
-      <c r="Q168" s="88"/>
-      <c r="R168" s="90"/>
-      <c r="S168" s="34"/>
-      <c r="T168" s="90"/>
-      <c r="U168" s="88"/>
-      <c r="V168" s="91"/>
-      <c r="W168" s="34"/>
-      <c r="X168" s="91"/>
-      <c r="Y168" s="88"/>
-      <c r="Z168" s="91"/>
-      <c r="AA168" s="34"/>
-      <c r="AB168" s="91"/>
-      <c r="AC168" s="34"/>
-      <c r="AD168" s="34"/>
-      <c r="AE168" s="34"/>
-      <c r="AF168" s="34"/>
-      <c r="AG168" s="34"/>
-      <c r="AH168" s="34"/>
-      <c r="AI168" s="34"/>
-      <c r="AJ168" s="34"/>
+      <c r="H168" s="43">
+        <f t="shared" si="98"/>
+        <v>44227</v>
+      </c>
+      <c r="I168" s="59"/>
+      <c r="J168" s="33">
+        <f t="shared" si="129"/>
+        <v>5.327521491706122E-3</v>
+      </c>
+      <c r="K168" s="44">
+        <f t="shared" si="124"/>
+        <v>5.3134962805525543E-3</v>
+      </c>
+      <c r="L168" s="236"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="315">
+        <v>8303</v>
+      </c>
+      <c r="O168" s="313">
+        <v>8514</v>
+      </c>
+      <c r="P168" s="45"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="31">
+        <f t="shared" si="81"/>
+        <v>-0.16969999999999999</v>
+      </c>
+      <c r="S168" s="47">
+        <f t="shared" si="82"/>
+        <v>-0.14860000000000001</v>
+      </c>
+      <c r="T168" s="32">
+        <f t="shared" si="83"/>
+        <v>-1</v>
+      </c>
+      <c r="U168" s="2"/>
+      <c r="V168" s="33"/>
+      <c r="W168" s="44"/>
+      <c r="X168" s="329"/>
+      <c r="Y168" s="2"/>
+      <c r="Z168" s="33"/>
+      <c r="AA168" s="44"/>
+      <c r="AB168" s="28"/>
+      <c r="AC168" s="1"/>
+      <c r="AD168" s="33">
+        <f t="shared" ref="AD168:AF170" si="130">J168-0</f>
+        <v>5.327521491706122E-3</v>
+      </c>
+      <c r="AE168" s="44">
+        <f t="shared" si="130"/>
+        <v>5.3134962805525543E-3</v>
+      </c>
+      <c r="AF168" s="28"/>
+      <c r="AG168" s="44"/>
+      <c r="AH168" s="33"/>
+      <c r="AI168" s="44"/>
+      <c r="AJ168" s="28"/>
       <c r="AK168" s="1"/>
-      <c r="AL168" s="48"/>
-      <c r="AM168" s="92"/>
-      <c r="AN168" s="93"/>
+      <c r="AL168" s="37"/>
+      <c r="AM168" s="48"/>
+      <c r="AN168" s="39"/>
       <c r="AO168" s="1"/>
-      <c r="AP168" s="1"/>
-      <c r="AQ168" s="34"/>
-      <c r="AR168" s="1"/>
+      <c r="AP168" s="33">
+        <f t="shared" si="85"/>
+        <v>5.327521491706122E-3</v>
+      </c>
+      <c r="AQ168" s="44">
+        <f t="shared" si="86"/>
+        <v>5.3134962805525543E-3</v>
+      </c>
+      <c r="AR168" s="60"/>
       <c r="AS168" s="1"/>
-      <c r="AT168" s="1"/>
-      <c r="AU168" s="34"/>
-      <c r="AV168" s="1"/>
+      <c r="AT168" s="33">
+        <f>(N168-(MAX($N$3:N168)))/(MAX($N$3:N168))</f>
+        <v>-0.30184179901654118</v>
+      </c>
+      <c r="AU168" s="44">
+        <f>(O168-(MAX($O$3:O168)))/(MAX($O$3:O168))</f>
+        <v>-0.28652594953893185</v>
+      </c>
+      <c r="AV168" s="28">
+        <f>(P168-(MAX($P$3:P168)))/(MAX($P$3:P168))</f>
+        <v>-1</v>
+      </c>
       <c r="AW168" s="1"/>
-      <c r="AX168" s="91"/>
-      <c r="AY168" s="34"/>
-      <c r="AZ168" s="91"/>
-      <c r="BA168" s="34"/>
-      <c r="BB168" s="93"/>
-      <c r="BC168" s="92"/>
-      <c r="BD168" s="93"/>
+      <c r="AX168" s="33"/>
+      <c r="AY168" s="44"/>
+      <c r="AZ168" s="28"/>
+      <c r="BA168" s="1"/>
+      <c r="BB168" s="51">
+        <f t="shared" si="126"/>
+        <v>345.90501416022596</v>
+      </c>
+      <c r="BC168" s="52">
+        <f t="shared" si="126"/>
+        <v>351.72291093838106</v>
+      </c>
+      <c r="BD168" s="53">
+        <f t="shared" si="126"/>
+        <v>635.17338599859647</v>
+      </c>
       <c r="BE168" s="1"/>
-      <c r="BF168" s="91"/>
-      <c r="BG168" s="34"/>
-      <c r="BH168" s="91"/>
-      <c r="BI168" s="34"/>
-      <c r="BJ168" s="93"/>
-      <c r="BK168" s="92"/>
-      <c r="BL168" s="93"/>
+      <c r="BF168" s="33"/>
+      <c r="BG168" s="44"/>
+      <c r="BH168" s="28"/>
+      <c r="BI168" s="1"/>
+      <c r="BJ168" s="51">
+        <f t="shared" si="127"/>
+        <v>19.699280788232997</v>
+      </c>
+      <c r="BK168" s="52">
+        <f t="shared" si="127"/>
+        <v>19.743240443090031</v>
+      </c>
+      <c r="BL168" s="48">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="8:64">
-      <c r="H169" s="35"/>
-      <c r="I169" s="88"/>
-      <c r="J169" s="44"/>
-      <c r="K169" s="44"/>
-      <c r="L169" s="44"/>
-      <c r="M169"/>
-      <c r="N169" s="89"/>
-      <c r="O169" s="34"/>
-      <c r="P169" s="89"/>
-      <c r="Q169" s="88"/>
-      <c r="R169" s="90"/>
-      <c r="S169" s="34"/>
-      <c r="T169" s="90"/>
-      <c r="U169" s="88"/>
-      <c r="V169" s="91"/>
-      <c r="W169" s="34"/>
-      <c r="X169" s="91"/>
-      <c r="Y169" s="88"/>
-      <c r="Z169" s="91"/>
-      <c r="AA169" s="34"/>
-      <c r="AB169" s="91"/>
-      <c r="AC169" s="34"/>
-      <c r="AD169" s="34"/>
-      <c r="AE169" s="34"/>
-      <c r="AF169" s="34"/>
-      <c r="AG169" s="34"/>
-      <c r="AH169" s="34"/>
-      <c r="AI169" s="34"/>
-      <c r="AJ169" s="34"/>
+      <c r="H169" s="43">
+        <f t="shared" si="98"/>
+        <v>44255</v>
+      </c>
+      <c r="I169" s="59"/>
+      <c r="J169" s="33">
+        <f t="shared" si="129"/>
+        <v>3.492713477056375E-3</v>
+      </c>
+      <c r="K169" s="44">
+        <f t="shared" si="124"/>
+        <v>3.5236081747709314E-3</v>
+      </c>
+      <c r="L169" s="236"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="315">
+        <v>8332</v>
+      </c>
+      <c r="O169" s="313">
+        <v>8544</v>
+      </c>
+      <c r="P169" s="45"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="31">
+        <f t="shared" si="81"/>
+        <v>-0.1668</v>
+      </c>
+      <c r="S169" s="47">
+        <f t="shared" si="82"/>
+        <v>-0.14560000000000001</v>
+      </c>
+      <c r="T169" s="32">
+        <f t="shared" si="83"/>
+        <v>-1</v>
+      </c>
+      <c r="U169" s="2"/>
+      <c r="V169" s="33"/>
+      <c r="W169" s="44"/>
+      <c r="X169" s="329"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="33"/>
+      <c r="AA169" s="44"/>
+      <c r="AB169" s="28"/>
+      <c r="AC169" s="1"/>
+      <c r="AD169" s="33">
+        <f t="shared" si="130"/>
+        <v>3.492713477056375E-3</v>
+      </c>
+      <c r="AE169" s="44">
+        <f t="shared" si="130"/>
+        <v>3.5236081747709314E-3</v>
+      </c>
+      <c r="AF169" s="28"/>
+      <c r="AG169" s="44"/>
+      <c r="AH169" s="33"/>
+      <c r="AI169" s="44"/>
+      <c r="AJ169" s="28"/>
       <c r="AK169" s="1"/>
-      <c r="AL169" s="48"/>
-      <c r="AM169" s="92"/>
-      <c r="AN169" s="93"/>
+      <c r="AL169" s="37"/>
+      <c r="AM169" s="48"/>
+      <c r="AN169" s="39"/>
       <c r="AO169" s="1"/>
-      <c r="AP169" s="1"/>
-      <c r="AQ169" s="34"/>
-      <c r="AR169" s="1"/>
+      <c r="AP169" s="33">
+        <f t="shared" si="85"/>
+        <v>3.492713477056375E-3</v>
+      </c>
+      <c r="AQ169" s="44">
+        <f t="shared" si="86"/>
+        <v>3.5236081747709314E-3</v>
+      </c>
+      <c r="AR169" s="60"/>
       <c r="AS169" s="1"/>
-      <c r="AT169" s="1"/>
-      <c r="AU169" s="34"/>
-      <c r="AV169" s="1"/>
+      <c r="AT169" s="33">
+        <f>(N169-(MAX($N$3:N169)))/(MAX($N$3:N169))</f>
+        <v>-0.29940333245884876</v>
+      </c>
+      <c r="AU169" s="44">
+        <f>(O169-(MAX($O$3:O169)))/(MAX($O$3:O169))</f>
+        <v>-0.28401194654224027</v>
+      </c>
+      <c r="AV169" s="28">
+        <f>(P169-(MAX($P$3:P169)))/(MAX($P$3:P169))</f>
+        <v>-1</v>
+      </c>
       <c r="AW169" s="1"/>
-      <c r="AX169" s="91"/>
-      <c r="AY169" s="34"/>
-      <c r="AZ169" s="91"/>
-      <c r="BA169" s="34"/>
-      <c r="BB169" s="93"/>
-      <c r="BC169" s="92"/>
-      <c r="BD169" s="93"/>
+      <c r="AX169" s="33"/>
+      <c r="AY169" s="44"/>
+      <c r="AZ169" s="28"/>
+      <c r="BA169" s="1"/>
+      <c r="BB169" s="51">
+        <f t="shared" si="126"/>
+        <v>345.90501416022596</v>
+      </c>
+      <c r="BC169" s="52">
+        <f t="shared" si="126"/>
+        <v>351.72291093838106</v>
+      </c>
+      <c r="BD169" s="53">
+        <f t="shared" si="126"/>
+        <v>635.17338599859647</v>
+      </c>
       <c r="BE169" s="1"/>
-      <c r="BF169" s="91"/>
-      <c r="BG169" s="34"/>
-      <c r="BH169" s="91"/>
-      <c r="BI169" s="34"/>
-      <c r="BJ169" s="93"/>
-      <c r="BK169" s="92"/>
-      <c r="BL169" s="93"/>
+      <c r="BF169" s="33"/>
+      <c r="BG169" s="44"/>
+      <c r="BH169" s="28"/>
+      <c r="BI169" s="1"/>
+      <c r="BJ169" s="51">
+        <f t="shared" si="127"/>
+        <v>19.699280788232997</v>
+      </c>
+      <c r="BK169" s="52">
+        <f t="shared" si="127"/>
+        <v>19.743240443090031</v>
+      </c>
+      <c r="BL169" s="48">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="8:64">
-      <c r="H170" s="35"/>
-      <c r="I170" s="88"/>
-      <c r="J170" s="44"/>
-      <c r="K170" s="44"/>
-      <c r="L170" s="44"/>
-      <c r="M170"/>
-      <c r="N170" s="89"/>
-      <c r="O170" s="34"/>
-      <c r="P170" s="89"/>
-      <c r="Q170" s="88"/>
-      <c r="R170" s="90"/>
-      <c r="S170" s="34"/>
-      <c r="T170" s="90"/>
-      <c r="U170" s="88"/>
-      <c r="V170" s="91"/>
-      <c r="W170" s="34"/>
-      <c r="X170" s="91"/>
-      <c r="Y170" s="88"/>
-      <c r="Z170" s="91"/>
-      <c r="AA170" s="34"/>
-      <c r="AB170" s="91"/>
-      <c r="AC170" s="34"/>
-      <c r="AD170" s="34"/>
-      <c r="AE170" s="34"/>
-      <c r="AF170" s="34"/>
-      <c r="AG170" s="34"/>
-      <c r="AH170" s="34"/>
-      <c r="AI170" s="34"/>
-      <c r="AJ170" s="34"/>
-      <c r="AK170" s="1"/>
-      <c r="AL170" s="48"/>
-      <c r="AM170" s="92"/>
-      <c r="AN170" s="93"/>
-      <c r="AO170" s="1"/>
-      <c r="AP170" s="1"/>
-      <c r="AQ170" s="34"/>
-      <c r="AR170" s="1"/>
-      <c r="AS170" s="1"/>
-      <c r="AT170" s="1"/>
-      <c r="AU170" s="34"/>
-      <c r="AV170" s="1"/>
-      <c r="AW170" s="1"/>
-      <c r="AX170" s="91"/>
-      <c r="AY170" s="34"/>
-      <c r="AZ170" s="91"/>
-      <c r="BA170" s="34"/>
-      <c r="BB170" s="93"/>
-      <c r="BC170" s="92"/>
-      <c r="BD170" s="93"/>
-      <c r="BE170" s="1"/>
-      <c r="BF170" s="91"/>
-      <c r="BG170" s="34"/>
-      <c r="BH170" s="91"/>
-      <c r="BI170" s="34"/>
-      <c r="BJ170" s="93"/>
-      <c r="BK170" s="92"/>
-      <c r="BL170" s="93"/>
+      <c r="H170" s="142">
+        <f t="shared" si="98"/>
+        <v>44286</v>
+      </c>
+      <c r="I170" s="171"/>
+      <c r="J170" s="144">
+        <f t="shared" si="129"/>
+        <v>3.3605376860297298E-3</v>
+      </c>
+      <c r="K170" s="145">
+        <f t="shared" si="124"/>
+        <v>3.3941947565543362E-3</v>
+      </c>
+      <c r="L170" s="279"/>
+      <c r="M170" s="169"/>
+      <c r="N170" s="330">
+        <v>8360</v>
+      </c>
+      <c r="O170" s="331">
+        <v>8573</v>
+      </c>
+      <c r="P170" s="147"/>
+      <c r="Q170" s="169"/>
+      <c r="R170" s="149">
+        <f t="shared" si="81"/>
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="S170" s="150">
+        <f t="shared" si="82"/>
+        <v>-0.14269999999999999</v>
+      </c>
+      <c r="T170" s="151">
+        <f t="shared" si="83"/>
+        <v>-1</v>
+      </c>
+      <c r="U170" s="169"/>
+      <c r="V170" s="144">
+        <f>(N170-N164)/N164</f>
+        <v>2.6144593101755247E-2</v>
+      </c>
+      <c r="W170" s="144">
+        <f>(O170-O164)/O164</f>
+        <v>2.6337842691248652E-2</v>
+      </c>
+      <c r="X170" s="144" t="e">
+        <f>(P170-P164)/P164</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y170" s="169"/>
+      <c r="Z170" s="144"/>
+      <c r="AA170" s="145"/>
+      <c r="AB170" s="146"/>
+      <c r="AC170" s="152"/>
+      <c r="AD170" s="144">
+        <f t="shared" si="130"/>
+        <v>3.3605376860297298E-3</v>
+      </c>
+      <c r="AE170" s="145">
+        <f t="shared" si="130"/>
+        <v>3.3941947565543362E-3</v>
+      </c>
+      <c r="AF170" s="146">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="AG170" s="145"/>
+      <c r="AH170" s="144">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="AI170" s="145">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="AJ170" s="146">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="AK170" s="152"/>
+      <c r="AL170" s="153">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="AM170" s="154">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AN170" s="155">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AO170" s="152"/>
+      <c r="AP170" s="144">
+        <f t="shared" si="85"/>
+        <v>3.3605376860297298E-3</v>
+      </c>
+      <c r="AQ170" s="145">
+        <f t="shared" si="86"/>
+        <v>3.3941947565543362E-3</v>
+      </c>
+      <c r="AR170" s="172"/>
+      <c r="AS170" s="152"/>
+      <c r="AT170" s="144">
+        <f>(N170-(MAX($N$3:N170)))/(MAX($N$3:N170))</f>
+        <v>-0.29704895095486983</v>
+      </c>
+      <c r="AU170" s="145">
+        <f>(O170-(MAX($O$3:O170)))/(MAX($O$3:O170))</f>
+        <v>-0.28158174364543842</v>
+      </c>
+      <c r="AV170" s="146">
+        <f>(P170-(MAX($P$3:P170)))/(MAX($P$3:P170))</f>
+        <v>-1</v>
+      </c>
+      <c r="AW170" s="152"/>
+      <c r="AX170" s="144">
+        <f t="shared" ref="AX170" si="131">SUMIF(AZ170,"&gt;0",V170)</f>
+        <v>0</v>
+      </c>
+      <c r="AY170" s="145">
+        <f t="shared" ref="AY170" si="132">SUMIF(AZ170,"&gt;0",W170)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ170" s="146">
+        <f t="shared" ref="AZ170" si="133">SUMIF(X170,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="BA170" s="152"/>
+      <c r="BB170" s="157">
+        <f t="shared" si="126"/>
+        <v>345.90501416022596</v>
+      </c>
+      <c r="BC170" s="158">
+        <f t="shared" si="126"/>
+        <v>351.72291093838106</v>
+      </c>
+      <c r="BD170" s="159">
+        <f t="shared" si="126"/>
+        <v>635.17338599859647</v>
+      </c>
+      <c r="BE170" s="152"/>
+      <c r="BF170" s="144">
+        <f t="shared" ref="BF170" si="134">SUMIF(BH170,"&lt;0",V170)</f>
+        <v>0</v>
+      </c>
+      <c r="BG170" s="145">
+        <f t="shared" ref="BG170" si="135">SUMIF(BH170,"&lt;0",W170)</f>
+        <v>0</v>
+      </c>
+      <c r="BH170" s="146">
+        <f t="shared" ref="BH170" si="136">SUMIF(X170,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="BI170" s="152"/>
+      <c r="BJ170" s="157">
+        <f t="shared" si="127"/>
+        <v>19.699280788232997</v>
+      </c>
+      <c r="BK170" s="158">
+        <f t="shared" si="127"/>
+        <v>19.743240443090031</v>
+      </c>
+      <c r="BL170" s="159">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="8:64">
       <c r="H171" s="35"/>
@@ -39728,14 +39197,7 @@
       <c r="BK251" s="92"/>
       <c r="BL251" s="93"/>
     </row>
-    <row r="252" spans="1:65" s="34" customFormat="1">
-      <c r="A252"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="3"/>
+    <row r="252" spans="1:65">
       <c r="H252" s="35"/>
       <c r="I252" s="88"/>
       <c r="J252" s="44"/>
@@ -39743,48 +39205,58 @@
       <c r="L252" s="44"/>
       <c r="M252"/>
       <c r="N252" s="89"/>
+      <c r="O252" s="34"/>
       <c r="P252" s="89"/>
       <c r="Q252" s="88"/>
       <c r="R252" s="90"/>
+      <c r="S252" s="34"/>
       <c r="T252" s="90"/>
       <c r="U252" s="88"/>
       <c r="V252" s="91"/>
+      <c r="W252" s="34"/>
       <c r="X252" s="91"/>
       <c r="Y252" s="88"/>
       <c r="Z252" s="91"/>
+      <c r="AA252" s="34"/>
       <c r="AB252" s="91"/>
+      <c r="AC252" s="34"/>
+      <c r="AD252" s="34"/>
+      <c r="AE252" s="34"/>
+      <c r="AF252" s="34"/>
+      <c r="AG252" s="34"/>
+      <c r="AH252" s="34"/>
+      <c r="AI252" s="34"/>
+      <c r="AJ252" s="34"/>
       <c r="AK252" s="1"/>
       <c r="AL252" s="48"/>
       <c r="AM252" s="92"/>
       <c r="AN252" s="93"/>
       <c r="AO252" s="1"/>
       <c r="AP252" s="1"/>
+      <c r="AQ252" s="34"/>
       <c r="AR252" s="1"/>
       <c r="AS252" s="1"/>
       <c r="AT252" s="1"/>
+      <c r="AU252" s="34"/>
       <c r="AV252" s="1"/>
       <c r="AW252" s="1"/>
       <c r="AX252" s="91"/>
+      <c r="AY252" s="34"/>
       <c r="AZ252" s="91"/>
+      <c r="BA252" s="34"/>
       <c r="BB252" s="93"/>
       <c r="BC252" s="92"/>
       <c r="BD252" s="93"/>
       <c r="BE252" s="1"/>
       <c r="BF252" s="91"/>
+      <c r="BG252" s="34"/>
       <c r="BH252" s="91"/>
+      <c r="BI252" s="34"/>
       <c r="BJ252" s="93"/>
       <c r="BK252" s="92"/>
       <c r="BL252" s="93"/>
-      <c r="BM252" s="35"/>
-    </row>
-    <row r="253" spans="1:65" s="34" customFormat="1">
-      <c r="A253"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="3"/>
+    </row>
+    <row r="253" spans="1:65">
       <c r="H253" s="35"/>
       <c r="I253" s="88"/>
       <c r="J253" s="44"/>
@@ -39792,48 +39264,58 @@
       <c r="L253" s="44"/>
       <c r="M253"/>
       <c r="N253" s="89"/>
+      <c r="O253" s="34"/>
       <c r="P253" s="89"/>
       <c r="Q253" s="88"/>
       <c r="R253" s="90"/>
+      <c r="S253" s="34"/>
       <c r="T253" s="90"/>
       <c r="U253" s="88"/>
       <c r="V253" s="91"/>
+      <c r="W253" s="34"/>
       <c r="X253" s="91"/>
       <c r="Y253" s="88"/>
       <c r="Z253" s="91"/>
+      <c r="AA253" s="34"/>
       <c r="AB253" s="91"/>
+      <c r="AC253" s="34"/>
+      <c r="AD253" s="34"/>
+      <c r="AE253" s="34"/>
+      <c r="AF253" s="34"/>
+      <c r="AG253" s="34"/>
+      <c r="AH253" s="34"/>
+      <c r="AI253" s="34"/>
+      <c r="AJ253" s="34"/>
       <c r="AK253" s="1"/>
       <c r="AL253" s="48"/>
       <c r="AM253" s="92"/>
       <c r="AN253" s="93"/>
       <c r="AO253" s="1"/>
       <c r="AP253" s="1"/>
+      <c r="AQ253" s="34"/>
       <c r="AR253" s="1"/>
       <c r="AS253" s="1"/>
       <c r="AT253" s="1"/>
+      <c r="AU253" s="34"/>
       <c r="AV253" s="1"/>
       <c r="AW253" s="1"/>
       <c r="AX253" s="91"/>
+      <c r="AY253" s="34"/>
       <c r="AZ253" s="91"/>
+      <c r="BA253" s="34"/>
       <c r="BB253" s="93"/>
       <c r="BC253" s="92"/>
       <c r="BD253" s="93"/>
       <c r="BE253" s="1"/>
       <c r="BF253" s="91"/>
+      <c r="BG253" s="34"/>
       <c r="BH253" s="91"/>
+      <c r="BI253" s="34"/>
       <c r="BJ253" s="93"/>
       <c r="BK253" s="92"/>
       <c r="BL253" s="93"/>
-      <c r="BM253" s="35"/>
-    </row>
-    <row r="254" spans="1:65" s="34" customFormat="1">
-      <c r="A254"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="3"/>
+    </row>
+    <row r="254" spans="1:65">
       <c r="H254" s="35"/>
       <c r="I254" s="88"/>
       <c r="J254" s="44"/>
@@ -39841,39 +39323,56 @@
       <c r="L254" s="44"/>
       <c r="M254"/>
       <c r="N254" s="89"/>
+      <c r="O254" s="34"/>
       <c r="P254" s="89"/>
       <c r="Q254" s="88"/>
       <c r="R254" s="90"/>
+      <c r="S254" s="34"/>
       <c r="T254" s="90"/>
       <c r="U254" s="88"/>
       <c r="V254" s="91"/>
+      <c r="W254" s="34"/>
       <c r="X254" s="91"/>
       <c r="Y254" s="88"/>
       <c r="Z254" s="91"/>
+      <c r="AA254" s="34"/>
       <c r="AB254" s="91"/>
+      <c r="AC254" s="34"/>
+      <c r="AD254" s="34"/>
+      <c r="AE254" s="34"/>
+      <c r="AF254" s="34"/>
+      <c r="AG254" s="34"/>
+      <c r="AH254" s="34"/>
+      <c r="AI254" s="34"/>
+      <c r="AJ254" s="34"/>
       <c r="AK254" s="1"/>
       <c r="AL254" s="48"/>
       <c r="AM254" s="92"/>
       <c r="AN254" s="93"/>
       <c r="AO254" s="1"/>
       <c r="AP254" s="1"/>
+      <c r="AQ254" s="34"/>
       <c r="AR254" s="1"/>
       <c r="AS254" s="1"/>
       <c r="AT254" s="1"/>
+      <c r="AU254" s="34"/>
       <c r="AV254" s="1"/>
       <c r="AW254" s="1"/>
       <c r="AX254" s="91"/>
+      <c r="AY254" s="34"/>
       <c r="AZ254" s="91"/>
+      <c r="BA254" s="34"/>
       <c r="BB254" s="93"/>
       <c r="BC254" s="92"/>
       <c r="BD254" s="93"/>
       <c r="BE254" s="1"/>
       <c r="BF254" s="91"/>
+      <c r="BG254" s="34"/>
       <c r="BH254" s="91"/>
+      <c r="BI254" s="34"/>
       <c r="BJ254" s="93"/>
       <c r="BK254" s="92"/>
       <c r="BL254" s="93"/>
-      <c r="BM254" s="35"/>
     </row>
     <row r="255" spans="1:65" s="34" customFormat="1">
       <c r="A255"/>
@@ -40071,14 +39570,155 @@
       <c r="BL258" s="93"/>
       <c r="BM258" s="35"/>
     </row>
+    <row r="259" spans="1:65" s="34" customFormat="1">
+      <c r="A259"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="35"/>
+      <c r="I259" s="88"/>
+      <c r="J259" s="44"/>
+      <c r="K259" s="44"/>
+      <c r="L259" s="44"/>
+      <c r="M259"/>
+      <c r="N259" s="89"/>
+      <c r="P259" s="89"/>
+      <c r="Q259" s="88"/>
+      <c r="R259" s="90"/>
+      <c r="T259" s="90"/>
+      <c r="U259" s="88"/>
+      <c r="V259" s="91"/>
+      <c r="X259" s="91"/>
+      <c r="Y259" s="88"/>
+      <c r="Z259" s="91"/>
+      <c r="AB259" s="91"/>
+      <c r="AK259" s="1"/>
+      <c r="AL259" s="48"/>
+      <c r="AM259" s="92"/>
+      <c r="AN259" s="93"/>
+      <c r="AO259" s="1"/>
+      <c r="AP259" s="1"/>
+      <c r="AR259" s="1"/>
+      <c r="AS259" s="1"/>
+      <c r="AT259" s="1"/>
+      <c r="AV259" s="1"/>
+      <c r="AW259" s="1"/>
+      <c r="AX259" s="91"/>
+      <c r="AZ259" s="91"/>
+      <c r="BB259" s="93"/>
+      <c r="BC259" s="92"/>
+      <c r="BD259" s="93"/>
+      <c r="BE259" s="1"/>
+      <c r="BF259" s="91"/>
+      <c r="BH259" s="91"/>
+      <c r="BJ259" s="93"/>
+      <c r="BK259" s="92"/>
+      <c r="BL259" s="93"/>
+      <c r="BM259" s="35"/>
+    </row>
+    <row r="260" spans="1:65" s="34" customFormat="1">
+      <c r="A260"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="3"/>
+      <c r="H260" s="35"/>
+      <c r="I260" s="88"/>
+      <c r="J260" s="44"/>
+      <c r="K260" s="44"/>
+      <c r="L260" s="44"/>
+      <c r="M260"/>
+      <c r="N260" s="89"/>
+      <c r="P260" s="89"/>
+      <c r="Q260" s="88"/>
+      <c r="R260" s="90"/>
+      <c r="T260" s="90"/>
+      <c r="U260" s="88"/>
+      <c r="V260" s="91"/>
+      <c r="X260" s="91"/>
+      <c r="Y260" s="88"/>
+      <c r="Z260" s="91"/>
+      <c r="AB260" s="91"/>
+      <c r="AK260" s="1"/>
+      <c r="AL260" s="48"/>
+      <c r="AM260" s="92"/>
+      <c r="AN260" s="93"/>
+      <c r="AO260" s="1"/>
+      <c r="AP260" s="1"/>
+      <c r="AR260" s="1"/>
+      <c r="AS260" s="1"/>
+      <c r="AT260" s="1"/>
+      <c r="AV260" s="1"/>
+      <c r="AW260" s="1"/>
+      <c r="AX260" s="91"/>
+      <c r="AZ260" s="91"/>
+      <c r="BB260" s="93"/>
+      <c r="BC260" s="92"/>
+      <c r="BD260" s="93"/>
+      <c r="BE260" s="1"/>
+      <c r="BF260" s="91"/>
+      <c r="BH260" s="91"/>
+      <c r="BJ260" s="93"/>
+      <c r="BK260" s="92"/>
+      <c r="BL260" s="93"/>
+      <c r="BM260" s="35"/>
+    </row>
+    <row r="261" spans="1:65" s="34" customFormat="1">
+      <c r="A261"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="35"/>
+      <c r="I261" s="88"/>
+      <c r="J261" s="44"/>
+      <c r="K261" s="44"/>
+      <c r="L261" s="44"/>
+      <c r="M261"/>
+      <c r="N261" s="89"/>
+      <c r="P261" s="89"/>
+      <c r="Q261" s="88"/>
+      <c r="R261" s="90"/>
+      <c r="T261" s="90"/>
+      <c r="U261" s="88"/>
+      <c r="V261" s="91"/>
+      <c r="X261" s="91"/>
+      <c r="Y261" s="88"/>
+      <c r="Z261" s="91"/>
+      <c r="AB261" s="91"/>
+      <c r="AK261" s="1"/>
+      <c r="AL261" s="48"/>
+      <c r="AM261" s="92"/>
+      <c r="AN261" s="93"/>
+      <c r="AO261" s="1"/>
+      <c r="AP261" s="1"/>
+      <c r="AR261" s="1"/>
+      <c r="AS261" s="1"/>
+      <c r="AT261" s="1"/>
+      <c r="AV261" s="1"/>
+      <c r="AW261" s="1"/>
+      <c r="AX261" s="91"/>
+      <c r="AZ261" s="91"/>
+      <c r="BB261" s="93"/>
+      <c r="BC261" s="92"/>
+      <c r="BD261" s="93"/>
+      <c r="BE261" s="1"/>
+      <c r="BF261" s="91"/>
+      <c r="BH261" s="91"/>
+      <c r="BJ261" s="93"/>
+      <c r="BK261" s="92"/>
+      <c r="BL261" s="93"/>
+      <c r="BM261" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="BF1:BH1"/>
@@ -40095,569 +39735,575 @@
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Z1:AB1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AL1:AN1 AD5:AJ119 AL3:AN119 AT3:AV119 AT1:AV1 AT168:AV1048576 AL168:AN1048576">
-    <cfRule type="cellIs" dxfId="132" priority="113" operator="equal">
+  <conditionalFormatting sqref="AL1:AN1 AD5:AJ119 AL3:AN119 AT3:AV119 AT1:AV1 AT171:AV1048576 AL171:AN1048576">
+    <cfRule type="cellIs" dxfId="130" priority="113" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AJ4">
-    <cfRule type="cellIs" dxfId="131" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:L119">
-    <cfRule type="containsBlanks" dxfId="130" priority="111">
+    <cfRule type="containsBlanks" dxfId="128" priority="111">
       <formula>LEN(TRIM(J47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AZ119">
-    <cfRule type="cellIs" dxfId="129" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="110" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF4:BH119">
-    <cfRule type="cellIs" dxfId="128" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL120:AN122 AT120:AV122 AD120:AJ122 AD123:AG125">
-    <cfRule type="cellIs" dxfId="127" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120:L122">
-    <cfRule type="containsBlanks" dxfId="126" priority="106">
+    <cfRule type="containsBlanks" dxfId="124" priority="106">
       <formula>LEN(TRIM(K120))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX120:AZ122">
-    <cfRule type="cellIs" dxfId="125" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="105" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF120:BH122">
-    <cfRule type="cellIs" dxfId="124" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J120:J122">
-    <cfRule type="containsBlanks" dxfId="123" priority="103">
+    <cfRule type="containsBlanks" dxfId="121" priority="103">
       <formula>LEN(TRIM(J120))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123:K125">
-    <cfRule type="containsBlanks" dxfId="122" priority="102">
+    <cfRule type="containsBlanks" dxfId="120" priority="102">
       <formula>LEN(TRIM(K123))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:J125">
-    <cfRule type="containsBlanks" dxfId="121" priority="101">
+    <cfRule type="containsBlanks" dxfId="119" priority="101">
       <formula>LEN(TRIM(J123))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L123:L125">
-    <cfRule type="containsBlanks" dxfId="120" priority="100">
+    <cfRule type="containsBlanks" dxfId="118" priority="100">
       <formula>LEN(TRIM(L123))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL123:AN125 AT123:AV125 AH123:AJ125">
-    <cfRule type="cellIs" dxfId="119" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX123:AZ125">
-    <cfRule type="cellIs" dxfId="118" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF123:BH125">
-    <cfRule type="cellIs" dxfId="117" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD126:AG128">
-    <cfRule type="cellIs" dxfId="116" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL126:AN128 AT126:AV128 AH126:AJ128">
-    <cfRule type="cellIs" dxfId="115" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX126:AZ128">
-    <cfRule type="cellIs" dxfId="114" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L126:L131">
-    <cfRule type="containsBlanks" dxfId="113" priority="96">
+    <cfRule type="containsBlanks" dxfId="111" priority="96">
       <formula>LEN(TRIM(L126))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126:K128">
-    <cfRule type="containsBlanks" dxfId="112" priority="95">
+    <cfRule type="containsBlanks" dxfId="110" priority="95">
       <formula>LEN(TRIM(K126))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:J128">
-    <cfRule type="containsBlanks" dxfId="111" priority="94">
+    <cfRule type="containsBlanks" dxfId="109" priority="94">
       <formula>LEN(TRIM(J126))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:K131">
-    <cfRule type="containsBlanks" dxfId="110" priority="89">
+    <cfRule type="containsBlanks" dxfId="108" priority="89">
       <formula>LEN(TRIM(K129))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J129:J131">
-    <cfRule type="containsBlanks" dxfId="109" priority="88">
+    <cfRule type="containsBlanks" dxfId="107" priority="88">
       <formula>LEN(TRIM(J129))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF126:BH128">
-    <cfRule type="cellIs" dxfId="108" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD129:AG131">
-    <cfRule type="cellIs" dxfId="107" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL129:AN131 AT129:AV131 AH129:AJ131">
-    <cfRule type="cellIs" dxfId="106" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX129:AZ131">
-    <cfRule type="cellIs" dxfId="105" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF129:BH131">
-    <cfRule type="cellIs" dxfId="104" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L132:L134">
-    <cfRule type="containsBlanks" dxfId="103" priority="83">
+    <cfRule type="containsBlanks" dxfId="101" priority="83">
       <formula>LEN(TRIM(L132))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132:K134">
-    <cfRule type="containsBlanks" dxfId="102" priority="82">
+    <cfRule type="containsBlanks" dxfId="100" priority="82">
       <formula>LEN(TRIM(K132))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J132:J134">
-    <cfRule type="containsBlanks" dxfId="101" priority="81">
+    <cfRule type="containsBlanks" dxfId="99" priority="81">
       <formula>LEN(TRIM(J132))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD132:AG134">
-    <cfRule type="cellIs" dxfId="100" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL132:AN134 AT132:AV134 AH132:AJ134">
-    <cfRule type="cellIs" dxfId="99" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX132:AZ134">
-    <cfRule type="cellIs" dxfId="98" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF132:BH134">
-    <cfRule type="cellIs" dxfId="97" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L135:L137">
-    <cfRule type="containsBlanks" dxfId="96" priority="76">
+    <cfRule type="containsBlanks" dxfId="94" priority="76">
       <formula>LEN(TRIM(L135))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K135:K137">
-    <cfRule type="containsBlanks" dxfId="95" priority="75">
+    <cfRule type="containsBlanks" dxfId="93" priority="75">
       <formula>LEN(TRIM(K135))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J135:J137">
-    <cfRule type="containsBlanks" dxfId="94" priority="74">
+    <cfRule type="containsBlanks" dxfId="92" priority="74">
       <formula>LEN(TRIM(J135))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD135:AG137">
-    <cfRule type="cellIs" dxfId="93" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL135:AN137 AT135:AV137 AH135:AJ137">
-    <cfRule type="cellIs" dxfId="92" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX135:AZ137">
-    <cfRule type="cellIs" dxfId="91" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF135:BH137">
-    <cfRule type="cellIs" dxfId="90" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L138:L140">
-    <cfRule type="containsBlanks" dxfId="89" priority="69">
+    <cfRule type="containsBlanks" dxfId="87" priority="69">
       <formula>LEN(TRIM(L138))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD138:AG140">
-    <cfRule type="cellIs" dxfId="88" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL138:AN140 AT138:AV140 AH138:AJ140">
-    <cfRule type="cellIs" dxfId="87" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX138:AZ140">
-    <cfRule type="cellIs" dxfId="86" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF138:BH140">
-    <cfRule type="cellIs" dxfId="85" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K138:K140">
-    <cfRule type="containsBlanks" dxfId="84" priority="68">
+    <cfRule type="containsBlanks" dxfId="82" priority="68">
       <formula>LEN(TRIM(K138))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J138:J140">
-    <cfRule type="containsBlanks" dxfId="83" priority="67">
+    <cfRule type="containsBlanks" dxfId="81" priority="67">
       <formula>LEN(TRIM(J138))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L141:L143">
-    <cfRule type="containsBlanks" dxfId="82" priority="62">
+    <cfRule type="containsBlanks" dxfId="80" priority="62">
       <formula>LEN(TRIM(L141))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD141:AG143">
-    <cfRule type="cellIs" dxfId="81" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL141:AN143 AT141:AV143 AH141:AJ143">
-    <cfRule type="cellIs" dxfId="80" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX141:AZ143">
-    <cfRule type="cellIs" dxfId="79" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF141:BH143">
-    <cfRule type="cellIs" dxfId="78" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K141:K143">
-    <cfRule type="containsBlanks" dxfId="77" priority="61">
+    <cfRule type="containsBlanks" dxfId="75" priority="61">
       <formula>LEN(TRIM(K141))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141:J143">
-    <cfRule type="containsBlanks" dxfId="76" priority="60">
+    <cfRule type="containsBlanks" dxfId="74" priority="60">
       <formula>LEN(TRIM(J141))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L146">
-    <cfRule type="containsBlanks" dxfId="75" priority="55">
+    <cfRule type="containsBlanks" dxfId="73" priority="55">
       <formula>LEN(TRIM(L144))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144:K146">
-    <cfRule type="containsBlanks" dxfId="74" priority="54">
+    <cfRule type="containsBlanks" dxfId="72" priority="54">
       <formula>LEN(TRIM(K144))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144:J146">
-    <cfRule type="containsBlanks" dxfId="73" priority="53">
+    <cfRule type="containsBlanks" dxfId="71" priority="53">
       <formula>LEN(TRIM(J144))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD144:AG146">
-    <cfRule type="cellIs" dxfId="72" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL144:AN146 AT144:AV146 AH144:AJ146">
-    <cfRule type="cellIs" dxfId="71" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX144:AZ146">
-    <cfRule type="cellIs" dxfId="70" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF144:BH146">
-    <cfRule type="cellIs" dxfId="69" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L147:L149">
-    <cfRule type="containsBlanks" dxfId="68" priority="48">
+    <cfRule type="containsBlanks" dxfId="66" priority="48">
       <formula>LEN(TRIM(L147))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K147:K149">
-    <cfRule type="containsBlanks" dxfId="67" priority="47">
+    <cfRule type="containsBlanks" dxfId="65" priority="47">
       <formula>LEN(TRIM(K147))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J147:J149">
-    <cfRule type="containsBlanks" dxfId="66" priority="46">
+    <cfRule type="containsBlanks" dxfId="64" priority="46">
       <formula>LEN(TRIM(J147))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L150:L152">
-    <cfRule type="containsBlanks" dxfId="65" priority="41">
+    <cfRule type="containsBlanks" dxfId="63" priority="41">
       <formula>LEN(TRIM(L150))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD147:AG149">
-    <cfRule type="cellIs" dxfId="64" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL147:AN149 AT147:AV149 AH147:AJ149">
-    <cfRule type="cellIs" dxfId="63" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX147:AZ149">
-    <cfRule type="cellIs" dxfId="62" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF147:BH149">
-    <cfRule type="cellIs" dxfId="61" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD150:AG152">
-    <cfRule type="cellIs" dxfId="60" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL150:AN152 AT150:AV152 AH150:AJ152">
-    <cfRule type="cellIs" dxfId="59" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX150:AZ152">
-    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF150:BH152">
-    <cfRule type="cellIs" dxfId="57" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K150:K152">
-    <cfRule type="containsBlanks" dxfId="56" priority="40">
+    <cfRule type="containsBlanks" dxfId="54" priority="40">
       <formula>LEN(TRIM(K150))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150:J152">
-    <cfRule type="containsBlanks" dxfId="55" priority="39">
+    <cfRule type="containsBlanks" dxfId="53" priority="39">
       <formula>LEN(TRIM(J150))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L153:L155">
-    <cfRule type="containsBlanks" dxfId="54" priority="34">
+    <cfRule type="containsBlanks" dxfId="52" priority="34">
       <formula>LEN(TRIM(L153))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153:K155">
-    <cfRule type="containsBlanks" dxfId="53" priority="33">
+    <cfRule type="containsBlanks" dxfId="51" priority="33">
       <formula>LEN(TRIM(K153))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153:J155">
-    <cfRule type="containsBlanks" dxfId="52" priority="32">
+    <cfRule type="containsBlanks" dxfId="50" priority="32">
       <formula>LEN(TRIM(J153))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD153:AG155">
-    <cfRule type="cellIs" dxfId="51" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL153:AN155 AT153:AV155 AH153:AJ155">
-    <cfRule type="cellIs" dxfId="50" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX153:AZ155">
-    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF153:BH155">
-    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD156:AG158">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL156:AN158 AT156:AV158 AH156:AJ158">
-    <cfRule type="cellIs" dxfId="46" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156:L158">
-    <cfRule type="containsBlanks" dxfId="45" priority="27">
+    <cfRule type="containsBlanks" dxfId="43" priority="27">
       <formula>LEN(TRIM(L156))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156:K158">
-    <cfRule type="containsBlanks" dxfId="44" priority="26">
+    <cfRule type="containsBlanks" dxfId="42" priority="26">
       <formula>LEN(TRIM(K156))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156:J158">
-    <cfRule type="containsBlanks" dxfId="43" priority="25">
+    <cfRule type="containsBlanks" dxfId="41" priority="25">
       <formula>LEN(TRIM(J156))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L159:L164">
-    <cfRule type="containsBlanks" dxfId="42" priority="24">
+    <cfRule type="containsBlanks" dxfId="40" priority="24">
       <formula>LEN(TRIM(L159))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX156:AZ158">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF156:BH158">
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD159:AG160 AF161:AG161 AD162:AG164">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL159:AN164 AT159:AV164">
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX159:AZ164">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF159:BH164">
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD161:AE161">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH159:AJ161">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH162:AJ164">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162:J164">
-    <cfRule type="containsBlanks" dxfId="32" priority="9">
+    <cfRule type="containsBlanks" dxfId="30" priority="9">
       <formula>LEN(TRIM(J162))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K159:K161">
-    <cfRule type="containsBlanks" dxfId="31" priority="12">
+    <cfRule type="containsBlanks" dxfId="29" priority="12">
       <formula>LEN(TRIM(K159))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J159:J161">
-    <cfRule type="containsBlanks" dxfId="30" priority="11">
+    <cfRule type="containsBlanks" dxfId="28" priority="11">
       <formula>LEN(TRIM(J159))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K162:K164">
-    <cfRule type="containsBlanks" dxfId="29" priority="10">
+    <cfRule type="containsBlanks" dxfId="27" priority="10">
       <formula>LEN(TRIM(K162))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L165:L167">
-    <cfRule type="containsBlanks" dxfId="28" priority="8">
+  <conditionalFormatting sqref="L165:L170">
+    <cfRule type="containsBlanks" dxfId="26" priority="8">
       <formula>LEN(TRIM(L165))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD165:AG167">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+  <conditionalFormatting sqref="AD165:AG170">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL165:AN167 AT165:AV167">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+  <conditionalFormatting sqref="AL165:AN170 AT165:AV170">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX165:AZ167">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+  <conditionalFormatting sqref="AX165:AZ170">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF165:BH167">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+  <conditionalFormatting sqref="BF165:BH170">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH165:AJ167">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+  <conditionalFormatting sqref="AH165:AJ170">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J165:J167">
-    <cfRule type="containsBlanks" dxfId="22" priority="1">
+  <conditionalFormatting sqref="J165:J170">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
       <formula>LEN(TRIM(J165))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K165:K167">
-    <cfRule type="containsBlanks" dxfId="21" priority="2">
+  <conditionalFormatting sqref="K165:K170">
+    <cfRule type="containsBlanks" dxfId="19" priority="2">
       <formula>LEN(TRIM(K165))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A37" xr:uid="{8B4FA76A-86F5-4BF1-9A9B-87C2D1AA1181}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A37" xr:uid="{9BF5891F-0DB4-43E6-B080-D4AB70EBD962}">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -40667,7 +40313,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="108" operator="containsText" id="{B508CC0B-FC8B-4069-9B61-B6986F6E0B34}">
+          <x14:cfRule type="containsText" priority="108" operator="containsText" id="{6B8B6F20-FFF3-403A-8F76-832C1D057A9C}">
             <xm:f>NOT(ISERROR(SEARCH($A$1,A8)))</xm:f>
             <xm:f>$A$1</xm:f>
             <x14:dxf>
@@ -40688,32 +40334,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC232"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="94" customWidth="1"/>
-    <col min="11" max="14" width="11.5546875" style="100" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="101" customWidth="1"/>
-    <col min="16" max="16" width="0.6640625" style="102" customWidth="1"/>
-    <col min="17" max="17" width="1.44140625" style="95" customWidth="1"/>
-    <col min="18" max="20" width="6.6640625" style="97" customWidth="1"/>
-    <col min="21" max="21" width="7.5546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="0.6640625" style="16" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="94" customWidth="1"/>
+    <col min="11" max="14" width="11.5703125" style="100" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="101" customWidth="1"/>
+    <col min="16" max="16" width="0.7109375" style="102" customWidth="1"/>
+    <col min="17" max="17" width="1.42578125" style="95" customWidth="1"/>
+    <col min="18" max="20" width="6.7109375" style="97" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="98" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="0.7109375" style="16" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -40721,28 +40367,28 @@
         <v>61</v>
       </c>
       <c r="J1" s="4"/>
-      <c r="K1" s="354" t="s">
+      <c r="K1" s="345" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
-      <c r="O1" s="355"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
+      <c r="N1" s="345"/>
+      <c r="O1" s="346"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="336" t="s">
+      <c r="R1" s="342" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="336"/>
-      <c r="T1" s="336"/>
-      <c r="U1" s="337"/>
+      <c r="S1" s="342"/>
+      <c r="T1" s="342"/>
+      <c r="U1" s="343"/>
       <c r="V1" s="6"/>
-      <c r="X1" s="336" t="s">
+      <c r="X1" s="342" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="336"/>
-      <c r="Z1" s="336"/>
-      <c r="AA1" s="337"/>
+      <c r="Y1" s="342"/>
+      <c r="Z1" s="342"/>
+      <c r="AA1" s="343"/>
     </row>
     <row r="2" spans="1:29">
       <c r="C2" s="9"/>
@@ -40811,14 +40457,14 @@
       <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="357" t="s">
+      <c r="C3" s="362" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358"/>
-      <c r="F3" s="358"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="359"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="363"/>
+      <c r="H3" s="364"/>
       <c r="J3" s="24">
         <v>43074</v>
       </c>
@@ -40856,16 +40502,16 @@
       <c r="B4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="360">
+      <c r="C4" s="365">
         <v>43074</v>
       </c>
-      <c r="D4" s="344" t="s">
+      <c r="D4" s="356" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344" t="s">
+      <c r="E4" s="356"/>
+      <c r="F4" s="356"/>
+      <c r="G4" s="356"/>
+      <c r="H4" s="356" t="s">
         <v>70</v>
       </c>
       <c r="I4" s="3"/>
@@ -40934,14 +40580,14 @@
       <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="361">
-        <v>44196</v>
-      </c>
-      <c r="D5" s="348"/>
-      <c r="E5" s="348"/>
-      <c r="F5" s="348"/>
-      <c r="G5" s="348"/>
-      <c r="H5" s="348"/>
+      <c r="C5" s="366">
+        <v>44286</v>
+      </c>
+      <c r="D5" s="360"/>
+      <c r="E5" s="360"/>
+      <c r="F5" s="360"/>
+      <c r="G5" s="360"/>
+      <c r="H5" s="360"/>
       <c r="J5" s="43">
         <f>EOMONTH(J4,1)</f>
         <v>43131</v>
@@ -40963,7 +40609,7 @@
         <v>9661.2245089285698</v>
       </c>
       <c r="O5" s="45">
-        <f t="shared" ref="O5:O40" si="2">O4*(1+U5)</f>
+        <f t="shared" ref="O5:O43" si="2">O4*(1+U5)</f>
         <v>10761.785808285822</v>
       </c>
       <c r="P5" s="30"/>
@@ -40999,20 +40645,20 @@
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="347" t="s">
+      <c r="A6" s="359" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="348">
-        <v>0</v>
-      </c>
-      <c r="D6" s="348"/>
-      <c r="E6" s="348"/>
-      <c r="F6" s="348"/>
-      <c r="G6" s="348"/>
-      <c r="H6" s="348"/>
+      <c r="C6" s="360">
+        <v>0</v>
+      </c>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
       <c r="J6" s="43">
         <f>EOMONTH(J5,1)</f>
         <v>43159</v>
@@ -41070,20 +40716,20 @@
       </c>
     </row>
     <row r="7" spans="1:29" s="54" customFormat="1">
-      <c r="A7" s="347"/>
+      <c r="A7" s="359"/>
       <c r="B7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="349">
-        <v>7.2300000000000001E-4</v>
-      </c>
-      <c r="D7" s="349">
+      <c r="C7" s="361">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="D7" s="361">
         <v>2.2002000000000001E-2</v>
       </c>
-      <c r="E7" s="349"/>
-      <c r="F7" s="349"/>
-      <c r="G7" s="349"/>
-      <c r="H7" s="349">
+      <c r="E7" s="361"/>
+      <c r="F7" s="361"/>
+      <c r="G7" s="361"/>
+      <c r="H7" s="361">
         <v>2.2002000000000001E-2</v>
       </c>
       <c r="I7" s="3"/>
@@ -41151,32 +40797,32 @@
       <c r="B8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="320">
-        <f>COUNTA(J5:J40)+26/31</f>
-        <v>36.838709677419352</v>
+      <c r="C8" s="317">
+        <f>COUNTA(J5:J43)+26/31</f>
+        <v>39.838709677419352</v>
       </c>
       <c r="D8" s="173">
         <f>C8</f>
-        <v>36.838709677419352</v>
+        <v>39.838709677419352</v>
       </c>
       <c r="E8" s="173">
         <f t="shared" ref="E8:G8" si="3">D8</f>
-        <v>36.838709677419352</v>
+        <v>39.838709677419352</v>
       </c>
       <c r="F8" s="173">
         <f t="shared" si="3"/>
-        <v>36.838709677419352</v>
+        <v>39.838709677419352</v>
       </c>
       <c r="G8" s="173">
         <f t="shared" si="3"/>
-        <v>36.838709677419352</v>
+        <v>39.838709677419352</v>
       </c>
       <c r="H8" s="173">
         <f>D8</f>
-        <v>36.838709677419352</v>
+        <v>39.838709677419352</v>
       </c>
       <c r="J8" s="43">
-        <f t="shared" ref="J8:J40" si="4">EOMONTH(J7,1)</f>
+        <f t="shared" ref="J8:J43" si="4">EOMONTH(J7,1)</f>
         <v>43220</v>
       </c>
       <c r="K8" s="273">
@@ -41308,23 +40954,23 @@
       <c r="C10" s="217"/>
       <c r="D10" s="276">
         <f>(D11/10000)^(12/D8)-1</f>
-        <v>6.9988156990374639E-2</v>
+        <v>6.8472312204649777E-2</v>
       </c>
       <c r="E10" s="276">
         <f t="shared" ref="E10:F10" si="5">(E11/10000)^(12/E8)-1</f>
-        <v>6.7518938402899575E-2</v>
+        <v>6.6175891820999144E-2</v>
       </c>
       <c r="F10" s="276">
         <f t="shared" si="5"/>
-        <v>6.0533172875340435E-2</v>
+        <v>5.925029936541959E-2</v>
       </c>
       <c r="G10" s="276">
         <f>(G11/10000)^(12/G8)-1</f>
-        <v>5.0729625283800317E-2</v>
+        <v>5.0661173188810471E-2</v>
       </c>
       <c r="H10" s="276">
         <f>(H11/10000)^(12/H8)-1</f>
-        <v>0.14493718060639527</v>
+        <v>0.15396680488046344</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="43">
@@ -41394,23 +41040,23 @@
       <c r="C11" s="217"/>
       <c r="D11" s="277">
         <f>VLOOKUP($C$5,J:O,2,0)</f>
-        <v>12308.079174557</v>
+        <v>12459.223375071102</v>
       </c>
       <c r="E11" s="277">
         <f>VLOOKUP($C$5,J:O,3,0)</f>
-        <v>12221.091768808117</v>
+        <v>12370.544519582982</v>
       </c>
       <c r="F11" s="277">
         <f>VLOOKUP($C$5,J:O,4,0)</f>
-        <v>11977.23928561184</v>
+        <v>12105.776420802325</v>
       </c>
       <c r="G11" s="277">
         <f>VLOOKUP($C$5,J:O,5,0)</f>
-        <v>11640.589909789731</v>
+        <v>11782.943654902791</v>
       </c>
       <c r="H11" s="277">
         <f>VLOOKUP($C$5,J:P,6,0)</f>
-        <v>15151.421220038012</v>
+        <v>16087.002222204019</v>
       </c>
       <c r="J11" s="43">
         <f t="shared" si="4"/>
@@ -41478,23 +41124,23 @@
       <c r="C12" s="217"/>
       <c r="D12" s="276">
         <f>D11/10000-1</f>
-        <v>0.23080791745570006</v>
+        <v>0.24592233750711023</v>
       </c>
       <c r="E12" s="276">
         <f t="shared" ref="E12:G12" si="6">E11/10000-1</f>
-        <v>0.22210917688081167</v>
+        <v>0.23705445195829822</v>
       </c>
       <c r="F12" s="276">
         <f t="shared" si="6"/>
-        <v>0.19772392856118404</v>
+        <v>0.21057764208023255</v>
       </c>
       <c r="G12" s="276">
         <f t="shared" si="6"/>
-        <v>0.16405899097897314</v>
+        <v>0.17829436549027911</v>
       </c>
       <c r="H12" s="276">
         <f>H11/10000-1</f>
-        <v>0.51514212200380105</v>
+        <v>0.60870022222040188</v>
       </c>
       <c r="J12" s="43">
         <f t="shared" si="4"/>
@@ -41561,21 +41207,21 @@
       </c>
       <c r="C13" s="216"/>
       <c r="D13" s="216">
-        <f>STDEV(R4:R40)*SQRT(12)</f>
-        <v>1.9987161464971911E-2</v>
+        <f>STDEV(R4:R43)*SQRT(12)</f>
+        <v>1.927597067358322E-2</v>
       </c>
       <c r="E13" s="216">
-        <f>STDEV(S4:S40)*SQRT(12)</f>
-        <v>2.0030617815935722E-2</v>
+        <f>STDEV(S4:S43)*SQRT(12)</f>
+        <v>1.9306987691851307E-2</v>
       </c>
       <c r="F13" s="216">
-        <f>STDEV(T4:T40)*SQRT(12)</f>
-        <v>2.0351493848252255E-2</v>
+        <f>STDEV(T4:T43)*SQRT(12)</f>
+        <v>1.9592274307852289E-2</v>
       </c>
       <c r="G13" s="216"/>
       <c r="H13" s="216">
-        <f>STDEV(U4:U40)*SQRT(12)</f>
-        <v>0.18534879892899031</v>
+        <f>STDEV(U4:U43)*SQRT(12)</f>
+        <v>0.17953544402088195</v>
       </c>
       <c r="J13" s="43">
         <f t="shared" si="4"/>
@@ -41842,7 +41488,7 @@
         <v>-0.13519750425962374</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="17" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A17" s="173" t="s">
         <v>61</v>
       </c>
@@ -41852,20 +41498,20 @@
       <c r="C17" s="217"/>
       <c r="D17" s="217">
         <f>D47/D42-1</f>
-        <v>2.642103987395461E-2</v>
+        <v>3.5386473429951382E-2</v>
       </c>
       <c r="E17" s="217">
         <f t="shared" ref="E17:F17" si="7">E47/E42-1</f>
-        <v>2.4435623914661697E-2</v>
+        <v>3.1589338598223105E-2</v>
       </c>
       <c r="F17" s="217">
         <f t="shared" si="7"/>
-        <v>1.7791750724361011E-2</v>
+        <v>2.5063670554658968E-2</v>
       </c>
       <c r="G17" s="217"/>
       <c r="H17" s="217">
         <f>H47/H42-1</f>
-        <v>0.18396276753647034</v>
+        <v>0.56348260735089295</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="43">
@@ -41937,20 +41583,20 @@
       <c r="C18" s="217"/>
       <c r="D18" s="217">
         <f>D47/D46-1</f>
-        <v>2.642103987395461E-2</v>
+        <v>1.2280080292832674E-2</v>
       </c>
       <c r="E18" s="217">
         <f t="shared" ref="E18:F18" si="8">E47/E46-1</f>
-        <v>2.4435623914661697E-2</v>
+        <v>1.2229083424143194E-2</v>
       </c>
       <c r="F18" s="217">
         <f t="shared" si="8"/>
-        <v>1.7791750724361011E-2</v>
+        <v>1.0731783186873178E-2</v>
       </c>
       <c r="G18" s="217"/>
       <c r="H18" s="217">
         <f>H47/H46-1</f>
-        <v>0.18396276753647034</v>
+        <v>6.1748728952811804E-2</v>
       </c>
       <c r="J18" s="43">
         <f t="shared" si="4"/>
@@ -42018,7 +41664,7 @@
       <c r="C19" s="218"/>
       <c r="D19" s="285">
         <f>(D10-C7)/D13</f>
-        <v>3.4654824354005376</v>
+        <v>3.5430284347882508</v>
       </c>
       <c r="E19" s="285" t="s">
         <v>88</v>
@@ -42029,7 +41675,7 @@
       <c r="G19" s="285"/>
       <c r="H19" s="285">
         <f>(H10-D7)/H13</f>
-        <v>0.66326397212583743</v>
+        <v>0.73503483170217065</v>
       </c>
       <c r="J19" s="43">
         <f t="shared" si="4"/>
@@ -42096,8 +41742,8 @@
       </c>
       <c r="C20" s="218"/>
       <c r="D20" s="227">
-        <f>COVAR(R4:R40,U4:U40)/VAR(U4:U40)</f>
-        <v>4.2190735938126334E-2</v>
+        <f>COVAR(R4:R43,U4:U43)/VAR(U4:U43)</f>
+        <v>4.0745167634476449E-2</v>
       </c>
       <c r="E20" s="285" t="s">
         <v>88</v>
@@ -42179,7 +41825,7 @@
       <c r="C21" s="216"/>
       <c r="D21" s="229">
         <f>(D10-C7)-D20*(H10-C7)</f>
-        <v>6.3180654577876957E-2</v>
+        <v>6.2029120824321875E-2</v>
       </c>
       <c r="E21" s="285" t="s">
         <v>88</v>
@@ -42256,8 +41902,8 @@
       </c>
       <c r="C22" s="219"/>
       <c r="D22" s="230">
-        <f>CORREL(R4:R40,U4:U40)</f>
-        <v>0.40211935698679946</v>
+        <f>CORREL(R4:R43,U4:U43)</f>
+        <v>0.38922922046237279</v>
       </c>
       <c r="E22" s="285" t="s">
         <v>88</v>
@@ -42335,8 +41981,8 @@
       </c>
       <c r="C23" s="220"/>
       <c r="D23" s="231">
-        <f>COUNTIF(R4:R40,"&gt;=0")/COUNTA(R4:R40)</f>
-        <v>0.91891891891891897</v>
+        <f>COUNTIF(R4:R43,"&gt;=0")/COUNTA(R4:R43)</f>
+        <v>0.92500000000000004</v>
       </c>
       <c r="E23" s="285" t="s">
         <v>88</v>
@@ -42346,8 +41992,8 @@
       </c>
       <c r="G23" s="285"/>
       <c r="H23" s="231">
-        <f>COUNTIF(U4:U40,"&gt;=0")/COUNTA(U4:U40)</f>
-        <v>0.70270270270270274</v>
+        <f>COUNTIF(U4:U43,"&gt;=0")/COUNTA(U4:U43)</f>
+        <v>0.7</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="43">
@@ -42367,7 +42013,7 @@
         <v>11583.93269311264</v>
       </c>
       <c r="N23" s="273">
-        <f t="shared" ref="N23:N40" si="10">N22*(1+S23)</f>
+        <f t="shared" ref="N23:N43" si="10">N22*(1+S23)</f>
         <v>11148.257368151679</v>
       </c>
       <c r="O23" s="45">
@@ -42418,7 +42064,7 @@
       </c>
       <c r="C24" s="217"/>
       <c r="D24" s="232">
-        <f>MIN(X4:X40)</f>
+        <f>MIN(X4:X43)</f>
         <v>-1.2063867534003569E-2</v>
       </c>
       <c r="E24" s="285" t="s">
@@ -42429,7 +42075,7 @@
       </c>
       <c r="G24" s="285"/>
       <c r="H24" s="232">
-        <f>MIN(AA4:AA40)</f>
+        <f>MIN(AA4:AA43)</f>
         <v>-0.19598020620821932</v>
       </c>
       <c r="J24" s="43">
@@ -42760,7 +42406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="29" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A29" s="173"/>
       <c r="B29" s="262" t="s">
         <v>35</v>
@@ -42933,7 +42579,7 @@
         <f t="shared" si="2"/>
         <v>10289.210859506291</v>
       </c>
-      <c r="P31" s="331"/>
+      <c r="P31" s="328"/>
       <c r="Q31" s="25"/>
       <c r="R31" s="272">
         <v>1.6936849745947669E-3</v>
@@ -43001,7 +42647,7 @@
         <f t="shared" si="2"/>
         <v>11608.226298544345</v>
       </c>
-      <c r="P32" s="331"/>
+      <c r="P32" s="328"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="272">
         <v>7.004830917874294E-3</v>
@@ -43071,7 +42717,7 @@
         <f t="shared" si="2"/>
         <v>12161.096614845115</v>
       </c>
-      <c r="P33" s="331"/>
+      <c r="P33" s="328"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="272">
         <v>7.0760374190452779E-3</v>
@@ -43138,7 +42784,7 @@
         <f t="shared" si="2"/>
         <v>12402.959071585881</v>
       </c>
-      <c r="P34" s="331"/>
+      <c r="P34" s="328"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="272">
         <v>-1.7863522686674127E-3</v>
@@ -43206,7 +42852,7 @@
         <f t="shared" si="2"/>
         <v>13102.302041528868</v>
       </c>
-      <c r="P35" s="331"/>
+      <c r="P35" s="328"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="272">
         <v>1.7895490336434783E-3</v>
@@ -43276,7 +42922,7 @@
         <f t="shared" si="2"/>
         <v>14044.093280718855</v>
       </c>
-      <c r="P36" s="331"/>
+      <c r="P36" s="328"/>
       <c r="Q36" s="25"/>
       <c r="R36" s="272">
         <v>6.9072287721805292E-3</v>
@@ -43335,7 +42981,7 @@
         <v>44104</v>
       </c>
       <c r="K37" s="273">
-        <f t="shared" ref="K37:M40" si="11">K36*(1+R37)</f>
+        <f t="shared" ref="K37:M43" si="11">K36*(1+R37)</f>
         <v>12139.495258598963</v>
       </c>
       <c r="L37" s="273">
@@ -43481,7 +43127,7 @@
       </c>
       <c r="B39" s="63">
         <f>EOMONTH($C$5,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="C39" s="64"/>
       <c r="D39" s="64">
@@ -43566,28 +43212,28 @@
       </c>
       <c r="B40" s="63">
         <f>EOMONTH($C$5,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="C40" s="64"/>
       <c r="D40" s="64">
         <f t="shared" si="12"/>
-        <v>10092.000000000002</v>
+        <v>10294.242566764833</v>
       </c>
       <c r="E40" s="64">
         <f t="shared" si="13"/>
-        <v>10083</v>
+        <v>10263.053571428571</v>
       </c>
       <c r="F40" s="64">
         <f t="shared" si="14"/>
-        <v>10124</v>
+        <v>10284.062283985315</v>
       </c>
       <c r="G40" s="64">
         <f t="shared" si="15"/>
-        <v>9604.057499999999</v>
+        <v>9775.5585267857132</v>
       </c>
       <c r="H40" s="64">
         <f t="shared" si="16"/>
-        <v>10179</v>
+        <v>10101.731330427643</v>
       </c>
       <c r="J40" s="43">
         <f t="shared" si="4"/>
@@ -43613,7 +43259,7 @@
         <f t="shared" si="2"/>
         <v>15151.421220038012</v>
       </c>
-      <c r="P40" s="46"/>
+      <c r="P40" s="328"/>
       <c r="Q40" s="25"/>
       <c r="R40" s="272">
         <v>6.8957317798121753E-3</v>
@@ -43645,54 +43291,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="41" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A41" s="62" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="63">
         <f>EOMONTH($C$5,-24)</f>
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="C41" s="64"/>
       <c r="D41" s="64">
         <f t="shared" si="12"/>
-        <v>11066.749295450129</v>
+        <v>11333.170015048643</v>
       </c>
       <c r="E41" s="64">
         <f t="shared" si="13"/>
-        <v>11035.975847069596</v>
+        <v>11299.219850662155</v>
       </c>
       <c r="F41" s="64">
         <f t="shared" si="14"/>
-        <v>10996.630961131386</v>
+        <v>11219.401225919277</v>
       </c>
       <c r="G41" s="64">
         <f t="shared" si="15"/>
-        <v>10511.766994333788</v>
+        <v>10762.506907755702</v>
       </c>
       <c r="H41" s="64">
         <f t="shared" si="16"/>
-        <v>9732.7280327504068</v>
+        <v>11061.038363554051</v>
       </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="246"/>
-      <c r="L41" s="246"/>
-      <c r="M41" s="246"/>
-      <c r="N41" s="246"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="46"/>
+      <c r="J41" s="43">
+        <f t="shared" si="4"/>
+        <v>44227</v>
+      </c>
+      <c r="K41" s="273">
+        <f t="shared" si="11"/>
+        <v>12373.478107471756</v>
+      </c>
+      <c r="L41" s="273">
+        <f t="shared" si="11"/>
+        <v>12286.199897858554</v>
+      </c>
+      <c r="M41" s="273">
+        <f t="shared" si="11"/>
+        <v>12020.084997342003</v>
+      </c>
+      <c r="N41" s="273">
+        <f t="shared" si="10"/>
+        <v>11702.605402710273</v>
+      </c>
+      <c r="O41" s="45">
+        <f t="shared" si="2"/>
+        <v>14998.449342448037</v>
+      </c>
+      <c r="P41" s="328"/>
       <c r="Q41" s="25"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="28"/>
+      <c r="R41" s="272">
+        <v>5.3134962805525543E-3</v>
+      </c>
+      <c r="S41" s="272">
+        <v>5.327521491706122E-3</v>
+      </c>
+      <c r="T41" s="272">
+        <v>3.5772610622910594E-3</v>
+      </c>
+      <c r="U41" s="272">
+        <v>-1.009620651214338E-2</v>
+      </c>
       <c r="V41"/>
       <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
+      <c r="X41" s="287">
+        <f>K41/MAX(K$3:K41)-1</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="287">
+        <f>L41/MAX(L$3:L41)-1</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="287">
+        <f>M41/MAX(M$3:M41)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="287">
+        <f>O41/MAX(O$3:O41)-1</f>
+        <v>-1.009620651214338E-2</v>
+      </c>
       <c r="AB41"/>
       <c r="AC41"/>
     </row>
@@ -43702,42 +43386,84 @@
       </c>
       <c r="B42" s="63">
         <f>EOMONTH($C$5,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="C42" s="64"/>
       <c r="D42" s="64">
         <f t="shared" si="12"/>
-        <v>11991.257677325519</v>
+        <v>12033.403656315029</v>
       </c>
       <c r="E42" s="64">
         <f t="shared" si="13"/>
-        <v>11929.584918286841</v>
+        <v>11991.733586925895</v>
       </c>
       <c r="F42" s="64">
         <f t="shared" si="14"/>
-        <v>11767.868306151682</v>
+        <v>11809.779985912412</v>
       </c>
       <c r="G42" s="64">
         <f t="shared" si="15"/>
-        <v>11362.929634668217</v>
+        <v>11422.126241546915</v>
       </c>
       <c r="H42" s="64">
         <f t="shared" si="16"/>
-        <v>12797.210888281834</v>
-      </c>
-      <c r="J42" s="142"/>
-      <c r="K42" s="248"/>
-      <c r="L42" s="248"/>
-      <c r="M42" s="248"/>
-      <c r="N42" s="248"/>
-      <c r="O42" s="147"/>
-      <c r="P42" s="148"/>
-      <c r="Q42" s="143"/>
-      <c r="R42" s="145"/>
-      <c r="S42" s="145"/>
-      <c r="T42" s="145"/>
-      <c r="U42" s="146"/>
+        <v>10289.210859506291</v>
+      </c>
+      <c r="J42" s="43">
+        <f t="shared" si="4"/>
+        <v>44255</v>
+      </c>
+      <c r="K42" s="273">
+        <f t="shared" si="11"/>
+        <v>12417.077396081593</v>
+      </c>
+      <c r="L42" s="273">
+        <f t="shared" si="11"/>
+        <v>12329.112073823613</v>
+      </c>
+      <c r="M42" s="273">
+        <f t="shared" si="11"/>
+        <v>12062.930709072165</v>
+      </c>
+      <c r="N42" s="273">
+        <f t="shared" si="10"/>
+        <v>11743.479250316992</v>
+      </c>
+      <c r="O42" s="45">
+        <f t="shared" si="2"/>
+        <v>15412.024063836303</v>
+      </c>
+      <c r="P42" s="328"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="272">
+        <v>3.5236081747709314E-3</v>
+      </c>
+      <c r="S42" s="272">
+        <v>3.492713477056375E-3</v>
+      </c>
+      <c r="T42" s="272">
+        <v>3.564509879891542E-3</v>
+      </c>
+      <c r="U42" s="272">
+        <v>2.7574498666190994E-2</v>
+      </c>
       <c r="V42"/>
+      <c r="X42" s="287">
+        <f>K42/MAX(K$3:K42)-1</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="287">
+        <f>L42/MAX(L$3:L42)-1</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="287">
+        <f>M42/MAX(M$3:M42)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="287">
+        <f>O42/MAX(O$3:O42)-1</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="65" t="s">
@@ -43745,42 +43471,84 @@
       </c>
       <c r="B43" s="63">
         <f>EOMONTH($C$5,-6)</f>
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="C43" s="64"/>
       <c r="D43" s="64">
         <f t="shared" si="12"/>
-        <v>12181.641237588474</v>
+        <v>12139.495258598963</v>
       </c>
       <c r="E43" s="64">
         <f t="shared" si="13"/>
-        <v>12096.79443153001</v>
+        <v>12055.361985770642</v>
       </c>
       <c r="F43" s="64">
         <f t="shared" si="14"/>
-        <v>11893.603345433872</v>
+        <v>11831.201511123452</v>
       </c>
       <c r="G43" s="64">
         <f t="shared" si="15"/>
-        <v>11522.196696032335</v>
+        <v>11482.732291446537</v>
       </c>
       <c r="H43" s="64">
         <f t="shared" si="16"/>
-        <v>12402.959071585881</v>
-      </c>
-      <c r="J43" s="43"/>
-      <c r="K43" s="246"/>
-      <c r="L43" s="246"/>
-      <c r="M43" s="246"/>
-      <c r="N43" s="246"/>
-      <c r="O43" s="45"/>
+        <v>13510.457141706125</v>
+      </c>
+      <c r="J43" s="43">
+        <f t="shared" si="4"/>
+        <v>44286</v>
+      </c>
+      <c r="K43" s="273">
+        <f t="shared" si="11"/>
+        <v>12459.223375071102</v>
+      </c>
+      <c r="L43" s="273">
+        <f t="shared" si="11"/>
+        <v>12370.544519582982</v>
+      </c>
+      <c r="M43" s="273">
+        <f t="shared" si="11"/>
+        <v>12105.776420802325</v>
+      </c>
+      <c r="N43" s="273">
+        <f t="shared" si="10"/>
+        <v>11782.943654902791</v>
+      </c>
+      <c r="O43" s="45">
+        <f t="shared" si="2"/>
+        <v>16087.002222204019</v>
+      </c>
       <c r="P43" s="46"/>
       <c r="Q43" s="25"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="28"/>
+      <c r="R43" s="272">
+        <v>3.3941947565543362E-3</v>
+      </c>
+      <c r="S43" s="272">
+        <v>3.3605376860297298E-3</v>
+      </c>
+      <c r="T43" s="272">
+        <v>3.5518492780479693E-3</v>
+      </c>
+      <c r="U43" s="272">
+        <v>4.3795555701961586E-2</v>
+      </c>
       <c r="V43"/>
+      <c r="X43" s="287">
+        <f>K43/MAX(K$3:K43)-1</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="287">
+        <f>L43/MAX(L$3:L43)-1</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="287">
+        <f>M43/MAX(M$3:M43)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="287">
+        <f>O43/MAX(O$3:O43)-1</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:29" s="54" customFormat="1">
       <c r="A44" s="62" t="s">
@@ -43788,28 +43556,28 @@
       </c>
       <c r="B44" s="63">
         <f>EOMONTH($C$5,-3)</f>
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="64">
         <f t="shared" si="12"/>
-        <v>12139.495258598963</v>
+        <v>12308.079174557</v>
       </c>
       <c r="E44" s="64">
         <f t="shared" si="13"/>
-        <v>12055.361985770642</v>
+        <v>12221.091768808117</v>
       </c>
       <c r="F44" s="64">
         <f t="shared" si="14"/>
-        <v>11831.201511123452</v>
+        <v>11977.23928561184</v>
       </c>
       <c r="G44" s="64">
         <f t="shared" si="15"/>
-        <v>11482.732291446537</v>
+        <v>11640.589909789731</v>
       </c>
       <c r="H44" s="64">
         <f t="shared" si="16"/>
-        <v>13510.457141706125</v>
+        <v>15151.421220038012</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="43"/>
@@ -43824,7 +43592,7 @@
       <c r="S44" s="44"/>
       <c r="T44" s="44"/>
       <c r="U44" s="28"/>
-      <c r="V44" s="2"/>
+      <c r="V44"/>
       <c r="W44"/>
       <c r="X44"/>
       <c r="Y44"/>
@@ -43833,76 +43601,76 @@
       <c r="AB44"/>
       <c r="AC44"/>
     </row>
-    <row r="45" spans="1:29" ht="15" thickBot="1">
+    <row r="45" spans="1:29">
       <c r="A45" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="63">
         <f>EOMONTH($C$5,-1)</f>
-        <v>44165</v>
+        <v>44255</v>
       </c>
       <c r="C45" s="64"/>
       <c r="D45" s="64">
         <f t="shared" si="12"/>
-        <v>12223.787216577983</v>
+        <v>12417.077396081593</v>
       </c>
       <c r="E45" s="64">
         <f t="shared" si="13"/>
-        <v>12138.226877289379</v>
+        <v>12329.112073823613</v>
       </c>
       <c r="F45" s="64">
         <f t="shared" si="14"/>
-        <v>11893.981415701928</v>
+        <v>12062.930709072165</v>
       </c>
       <c r="G45" s="64">
         <f t="shared" si="15"/>
-        <v>11561.661100618134</v>
+        <v>11743.479250316992</v>
       </c>
       <c r="H45" s="64">
         <f t="shared" si="16"/>
-        <v>14591.122130236914</v>
-      </c>
-      <c r="J45" s="72"/>
-      <c r="K45" s="249"/>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="165"/>
-      <c r="Q45" s="164"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="75"/>
-      <c r="T45" s="75"/>
-      <c r="U45" s="76"/>
-      <c r="V45" s="70"/>
+        <v>15412.024063836303</v>
+      </c>
+      <c r="J45" s="142"/>
+      <c r="K45" s="248"/>
+      <c r="L45" s="248"/>
+      <c r="M45" s="248"/>
+      <c r="N45" s="248"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="143"/>
+      <c r="R45" s="145"/>
+      <c r="S45" s="145"/>
+      <c r="T45" s="145"/>
+      <c r="U45" s="146"/>
+      <c r="V45"/>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="62" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="66">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="C46" s="64"/>
       <c r="D46" s="64">
         <f t="shared" si="12"/>
-        <v>11991.257677325519</v>
+        <v>12308.079174557</v>
       </c>
       <c r="E46" s="64">
         <f t="shared" si="13"/>
-        <v>11929.584918286841</v>
+        <v>12221.091768808117</v>
       </c>
       <c r="F46" s="64">
         <f t="shared" si="14"/>
-        <v>11767.868306151682</v>
+        <v>11977.23928561184</v>
       </c>
       <c r="G46" s="64">
         <f t="shared" si="15"/>
-        <v>11362.929634668217</v>
+        <v>11640.589909789731</v>
       </c>
       <c r="H46" s="64">
         <f t="shared" si="16"/>
-        <v>12797.210888281834</v>
+        <v>15151.421220038012</v>
       </c>
       <c r="J46" s="43"/>
       <c r="K46" s="246"/>
@@ -43916,7 +43684,7 @@
       <c r="S46" s="44"/>
       <c r="T46" s="44"/>
       <c r="U46" s="28"/>
-      <c r="V46" s="2"/>
+      <c r="V46"/>
     </row>
     <row r="47" spans="1:29" s="54" customFormat="1">
       <c r="A47" s="62" t="s">
@@ -43924,28 +43692,28 @@
       </c>
       <c r="B47" s="63">
         <f>C5</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="64">
         <f t="shared" si="12"/>
-        <v>12308.079174557</v>
+        <v>12459.223375071102</v>
       </c>
       <c r="E47" s="64">
         <f t="shared" si="13"/>
-        <v>12221.091768808117</v>
+        <v>12370.544519582982</v>
       </c>
       <c r="F47" s="64">
         <f t="shared" si="14"/>
-        <v>11977.23928561184</v>
+        <v>12105.776420802325</v>
       </c>
       <c r="G47" s="64">
         <f t="shared" si="15"/>
-        <v>11640.589909789731</v>
+        <v>11782.943654902791</v>
       </c>
       <c r="H47" s="64">
         <f t="shared" si="16"/>
-        <v>15151.421220038012</v>
+        <v>16087.002222204019</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="43"/>
@@ -43969,23 +43737,23 @@
       <c r="AB47"/>
       <c r="AC47"/>
     </row>
-    <row r="48" spans="1:29">
-      <c r="J48" s="142"/>
-      <c r="K48" s="248"/>
-      <c r="L48" s="248"/>
-      <c r="M48" s="248"/>
-      <c r="N48" s="248"/>
-      <c r="O48" s="147"/>
-      <c r="P48" s="148"/>
-      <c r="Q48" s="143"/>
-      <c r="R48" s="145"/>
-      <c r="S48" s="145"/>
-      <c r="T48" s="145"/>
-      <c r="U48" s="146"/>
-      <c r="V48" s="169"/>
+    <row r="48" spans="1:29" ht="15.75" thickBot="1">
+      <c r="J48" s="72"/>
+      <c r="K48" s="249"/>
+      <c r="L48" s="249"/>
+      <c r="M48" s="249"/>
+      <c r="N48" s="249"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="165"/>
+      <c r="Q48" s="164"/>
+      <c r="R48" s="75"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="75"/>
+      <c r="U48" s="76"/>
+      <c r="V48" s="70"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="356" t="s">
+      <c r="A49" s="367" t="s">
         <v>67</v>
       </c>
       <c r="B49" s="224" t="str">
@@ -43998,14 +43766,14 @@
       </c>
       <c r="D49" s="225">
         <f t="shared" ref="D49:H49" si="17">(D47-D38)/D38</f>
-        <v>0.23080791745570003</v>
+        <v>0.24592233750711021</v>
       </c>
       <c r="E49" s="225"/>
       <c r="F49" s="225"/>
       <c r="G49" s="225"/>
       <c r="H49" s="225">
         <f t="shared" si="17"/>
-        <v>0.51514212200380116</v>
+        <v>0.60870022222040188</v>
       </c>
       <c r="J49" s="43"/>
       <c r="K49" s="246"/>
@@ -44014,7 +43782,7 @@
       <c r="N49" s="246"/>
       <c r="O49" s="45"/>
       <c r="P49" s="46"/>
-      <c r="Q49" s="170"/>
+      <c r="Q49" s="25"/>
       <c r="R49" s="44"/>
       <c r="S49" s="44"/>
       <c r="T49" s="44"/>
@@ -44022,7 +43790,7 @@
       <c r="V49" s="2"/>
     </row>
     <row r="50" spans="1:29" s="54" customFormat="1">
-      <c r="A50" s="356"/>
+      <c r="A50" s="367"/>
       <c r="B50" s="224" t="str">
         <f>A39</f>
         <v>5YRS</v>
@@ -44049,8 +43817,8 @@
       <c r="M50" s="246"/>
       <c r="N50" s="246"/>
       <c r="O50" s="45"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="59"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="25"/>
       <c r="R50" s="44"/>
       <c r="S50" s="44"/>
       <c r="T50" s="44"/>
@@ -44065,7 +43833,7 @@
       <c r="AC50"/>
     </row>
     <row r="51" spans="1:29">
-      <c r="A51" s="356"/>
+      <c r="A51" s="367"/>
       <c r="B51" s="224" t="str">
         <f>A40</f>
         <v>3YRS</v>
@@ -44076,14 +43844,14 @@
       </c>
       <c r="D51" s="225">
         <f t="shared" ref="D51:H51" si="19">(D47-D40)/D40</f>
-        <v>0.2195877105189257</v>
+        <v>0.21030986925603953</v>
       </c>
       <c r="E51" s="225"/>
       <c r="F51" s="225"/>
       <c r="G51" s="225"/>
       <c r="H51" s="225">
         <f t="shared" si="19"/>
-        <v>0.48849800766656959</v>
+        <v>0.59249951280608815</v>
       </c>
       <c r="J51" s="142"/>
       <c r="K51" s="248"/>
@@ -44091,8 +43859,8 @@
       <c r="M51" s="248"/>
       <c r="N51" s="248"/>
       <c r="O51" s="147"/>
-      <c r="P51" s="169"/>
-      <c r="Q51" s="171"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="143"/>
       <c r="R51" s="145"/>
       <c r="S51" s="145"/>
       <c r="T51" s="145"/>
@@ -44106,16 +43874,16 @@
       <c r="M52" s="246"/>
       <c r="N52" s="246"/>
       <c r="O52" s="45"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="59"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="170"/>
       <c r="R52" s="44"/>
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
       <c r="U52" s="28"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
-      <c r="A53" s="356" t="s">
+    <row r="53" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A53" s="367" t="s">
         <v>68</v>
       </c>
       <c r="B53" s="224" t="s">
@@ -44127,14 +43895,14 @@
       </c>
       <c r="D53" s="226">
         <f t="shared" ref="D53:H53" si="20">((1+D49)^(1/(D8/12))-1)</f>
-        <v>6.9988156990374639E-2</v>
+        <v>6.8472312204649777E-2</v>
       </c>
       <c r="E53" s="226"/>
       <c r="F53" s="226"/>
       <c r="G53" s="226"/>
       <c r="H53" s="226">
         <f t="shared" si="20"/>
-        <v>0.14493718060639549</v>
+        <v>0.15396680488046344</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="43"/>
@@ -44159,7 +43927,7 @@
       <c r="AC53"/>
     </row>
     <row r="54" spans="1:29">
-      <c r="A54" s="356"/>
+      <c r="A54" s="367"/>
       <c r="B54" s="224" t="s">
         <v>50</v>
       </c>
@@ -44193,7 +43961,7 @@
       <c r="V54" s="169"/>
     </row>
     <row r="55" spans="1:29">
-      <c r="A55" s="356"/>
+      <c r="A55" s="367"/>
       <c r="B55" s="224" t="s">
         <v>51</v>
       </c>
@@ -44203,14 +43971,14 @@
       </c>
       <c r="D55" s="226">
         <f t="shared" ref="D55:H55" si="22">((1+D51)^(1/(36/12))-1)</f>
-        <v>6.8409349492220217E-2</v>
+        <v>6.5693192466216743E-2</v>
       </c>
       <c r="E55" s="226"/>
       <c r="F55" s="226"/>
       <c r="G55" s="226"/>
       <c r="H55" s="226">
         <f t="shared" si="22"/>
-        <v>0.14178084431329308</v>
+        <v>0.16777660216712698</v>
       </c>
       <c r="J55" s="43"/>
       <c r="K55" s="246"/>
@@ -44257,20 +44025,20 @@
       <c r="AB56"/>
       <c r="AC56"/>
     </row>
-    <row r="57" spans="1:29" ht="15" thickBot="1">
-      <c r="J57" s="72"/>
-      <c r="K57" s="249"/>
-      <c r="L57" s="249"/>
-      <c r="M57" s="249"/>
-      <c r="N57" s="249"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="75"/>
-      <c r="S57" s="75"/>
-      <c r="T57" s="75"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="70"/>
+    <row r="57" spans="1:29">
+      <c r="J57" s="142"/>
+      <c r="K57" s="248"/>
+      <c r="L57" s="248"/>
+      <c r="M57" s="248"/>
+      <c r="N57" s="248"/>
+      <c r="O57" s="147"/>
+      <c r="P57" s="169"/>
+      <c r="Q57" s="171"/>
+      <c r="R57" s="145"/>
+      <c r="S57" s="145"/>
+      <c r="T57" s="145"/>
+      <c r="U57" s="146"/>
+      <c r="V57" s="169"/>
     </row>
     <row r="58" spans="1:29">
       <c r="J58" s="43"/>
@@ -44318,20 +44086,20 @@
       <c r="AB59"/>
       <c r="AC59"/>
     </row>
-    <row r="60" spans="1:29">
-      <c r="J60" s="142"/>
-      <c r="K60" s="248"/>
-      <c r="L60" s="248"/>
-      <c r="M60" s="248"/>
-      <c r="N60" s="248"/>
-      <c r="O60" s="147"/>
-      <c r="P60" s="169"/>
-      <c r="Q60" s="171"/>
-      <c r="R60" s="145"/>
-      <c r="S60" s="145"/>
-      <c r="T60" s="145"/>
-      <c r="U60" s="146"/>
-      <c r="V60" s="169"/>
+    <row r="60" spans="1:29" ht="15.75" thickBot="1">
+      <c r="J60" s="72"/>
+      <c r="K60" s="249"/>
+      <c r="L60" s="249"/>
+      <c r="M60" s="249"/>
+      <c r="N60" s="249"/>
+      <c r="O60" s="77"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="75"/>
+      <c r="T60" s="75"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="70"/>
     </row>
     <row r="61" spans="1:29">
       <c r="J61" s="43"/>
@@ -44409,7 +44177,7 @@
       <c r="U64" s="28"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="65" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A65"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -44501,20 +44269,20 @@
       <c r="AB68"/>
       <c r="AC68"/>
     </row>
-    <row r="69" spans="1:29" ht="15" thickBot="1">
-      <c r="J69" s="72"/>
-      <c r="K69" s="249"/>
-      <c r="L69" s="249"/>
-      <c r="M69" s="249"/>
-      <c r="N69" s="249"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="73"/>
-      <c r="R69" s="75"/>
-      <c r="S69" s="75"/>
-      <c r="T69" s="75"/>
-      <c r="U69" s="76"/>
-      <c r="V69" s="70"/>
+    <row r="69" spans="1:29">
+      <c r="J69" s="142"/>
+      <c r="K69" s="248"/>
+      <c r="L69" s="248"/>
+      <c r="M69" s="248"/>
+      <c r="N69" s="248"/>
+      <c r="O69" s="147"/>
+      <c r="P69" s="169"/>
+      <c r="Q69" s="171"/>
+      <c r="R69" s="145"/>
+      <c r="S69" s="145"/>
+      <c r="T69" s="145"/>
+      <c r="U69" s="146"/>
+      <c r="V69" s="169"/>
     </row>
     <row r="70" spans="1:29">
       <c r="J70" s="43"/>
@@ -44562,20 +44330,20 @@
       <c r="AB71"/>
       <c r="AC71"/>
     </row>
-    <row r="72" spans="1:29">
-      <c r="J72" s="142"/>
-      <c r="K72" s="248"/>
-      <c r="L72" s="248"/>
-      <c r="M72" s="248"/>
-      <c r="N72" s="248"/>
-      <c r="O72" s="147"/>
-      <c r="P72" s="169"/>
-      <c r="Q72" s="171"/>
-      <c r="R72" s="145"/>
-      <c r="S72" s="145"/>
-      <c r="T72" s="145"/>
-      <c r="U72" s="146"/>
-      <c r="V72" s="169"/>
+    <row r="72" spans="1:29" ht="15.75" thickBot="1">
+      <c r="J72" s="72"/>
+      <c r="K72" s="249"/>
+      <c r="L72" s="249"/>
+      <c r="M72" s="249"/>
+      <c r="N72" s="249"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="70"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="75"/>
+      <c r="S72" s="75"/>
+      <c r="T72" s="75"/>
+      <c r="U72" s="76"/>
+      <c r="V72" s="70"/>
     </row>
     <row r="73" spans="1:29">
       <c r="J73" s="43"/>
@@ -44653,7 +44421,7 @@
       <c r="U76" s="28"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="77" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A77"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -44745,20 +44513,20 @@
       <c r="AB80"/>
       <c r="AC80"/>
     </row>
-    <row r="81" spans="1:29" ht="15" thickBot="1">
-      <c r="J81" s="72"/>
-      <c r="K81" s="249"/>
-      <c r="L81" s="249"/>
-      <c r="M81" s="249"/>
-      <c r="N81" s="249"/>
-      <c r="O81" s="77"/>
-      <c r="P81" s="70"/>
-      <c r="Q81" s="73"/>
-      <c r="R81" s="75"/>
-      <c r="S81" s="75"/>
-      <c r="T81" s="75"/>
-      <c r="U81" s="76"/>
-      <c r="V81" s="70"/>
+    <row r="81" spans="1:29">
+      <c r="J81" s="142"/>
+      <c r="K81" s="248"/>
+      <c r="L81" s="248"/>
+      <c r="M81" s="248"/>
+      <c r="N81" s="248"/>
+      <c r="O81" s="147"/>
+      <c r="P81" s="169"/>
+      <c r="Q81" s="171"/>
+      <c r="R81" s="145"/>
+      <c r="S81" s="145"/>
+      <c r="T81" s="145"/>
+      <c r="U81" s="146"/>
+      <c r="V81" s="169"/>
     </row>
     <row r="82" spans="1:29">
       <c r="J82" s="43"/>
@@ -44806,20 +44574,20 @@
       <c r="AB83"/>
       <c r="AC83"/>
     </row>
-    <row r="84" spans="1:29">
-      <c r="J84" s="142"/>
-      <c r="K84" s="248"/>
-      <c r="L84" s="248"/>
-      <c r="M84" s="248"/>
-      <c r="N84" s="248"/>
-      <c r="O84" s="147"/>
-      <c r="P84" s="169"/>
-      <c r="Q84" s="171"/>
-      <c r="R84" s="145"/>
-      <c r="S84" s="145"/>
-      <c r="T84" s="145"/>
-      <c r="U84" s="146"/>
-      <c r="V84" s="169"/>
+    <row r="84" spans="1:29" ht="15.75" thickBot="1">
+      <c r="J84" s="72"/>
+      <c r="K84" s="249"/>
+      <c r="L84" s="249"/>
+      <c r="M84" s="249"/>
+      <c r="N84" s="249"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="70"/>
+      <c r="Q84" s="73"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="75"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="76"/>
+      <c r="V84" s="70"/>
     </row>
     <row r="85" spans="1:29">
       <c r="J85" s="43"/>
@@ -44897,7 +44665,7 @@
       <c r="U88" s="28"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="89" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A89"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -44973,20 +44741,20 @@
       <c r="U92" s="28"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" spans="1:29" ht="15" thickBot="1">
-      <c r="J93" s="72"/>
-      <c r="K93" s="249"/>
-      <c r="L93" s="249"/>
-      <c r="M93" s="249"/>
-      <c r="N93" s="249"/>
-      <c r="O93" s="77"/>
-      <c r="P93" s="70"/>
-      <c r="Q93" s="73"/>
-      <c r="R93" s="75"/>
-      <c r="S93" s="75"/>
-      <c r="T93" s="75"/>
-      <c r="U93" s="76"/>
-      <c r="V93" s="70"/>
+    <row r="93" spans="1:29">
+      <c r="J93" s="142"/>
+      <c r="K93" s="248"/>
+      <c r="L93" s="248"/>
+      <c r="M93" s="248"/>
+      <c r="N93" s="248"/>
+      <c r="O93" s="147"/>
+      <c r="P93" s="169"/>
+      <c r="Q93" s="171"/>
+      <c r="R93" s="145"/>
+      <c r="S93" s="145"/>
+      <c r="T93" s="145"/>
+      <c r="U93" s="146"/>
+      <c r="V93" s="169"/>
     </row>
     <row r="94" spans="1:29">
       <c r="J94" s="43"/>
@@ -45018,20 +44786,20 @@
       <c r="U95" s="28"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:29">
-      <c r="J96" s="142"/>
-      <c r="K96" s="248"/>
-      <c r="L96" s="248"/>
-      <c r="M96" s="248"/>
-      <c r="N96" s="248"/>
-      <c r="O96" s="147"/>
-      <c r="P96" s="169"/>
-      <c r="Q96" s="171"/>
-      <c r="R96" s="145"/>
-      <c r="S96" s="145"/>
-      <c r="T96" s="145"/>
-      <c r="U96" s="146"/>
-      <c r="V96" s="169"/>
+    <row r="96" spans="1:29" ht="15.75" thickBot="1">
+      <c r="J96" s="72"/>
+      <c r="K96" s="249"/>
+      <c r="L96" s="249"/>
+      <c r="M96" s="249"/>
+      <c r="N96" s="249"/>
+      <c r="O96" s="77"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="73"/>
+      <c r="R96" s="75"/>
+      <c r="S96" s="75"/>
+      <c r="T96" s="75"/>
+      <c r="U96" s="76"/>
+      <c r="V96" s="70"/>
     </row>
     <row r="97" spans="1:29">
       <c r="J97" s="43"/>
@@ -45123,7 +44891,7 @@
       <c r="U102" s="146"/>
       <c r="V102" s="169"/>
     </row>
-    <row r="103" spans="1:29" ht="15" thickBot="1">
+    <row r="103" spans="1:29" ht="15.75" thickBot="1">
       <c r="A103" s="57"/>
       <c r="B103" s="69"/>
       <c r="C103" s="70"/>
@@ -45162,20 +44930,20 @@
       <c r="U104" s="28"/>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:29" ht="15" thickBot="1">
-      <c r="J105" s="72"/>
-      <c r="K105" s="249"/>
-      <c r="L105" s="249"/>
-      <c r="M105" s="249"/>
-      <c r="N105" s="249"/>
-      <c r="O105" s="77"/>
-      <c r="P105" s="70"/>
-      <c r="Q105" s="73"/>
-      <c r="R105" s="75"/>
-      <c r="S105" s="75"/>
-      <c r="T105" s="75"/>
-      <c r="U105" s="76"/>
-      <c r="V105" s="70"/>
+    <row r="105" spans="1:29">
+      <c r="J105" s="142"/>
+      <c r="K105" s="248"/>
+      <c r="L105" s="248"/>
+      <c r="M105" s="248"/>
+      <c r="N105" s="248"/>
+      <c r="O105" s="147"/>
+      <c r="P105" s="169"/>
+      <c r="Q105" s="171"/>
+      <c r="R105" s="145"/>
+      <c r="S105" s="145"/>
+      <c r="T105" s="145"/>
+      <c r="U105" s="146"/>
+      <c r="V105" s="169"/>
     </row>
     <row r="106" spans="1:29">
       <c r="J106" s="43"/>
@@ -45207,7 +44975,7 @@
       <c r="U107" s="28"/>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="108" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -45217,19 +44985,19 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="142"/>
-      <c r="K108" s="248"/>
-      <c r="L108" s="248"/>
-      <c r="M108" s="248"/>
-      <c r="N108" s="248"/>
-      <c r="O108" s="147"/>
-      <c r="P108" s="169"/>
-      <c r="Q108" s="171"/>
-      <c r="R108" s="145"/>
-      <c r="S108" s="145"/>
-      <c r="T108" s="145"/>
-      <c r="U108" s="146"/>
-      <c r="V108" s="169"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="249"/>
+      <c r="L108" s="249"/>
+      <c r="M108" s="249"/>
+      <c r="N108" s="249"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="70"/>
+      <c r="Q108" s="73"/>
+      <c r="R108" s="75"/>
+      <c r="S108" s="75"/>
+      <c r="T108" s="75"/>
+      <c r="U108" s="76"/>
+      <c r="V108" s="70"/>
       <c r="W108"/>
       <c r="X108"/>
       <c r="Y108"/>
@@ -45358,20 +45126,20 @@
       <c r="U116" s="28"/>
       <c r="V116" s="2"/>
     </row>
-    <row r="117" spans="1:29" ht="15" thickBot="1">
-      <c r="J117" s="72"/>
-      <c r="K117" s="249"/>
-      <c r="L117" s="249"/>
-      <c r="M117" s="249"/>
-      <c r="N117" s="249"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="70"/>
-      <c r="Q117" s="73"/>
-      <c r="R117" s="75"/>
-      <c r="S117" s="75"/>
-      <c r="T117" s="75"/>
-      <c r="U117" s="76"/>
-      <c r="V117" s="70"/>
+    <row r="117" spans="1:29">
+      <c r="J117" s="142"/>
+      <c r="K117" s="248"/>
+      <c r="L117" s="248"/>
+      <c r="M117" s="248"/>
+      <c r="N117" s="248"/>
+      <c r="O117" s="147"/>
+      <c r="P117" s="169"/>
+      <c r="Q117" s="171"/>
+      <c r="R117" s="145"/>
+      <c r="S117" s="145"/>
+      <c r="T117" s="145"/>
+      <c r="U117" s="146"/>
+      <c r="V117" s="169"/>
     </row>
     <row r="118" spans="1:29">
       <c r="J118" s="43"/>
@@ -45403,7 +45171,7 @@
       <c r="U119" s="28"/>
       <c r="V119" s="2"/>
     </row>
-    <row r="120" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="120" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A120"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
@@ -45413,19 +45181,19 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="3"/>
-      <c r="J120" s="142"/>
-      <c r="K120" s="248"/>
-      <c r="L120" s="248"/>
-      <c r="M120" s="248"/>
-      <c r="N120" s="248"/>
-      <c r="O120" s="147"/>
-      <c r="P120" s="169"/>
-      <c r="Q120" s="171"/>
-      <c r="R120" s="145"/>
-      <c r="S120" s="145"/>
-      <c r="T120" s="145"/>
-      <c r="U120" s="146"/>
-      <c r="V120" s="169"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="249"/>
+      <c r="L120" s="249"/>
+      <c r="M120" s="249"/>
+      <c r="N120" s="249"/>
+      <c r="O120" s="77"/>
+      <c r="P120" s="70"/>
+      <c r="Q120" s="73"/>
+      <c r="R120" s="75"/>
+      <c r="S120" s="75"/>
+      <c r="T120" s="75"/>
+      <c r="U120" s="76"/>
+      <c r="V120" s="70"/>
       <c r="W120"/>
       <c r="X120"/>
       <c r="Y120"/>
@@ -45464,7 +45232,7 @@
       <c r="U122" s="28"/>
       <c r="V122" s="2"/>
     </row>
-    <row r="123" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="123" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A123"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
@@ -45570,7 +45338,7 @@
       <c r="U128" s="28"/>
       <c r="V128" s="2"/>
     </row>
-    <row r="129" spans="1:29" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="129" spans="1:29" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A129"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
@@ -45603,48 +45371,48 @@
     </row>
     <row r="130" spans="1:29">
       <c r="J130" s="43"/>
-      <c r="K130" s="250"/>
-      <c r="L130" s="250"/>
-      <c r="M130" s="250"/>
-      <c r="N130" s="250"/>
+      <c r="K130" s="246"/>
+      <c r="L130" s="246"/>
+      <c r="M130" s="246"/>
+      <c r="N130" s="246"/>
       <c r="O130" s="45"/>
       <c r="P130" s="2"/>
       <c r="Q130" s="59"/>
       <c r="R130" s="44"/>
       <c r="S130" s="44"/>
       <c r="T130" s="44"/>
-      <c r="U130" s="236"/>
+      <c r="U130" s="28"/>
       <c r="V130" s="2"/>
     </row>
     <row r="131" spans="1:29">
       <c r="J131" s="43"/>
-      <c r="K131" s="250"/>
-      <c r="L131" s="250"/>
-      <c r="M131" s="250"/>
-      <c r="N131" s="250"/>
+      <c r="K131" s="246"/>
+      <c r="L131" s="246"/>
+      <c r="M131" s="246"/>
+      <c r="N131" s="246"/>
       <c r="O131" s="45"/>
       <c r="P131" s="2"/>
       <c r="Q131" s="59"/>
       <c r="R131" s="44"/>
       <c r="S131" s="44"/>
       <c r="T131" s="44"/>
-      <c r="U131" s="236"/>
+      <c r="U131" s="28"/>
       <c r="V131" s="2"/>
     </row>
-    <row r="132" spans="1:29" ht="15" thickBot="1">
-      <c r="J132" s="72"/>
-      <c r="K132" s="251"/>
-      <c r="L132" s="251"/>
-      <c r="M132" s="251"/>
-      <c r="N132" s="251"/>
-      <c r="O132" s="77"/>
-      <c r="P132" s="70"/>
-      <c r="Q132" s="73"/>
-      <c r="R132" s="75"/>
-      <c r="S132" s="75"/>
-      <c r="T132" s="75"/>
-      <c r="U132" s="237"/>
-      <c r="V132" s="70"/>
+    <row r="132" spans="1:29">
+      <c r="J132" s="142"/>
+      <c r="K132" s="248"/>
+      <c r="L132" s="248"/>
+      <c r="M132" s="248"/>
+      <c r="N132" s="248"/>
+      <c r="O132" s="147"/>
+      <c r="P132" s="169"/>
+      <c r="Q132" s="171"/>
+      <c r="R132" s="145"/>
+      <c r="S132" s="145"/>
+      <c r="T132" s="145"/>
+      <c r="U132" s="146"/>
+      <c r="V132" s="169"/>
     </row>
     <row r="133" spans="1:29">
       <c r="J133" s="43"/>
@@ -45676,20 +45444,20 @@
       <c r="U134" s="236"/>
       <c r="V134" s="2"/>
     </row>
-    <row r="135" spans="1:29" ht="15" thickBot="1">
+    <row r="135" spans="1:29" ht="15.75" thickBot="1">
       <c r="J135" s="72"/>
       <c r="K135" s="251"/>
       <c r="L135" s="251"/>
       <c r="M135" s="251"/>
       <c r="N135" s="251"/>
       <c r="O135" s="77"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="59"/>
+      <c r="P135" s="70"/>
+      <c r="Q135" s="73"/>
       <c r="R135" s="75"/>
       <c r="S135" s="75"/>
       <c r="T135" s="75"/>
       <c r="U135" s="237"/>
-      <c r="V135" s="2"/>
+      <c r="V135" s="70"/>
     </row>
     <row r="136" spans="1:29">
       <c r="J136" s="43"/>
@@ -45721,65 +45489,65 @@
       <c r="U137" s="236"/>
       <c r="V137" s="2"/>
     </row>
-    <row r="138" spans="1:29" ht="15" thickBot="1">
+    <row r="138" spans="1:29" ht="15.75" thickBot="1">
       <c r="J138" s="72"/>
       <c r="K138" s="251"/>
       <c r="L138" s="251"/>
       <c r="M138" s="251"/>
       <c r="N138" s="251"/>
       <c r="O138" s="77"/>
-      <c r="P138" s="70"/>
-      <c r="Q138" s="73"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="59"/>
       <c r="R138" s="75"/>
       <c r="S138" s="75"/>
       <c r="T138" s="75"/>
       <c r="U138" s="237"/>
-      <c r="V138" s="70"/>
+      <c r="V138" s="2"/>
     </row>
     <row r="139" spans="1:29">
-      <c r="J139" s="35"/>
-      <c r="K139" s="34"/>
-      <c r="L139" s="34"/>
-      <c r="M139" s="34"/>
-      <c r="N139" s="34"/>
-      <c r="O139" s="89"/>
-      <c r="P139" s="88"/>
-      <c r="Q139" s="88"/>
+      <c r="J139" s="43"/>
+      <c r="K139" s="250"/>
+      <c r="L139" s="250"/>
+      <c r="M139" s="250"/>
+      <c r="N139" s="250"/>
+      <c r="O139" s="45"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="59"/>
       <c r="R139" s="44"/>
       <c r="S139" s="44"/>
       <c r="T139" s="44"/>
-      <c r="U139" s="44"/>
-      <c r="V139"/>
+      <c r="U139" s="236"/>
+      <c r="V139" s="2"/>
     </row>
     <row r="140" spans="1:29">
-      <c r="J140" s="35"/>
-      <c r="K140" s="34"/>
-      <c r="L140" s="34"/>
-      <c r="M140" s="34"/>
-      <c r="N140" s="34"/>
-      <c r="O140" s="89"/>
-      <c r="P140" s="88"/>
-      <c r="Q140" s="88"/>
+      <c r="J140" s="43"/>
+      <c r="K140" s="250"/>
+      <c r="L140" s="250"/>
+      <c r="M140" s="250"/>
+      <c r="N140" s="250"/>
+      <c r="O140" s="45"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="59"/>
       <c r="R140" s="44"/>
       <c r="S140" s="44"/>
       <c r="T140" s="44"/>
-      <c r="U140" s="44"/>
-      <c r="V140"/>
-    </row>
-    <row r="141" spans="1:29">
-      <c r="J141" s="35"/>
-      <c r="K141" s="34"/>
-      <c r="L141" s="34"/>
-      <c r="M141" s="34"/>
-      <c r="N141" s="34"/>
-      <c r="O141" s="89"/>
-      <c r="P141" s="88"/>
-      <c r="Q141" s="88"/>
-      <c r="R141" s="44"/>
-      <c r="S141" s="44"/>
-      <c r="T141" s="44"/>
-      <c r="U141" s="44"/>
-      <c r="V141"/>
+      <c r="U140" s="236"/>
+      <c r="V140" s="2"/>
+    </row>
+    <row r="141" spans="1:29" ht="15.75" thickBot="1">
+      <c r="J141" s="72"/>
+      <c r="K141" s="251"/>
+      <c r="L141" s="251"/>
+      <c r="M141" s="251"/>
+      <c r="N141" s="251"/>
+      <c r="O141" s="77"/>
+      <c r="P141" s="70"/>
+      <c r="Q141" s="73"/>
+      <c r="R141" s="75"/>
+      <c r="S141" s="75"/>
+      <c r="T141" s="75"/>
+      <c r="U141" s="237"/>
+      <c r="V141" s="70"/>
     </row>
     <row r="142" spans="1:29">
       <c r="J142" s="35"/>
@@ -47125,11 +46893,6 @@
       <c r="T226" s="44"/>
       <c r="U226" s="44"/>
       <c r="V226"/>
-      <c r="W226" s="34"/>
-      <c r="X226" s="34"/>
-      <c r="Y226" s="34"/>
-      <c r="Z226" s="34"/>
-      <c r="AA226" s="34"/>
     </row>
     <row r="227" spans="10:27">
       <c r="J227" s="35"/>
@@ -47145,11 +46908,6 @@
       <c r="T227" s="44"/>
       <c r="U227" s="44"/>
       <c r="V227"/>
-      <c r="W227" s="34"/>
-      <c r="X227" s="34"/>
-      <c r="Y227" s="34"/>
-      <c r="Z227" s="34"/>
-      <c r="AA227" s="34"/>
     </row>
     <row r="228" spans="10:27">
       <c r="J228" s="35"/>
@@ -47165,11 +46923,6 @@
       <c r="T228" s="44"/>
       <c r="U228" s="44"/>
       <c r="V228"/>
-      <c r="W228" s="34"/>
-      <c r="X228" s="34"/>
-      <c r="Y228" s="34"/>
-      <c r="Z228" s="34"/>
-      <c r="AA228" s="34"/>
     </row>
     <row r="229" spans="10:27">
       <c r="J229" s="35"/>
@@ -47251,52 +47004,112 @@
       <c r="Z232" s="34"/>
       <c r="AA232" s="34"/>
     </row>
+    <row r="233" spans="10:27">
+      <c r="J233" s="35"/>
+      <c r="K233" s="34"/>
+      <c r="L233" s="34"/>
+      <c r="M233" s="34"/>
+      <c r="N233" s="34"/>
+      <c r="O233" s="89"/>
+      <c r="P233" s="88"/>
+      <c r="Q233" s="88"/>
+      <c r="R233" s="44"/>
+      <c r="S233" s="44"/>
+      <c r="T233" s="44"/>
+      <c r="U233" s="44"/>
+      <c r="V233"/>
+      <c r="W233" s="34"/>
+      <c r="X233" s="34"/>
+      <c r="Y233" s="34"/>
+      <c r="Z233" s="34"/>
+      <c r="AA233" s="34"/>
+    </row>
+    <row r="234" spans="10:27">
+      <c r="J234" s="35"/>
+      <c r="K234" s="34"/>
+      <c r="L234" s="34"/>
+      <c r="M234" s="34"/>
+      <c r="N234" s="34"/>
+      <c r="O234" s="89"/>
+      <c r="P234" s="88"/>
+      <c r="Q234" s="88"/>
+      <c r="R234" s="44"/>
+      <c r="S234" s="44"/>
+      <c r="T234" s="44"/>
+      <c r="U234" s="44"/>
+      <c r="V234"/>
+      <c r="W234" s="34"/>
+      <c r="X234" s="34"/>
+      <c r="Y234" s="34"/>
+      <c r="Z234" s="34"/>
+      <c r="AA234" s="34"/>
+    </row>
+    <row r="235" spans="10:27">
+      <c r="J235" s="35"/>
+      <c r="K235" s="34"/>
+      <c r="L235" s="34"/>
+      <c r="M235" s="34"/>
+      <c r="N235" s="34"/>
+      <c r="O235" s="89"/>
+      <c r="P235" s="88"/>
+      <c r="Q235" s="88"/>
+      <c r="R235" s="44"/>
+      <c r="S235" s="44"/>
+      <c r="T235" s="44"/>
+      <c r="U235" s="44"/>
+      <c r="V235"/>
+      <c r="W235" s="34"/>
+      <c r="X235" s="34"/>
+      <c r="Y235" s="34"/>
+      <c r="Z235" s="34"/>
+      <c r="AA235" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
-  <conditionalFormatting sqref="R57:U129">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
-      <formula>LEN(TRIM(R57))=0</formula>
+  <conditionalFormatting sqref="R60:U132">
+    <cfRule type="containsBlanks" dxfId="17" priority="7">
+      <formula>LEN(TRIM(R60))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R130:U132">
-    <cfRule type="containsBlanks" dxfId="18" priority="5">
-      <formula>LEN(TRIM(R130))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R133:T135">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+  <conditionalFormatting sqref="R133:U135">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(R133))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R136:T138">
-    <cfRule type="containsBlanks" dxfId="16" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="4">
       <formula>LEN(TRIM(R136))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U133:U135">
-    <cfRule type="containsBlanks" dxfId="15" priority="2">
-      <formula>LEN(TRIM(U133))=0</formula>
+  <conditionalFormatting sqref="R139:T141">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
+      <formula>LEN(TRIM(R139))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U136:U138">
-    <cfRule type="containsBlanks" dxfId="14" priority="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
       <formula>LEN(TRIM(U136))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U139:U141">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
+      <formula>LEN(TRIM(U139))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A36" xr:uid="{8C579C4C-E9FC-40E6-9082-5586FCB9AAB8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A36" xr:uid="{76EF5531-1087-429D-97B2-3D97CBA6AEA5}">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -47306,7 +47119,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{3C87248A-C83D-42EE-B1CD-54DB807B0861}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{ECA17426-6475-4563-ADF3-4B085023FEBD}">
             <xm:f>NOT(ISERROR(SEARCH($A$1,A8)))</xm:f>
             <xm:f>$A$1</xm:f>
             <x14:dxf>
@@ -47330,53 +47143,53 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="117" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" style="117" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="115" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="117" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="117" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="115" customWidth="1"/>
     <col min="4" max="4" width="10" style="115" customWidth="1"/>
     <col min="5" max="5" width="10" style="118" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="118" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="118" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="118" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="118" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="118" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="1.6640625" style="117" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="118" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="118" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="1.7109375" style="117" customWidth="1"/>
     <col min="14" max="14" width="6" style="116" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.33203125" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="16"/>
+    <col min="17" max="17" width="47.28515625" style="16" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1">
       <c r="C1" s="235" t="s">
         <v>69</v>
       </c>
       <c r="D1" s="235"/>
     </row>
-    <row r="2" spans="2:14" s="233" customFormat="1" ht="16.2" thickBot="1">
-      <c r="B2" s="363" t="s">
+    <row r="2" spans="2:14" s="233" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B2" s="369" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
-      <c r="K2" s="364"/>
-      <c r="L2" s="365"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="370"/>
+      <c r="G2" s="370"/>
+      <c r="H2" s="370"/>
+      <c r="I2" s="370"/>
+      <c r="J2" s="370"/>
+      <c r="K2" s="370"/>
+      <c r="L2" s="371"/>
       <c r="N2" s="234"/>
     </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1">
       <c r="B3" s="174"/>
       <c r="C3" s="175"/>
       <c r="D3" s="175"/>
@@ -47392,12 +47205,12 @@
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1">
       <c r="B4" s="178"/>
-      <c r="C4" s="366" t="s">
+      <c r="C4" s="372" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="274">
         <f>'[1]DATA - Since Change'!C5</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="E4" s="179" t="str">
         <f>'[1]DATA - Since Change'!D2</f>
@@ -47412,22 +47225,22 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="178"/>
-      <c r="C5" s="367"/>
+      <c r="C5" s="373"/>
       <c r="D5" s="275"/>
       <c r="E5" s="123">
         <f>'[1]DATA - Since Change'!D11</f>
-        <v>12308.079174557</v>
+        <v>12459.223375071102</v>
       </c>
       <c r="F5" s="182">
         <f>'[1]DATA - Since Change'!H11</f>
-        <v>15151.421220038012</v>
+        <v>16087.002222204019</v>
       </c>
       <c r="L5" s="181"/>
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1">
       <c r="B6" s="178"/>
-      <c r="C6" s="368" t="s">
+      <c r="C6" s="374" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="183" t="str">
@@ -47436,11 +47249,11 @@
       </c>
       <c r="E6" s="184">
         <f>D14/100</f>
-        <v>2.6499999999999999E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="F6" s="281">
         <f>D18/100</f>
-        <v>0.18396276753647034</v>
+        <v>6.1748728952811804E-2</v>
       </c>
       <c r="K6" s="185"/>
       <c r="L6" s="181"/>
@@ -47448,18 +47261,18 @@
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1">
       <c r="B7" s="178"/>
-      <c r="C7" s="369"/>
+      <c r="C7" s="375"/>
       <c r="D7" s="186" t="str">
         <f>E13</f>
         <v>1 Year</v>
       </c>
       <c r="E7" s="187">
         <f>E14/100</f>
-        <v>2.6499999999999999E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="F7" s="282">
         <f>E18/100</f>
-        <v>0.18396276753647034</v>
+        <v>0.56348260735089295</v>
       </c>
       <c r="K7" s="185"/>
       <c r="L7" s="181"/>
@@ -47467,17 +47280,18 @@
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1">
       <c r="B8" s="178"/>
-      <c r="C8" s="369"/>
-      <c r="D8" s="186" t="s">
-        <v>79</v>
+      <c r="C8" s="375"/>
+      <c r="D8" s="186" t="str">
+        <f>F13</f>
+        <v>3 Years</v>
       </c>
       <c r="E8" s="187">
         <f>F14/100</f>
-        <v>6.9988156990374639E-2</v>
+        <v>6.5693192466216743E-2</v>
       </c>
       <c r="F8" s="282">
         <f>F18/100</f>
-        <v>0.14493718060639527</v>
+        <v>0.1678</v>
       </c>
       <c r="K8" s="185"/>
       <c r="L8" s="181"/>
@@ -47485,18 +47299,17 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="178"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="186" t="str">
-        <f>G13</f>
-        <v>3 Years</v>
+      <c r="C9" s="375"/>
+      <c r="D9" s="186" t="s">
+        <v>79</v>
       </c>
       <c r="E9" s="187">
         <f>G14/100</f>
-        <v>6.8409349492220217E-2</v>
+        <v>6.8472312204649777E-2</v>
       </c>
       <c r="F9" s="282">
         <f>G18/100</f>
-        <v>0.14180000000000001</v>
+        <v>0.15396680488046344</v>
       </c>
       <c r="K9" s="185"/>
       <c r="L9" s="181"/>
@@ -47504,47 +47317,47 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="178"/>
-      <c r="C10" s="369"/>
+      <c r="C10" s="375"/>
       <c r="D10" s="186" t="str">
         <f>H13</f>
         <v>5 Years</v>
       </c>
       <c r="E10" s="187">
         <f>H14/100</f>
-        <v>6.2318516198524909E-2</v>
+        <v>6.1006706725691418E-2</v>
       </c>
       <c r="F10" s="282"/>
       <c r="K10" s="185"/>
       <c r="L10" s="181"/>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="2:14" ht="15" thickBot="1">
+    <row r="11" spans="2:14" ht="15.75" thickBot="1">
       <c r="B11" s="178"/>
-      <c r="C11" s="370"/>
+      <c r="C11" s="376"/>
       <c r="D11" s="188" t="str">
         <f>J13</f>
         <v>Inception*</v>
       </c>
       <c r="E11" s="189">
         <f>J14/100</f>
-        <v>-1.2085353116480957E-2</v>
+        <v>-1.1002547415217223E-2</v>
       </c>
       <c r="F11" s="283"/>
       <c r="L11" s="181"/>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1">
+    <row r="12" spans="2:14" ht="15.75" thickBot="1">
       <c r="B12" s="178"/>
       <c r="C12" s="121"/>
       <c r="D12" s="121"/>
       <c r="E12" s="120"/>
       <c r="F12" s="120"/>
-      <c r="G12" s="371" t="s">
+      <c r="G12" s="332"/>
+      <c r="H12" s="377" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="371"/>
-      <c r="I12" s="371"/>
-      <c r="J12" s="371"/>
+      <c r="I12" s="377"/>
+      <c r="J12" s="377"/>
       <c r="L12" s="181"/>
       <c r="N12" s="16"/>
     </row>
@@ -47559,13 +47372,13 @@
       <c r="E13" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="312" t="s">
+      <c r="F13" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="333" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="311" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="191" t="s">
+      <c r="H13" s="311" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="191" t="s">
@@ -47582,31 +47395,31 @@
       <c r="C14" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="315">
-        <v>2.65</v>
-      </c>
-      <c r="E14" s="315">
-        <v>2.65</v>
+      <c r="D14" s="312">
+        <v>1.23</v>
+      </c>
+      <c r="E14" s="312">
+        <v>3.54</v>
       </c>
       <c r="F14" s="215">
         <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!F$13,'[1]DATA - Overall'!$D$8:$D$37))*100</f>
-        <v>6.9988156990374639</v>
-      </c>
-      <c r="G14" s="214">
+        <v>6.5693192466216743</v>
+      </c>
+      <c r="G14" s="293">
         <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!G$13,'[1]DATA - Overall'!$D$8:$D$37))*100</f>
-        <v>6.8409349492220217</v>
+        <v>6.8472312204649777</v>
       </c>
       <c r="H14" s="214">
         <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!H$13,'[1]DATA - Overall'!$D$8:$D$37))*100</f>
-        <v>6.2318516198524909</v>
+        <v>6.1006706725691418</v>
       </c>
       <c r="I14" s="214">
         <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!I$13,'[1]DATA - Overall'!$D$8:$D$37))*100</f>
-        <v>4.4707681864886162E-2</v>
+        <v>-0.60197581578534942</v>
       </c>
       <c r="J14" s="215">
         <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!J$13,'[1]DATA - Overall'!$D$8:$D$37))*100</f>
-        <v>-1.2085353116480957</v>
+        <v>-1.1002547415217223</v>
       </c>
       <c r="L14" s="181"/>
       <c r="N14" s="16"/>
@@ -47616,81 +47429,81 @@
       <c r="C15" s="210" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="321">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="E15" s="321">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F15" s="212">
-        <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!F$13,'[1]DATA - Overall'!$C$8:$C$37))*100</f>
-        <v>6.7518938402899575</v>
-      </c>
-      <c r="G15" s="321">
-        <v>6.62</v>
+      <c r="D15" s="318">
+        <v>1.22</v>
+      </c>
+      <c r="E15" s="318">
+        <v>3.16</v>
+      </c>
+      <c r="F15" s="334">
+        <v>6.43</v>
+      </c>
+      <c r="G15" s="293">
+        <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!G$13,'[1]DATA - Overall'!$C$8:$C$37))*100</f>
+        <v>6.6175891820999144</v>
       </c>
       <c r="H15" s="211">
         <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!H$13,'[1]DATA - Overall'!$C$8:$C$37))*100</f>
-        <v>6.0540658789299595</v>
+        <v>5.9632122370227414</v>
       </c>
       <c r="I15" s="211">
         <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!I$13,'[1]DATA - Overall'!$C$8:$C$37))*100</f>
-        <v>-0.11310839363227743</v>
+        <v>-0.74685140863456345</v>
       </c>
       <c r="J15" s="212">
         <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!J$13,'[1]DATA - Overall'!$C$8:$C$37))*100</f>
-        <v>-1.38987214146572</v>
+        <v>-1.2788895279366774</v>
       </c>
       <c r="L15" s="181"/>
       <c r="N15" s="16"/>
     </row>
-    <row r="16" spans="2:14" ht="14.4" customHeight="1">
+    <row r="16" spans="2:14" ht="14.45" customHeight="1">
       <c r="B16" s="178"/>
       <c r="C16" s="295" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="296">
-        <v>-2.35</v>
+        <v>-3.66</v>
       </c>
       <c r="E16" s="296">
-        <v>-2.35</v>
-      </c>
-      <c r="F16" s="314">
+        <v>-1.81</v>
+      </c>
+      <c r="F16" s="297">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="G16" s="335">
         <f>'[1]DATA - Since Change'!G10*100</f>
-        <v>5.0729625283800317</v>
-      </c>
-      <c r="G16" s="296">
-        <v>4.91</v>
+        <v>5.0661173188810471</v>
       </c>
       <c r="H16" s="296">
-        <v>5.03</v>
+        <v>4.92</v>
       </c>
       <c r="I16" s="296">
-        <v>-0.6</v>
+        <v>-1.23</v>
       </c>
       <c r="J16" s="297">
-        <v>-1.74</v>
+        <v>-1.62</v>
       </c>
       <c r="L16" s="181"/>
       <c r="N16" s="16"/>
     </row>
-    <row r="17" spans="1:14" ht="14.4" customHeight="1">
+    <row r="17" spans="1:14" ht="14.45" customHeight="1">
       <c r="B17" s="178"/>
       <c r="C17" s="292" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="315">
-        <v>1.77</v>
-      </c>
-      <c r="E17" s="315">
-        <v>1.77</v>
-      </c>
-      <c r="F17" s="215">
-        <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!F$13,'[1]DATA - Overall'!$E$8:$E$37))*100</f>
-        <v>6.0533172875340435</v>
-      </c>
-      <c r="G17" s="315">
-        <v>5.76</v>
+      <c r="D17" s="312">
+        <v>1.07</v>
+      </c>
+      <c r="E17" s="312">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="336">
+        <v>5.58</v>
+      </c>
+      <c r="G17" s="293">
+        <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!G$13,'[1]DATA - Overall'!$E$8:$E$37))*100</f>
+        <v>5.925029936541959</v>
       </c>
       <c r="H17" s="293" t="s">
         <v>66</v>
@@ -47699,7 +47512,7 @@
         <v>66</v>
       </c>
       <c r="J17" s="294">
-        <v>5.64</v>
+        <v>5.57</v>
       </c>
       <c r="L17" s="181"/>
       <c r="N17" s="16"/>
@@ -47712,18 +47525,18 @@
       </c>
       <c r="D18" s="290">
         <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!D$13,'[1]DATA - Overall'!$F$8:$F$37))*100</f>
-        <v>18.396276753647033</v>
+        <v>6.1748728952811804</v>
       </c>
       <c r="E18" s="290">
         <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!E$13,'[1]DATA - Overall'!$F$8:$F$37))*100</f>
-        <v>18.396276753647033</v>
-      </c>
-      <c r="F18" s="313">
-        <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!F$13,'[1]DATA - Overall'!$F$8:$F$37))*100</f>
-        <v>14.493718060639527</v>
-      </c>
-      <c r="G18" s="372">
-        <v>14.18</v>
+        <v>56.348260735089298</v>
+      </c>
+      <c r="F18" s="337">
+        <v>16.78</v>
+      </c>
+      <c r="G18" s="290">
+        <f>(SUMIF('[1]DATA - Overall'!$B$8:$B$37,'[1]Tactical - FACT SHEET'!G$13,'[1]DATA - Overall'!$F$8:$F$37))*100</f>
+        <v>15.396680488046343</v>
       </c>
       <c r="H18" s="309" t="s">
         <v>89</v>
@@ -47737,7 +47550,7 @@
       <c r="L18" s="181"/>
       <c r="M18" s="117"/>
     </row>
-    <row r="19" spans="1:14" ht="14.4" customHeight="1" thickBot="1">
+    <row r="19" spans="1:14" ht="14.45" customHeight="1" thickBot="1">
       <c r="B19" s="178"/>
       <c r="C19" s="291" t="s">
         <v>90</v>
@@ -47746,7 +47559,7 @@
       <c r="L19" s="181"/>
       <c r="N19" s="16"/>
     </row>
-    <row r="20" spans="1:14" ht="14.4" customHeight="1">
+    <row r="20" spans="1:14" ht="14.45" customHeight="1">
       <c r="B20" s="178"/>
       <c r="C20" s="193" t="s">
         <v>63</v>
@@ -47766,18 +47579,18 @@
       <c r="L20" s="181"/>
       <c r="N20" s="16"/>
     </row>
-    <row r="21" spans="1:14" ht="14.4" customHeight="1">
+    <row r="21" spans="1:14" ht="14.45" customHeight="1">
       <c r="B21" s="178"/>
       <c r="C21" s="203" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="298">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C21,'[1]DATA - Since Change'!$D$8:$D$36)</f>
-        <v>0.23080791745570006</v>
+        <v>0.24592233750711023</v>
       </c>
       <c r="E21" s="299">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C21,'[1]DATA - Since Change'!$H$8:$H$36)</f>
-        <v>0.51514212200380105</v>
+        <v>0.60870022222040188</v>
       </c>
       <c r="F21" s="205"/>
       <c r="H21" s="205"/>
@@ -47785,18 +47598,18 @@
       <c r="L21" s="181"/>
       <c r="N21" s="16"/>
     </row>
-    <row r="22" spans="1:14" ht="14.4" customHeight="1">
+    <row r="22" spans="1:14" ht="14.45" customHeight="1">
       <c r="B22" s="178"/>
       <c r="C22" s="196" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="300">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C22,'[1]DATA - Since Change'!$D$8:$D$36)</f>
-        <v>6.9988156990374639E-2</v>
+        <v>6.8472312204649777E-2</v>
       </c>
       <c r="E22" s="301">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C22,'[1]DATA - Since Change'!$H$8:$H$36)</f>
-        <v>0.14493718060639527</v>
+        <v>0.15396680488046344</v>
       </c>
       <c r="F22" s="205"/>
       <c r="H22" s="205"/>
@@ -47804,18 +47617,18 @@
       <c r="L22" s="181"/>
       <c r="N22" s="16"/>
     </row>
-    <row r="23" spans="1:14" ht="14.4" customHeight="1">
-      <c r="B23" s="362"/>
+    <row r="23" spans="1:14" ht="14.45" customHeight="1">
+      <c r="B23" s="368"/>
       <c r="C23" s="196" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="300">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C23,'[1]DATA - Since Change'!$D$8:$D$36)</f>
-        <v>1.9987161464971911E-2</v>
+        <v>1.927597067358322E-2</v>
       </c>
       <c r="E23" s="301">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C23,'[1]DATA - Since Change'!$H$8:$H$36)</f>
-        <v>0.18534879892899031</v>
+        <v>0.17953544402088195</v>
       </c>
       <c r="F23" s="205"/>
       <c r="H23" s="205"/>
@@ -47823,18 +47636,18 @@
       <c r="L23" s="195"/>
       <c r="N23" s="16"/>
     </row>
-    <row r="24" spans="1:14" ht="14.4" customHeight="1">
-      <c r="B24" s="362"/>
+    <row r="24" spans="1:14" ht="14.45" customHeight="1">
+      <c r="B24" s="368"/>
       <c r="C24" s="196" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="302">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C24,'[1]DATA - Since Change'!$D$8:$D$36)</f>
-        <v>3.4654824354005376</v>
+        <v>3.5430284347882508</v>
       </c>
       <c r="E24" s="303">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C24,'[1]DATA - Since Change'!$H$8:$H$36)</f>
-        <v>0.66326397212583743</v>
+        <v>0.73503483170217065</v>
       </c>
       <c r="F24" s="206"/>
       <c r="H24" s="206"/>
@@ -47842,14 +47655,14 @@
       <c r="L24" s="181"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" ht="14.4" customHeight="1">
-      <c r="B25" s="362"/>
-      <c r="C25" s="322" t="s">
+    <row r="25" spans="1:14" ht="14.45" customHeight="1">
+      <c r="B25" s="368"/>
+      <c r="C25" s="319" t="s">
         <v>82</v>
       </c>
       <c r="D25" s="302">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C25,'[1]DATA - Since Change'!$D$8:$D$36)</f>
-        <v>4.2190735938126334E-2</v>
+        <v>4.0745167634476449E-2</v>
       </c>
       <c r="E25" s="303">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C25,'[1]DATA - Since Change'!$H$8:$H$36)</f>
@@ -47862,16 +47675,16 @@
       <c r="M25" s="122"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" s="117" customFormat="1" ht="14.4" customHeight="1">
-      <c r="B26" s="362"/>
-      <c r="C26" s="322" t="s">
+    <row r="26" spans="1:14" s="117" customFormat="1" ht="14.45" customHeight="1">
+      <c r="B26" s="368"/>
+      <c r="C26" s="319" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="323">
+      <c r="D26" s="320">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C26,'[1]DATA - Since Change'!$D$8:$D$36)</f>
-        <v>6.3180654577876957E-2</v>
-      </c>
-      <c r="E26" s="324">
+        <v>6.2029120824321875E-2</v>
+      </c>
+      <c r="E26" s="321">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C26,'[1]DATA - Since Change'!$H$8:$H$36)</f>
         <v>0</v>
       </c>
@@ -47884,14 +47697,14 @@
       <c r="M26" s="122"/>
       <c r="N26" s="16"/>
     </row>
-    <row r="27" spans="1:14" ht="14.4" customHeight="1">
-      <c r="B27" s="362"/>
-      <c r="C27" s="322" t="s">
+    <row r="27" spans="1:14" ht="14.45" customHeight="1">
+      <c r="B27" s="368"/>
+      <c r="C27" s="319" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="302">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C27,'[1]DATA - Since Change'!$D$8:$D$36)</f>
-        <v>0.40211935698679946</v>
+        <v>0.38922922046237279</v>
       </c>
       <c r="E27" s="303">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C27,'[1]DATA - Since Change'!$H$8:$H$36)</f>
@@ -47904,18 +47717,18 @@
       <c r="M27" s="122"/>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" spans="1:14" ht="14.4" customHeight="1">
-      <c r="B28" s="362"/>
+    <row r="28" spans="1:14" ht="14.45" customHeight="1">
+      <c r="B28" s="368"/>
       <c r="C28" s="196" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="304">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C28,'[1]DATA - Since Change'!$D$8:$D$36)</f>
-        <v>0.91891891891891897</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="E28" s="305">
         <f>SUMIF('[1]DATA - Since Change'!$B$8:$B$36,'[1]Tactical - FACT SHEET'!$C28,'[1]DATA - Since Change'!$H$8:$H$36)</f>
-        <v>0.70270270270270274</v>
+        <v>0.7</v>
       </c>
       <c r="F28" s="280"/>
       <c r="H28" s="207"/>
@@ -47924,8 +47737,8 @@
       <c r="L28" s="181"/>
       <c r="N28" s="117"/>
     </row>
-    <row r="29" spans="1:14" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B29" s="362"/>
+    <row r="29" spans="1:14" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B29" s="368"/>
       <c r="C29" s="306" t="s">
         <v>84</v>
       </c>
@@ -47943,13 +47756,13 @@
       <c r="L29" s="181"/>
       <c r="N29" s="16"/>
     </row>
-    <row r="30" spans="1:14" ht="14.4" customHeight="1">
-      <c r="B30" s="362"/>
+    <row r="30" spans="1:14" ht="14.45" customHeight="1">
+      <c r="B30" s="368"/>
       <c r="L30" s="181"/>
       <c r="N30" s="16"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="B31" s="362"/>
+      <c r="B31" s="368"/>
       <c r="C31" s="121"/>
       <c r="D31" s="121"/>
       <c r="E31" s="120"/>
@@ -47960,7 +47773,7 @@
       <c r="L31" s="181"/>
       <c r="N31" s="197"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1">
+    <row r="32" spans="1:14" ht="15.75" thickBot="1">
       <c r="B32" s="198"/>
       <c r="C32" s="199"/>
       <c r="D32" s="199"/>
@@ -48051,27 +47864,19 @@
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C11"/>
-    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="H21:I29 E29:F29 D21:F28 E6:F11">
-    <cfRule type="containsErrors" dxfId="12" priority="13">
+    <cfRule type="containsErrors" dxfId="10" priority="11">
       <formula>ISERROR(D6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:J15">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="containsErrors" dxfId="10" priority="12">
-      <formula>ISERROR(D14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:J18">
+  <conditionalFormatting sqref="D14:E15 D17:E18 G17:G18 G14:J15 H18:J18">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="containsErrors" dxfId="8" priority="10">
-      <formula>ISERROR(G18)</formula>
+      <formula>ISERROR(D14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17">
@@ -48082,32 +47887,32 @@
       <formula>ISERROR(H17)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:F18">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="containsErrors" dxfId="4" priority="6">
-      <formula>ISERROR(D18)</formula>
+      <formula>ISERROR(F14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:F17">
+  <conditionalFormatting sqref="F18">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="containsErrors" dxfId="2" priority="4">
-      <formula>ISERROR(D17)</formula>
+      <formula>ISERROR(F18)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="containsErrors" dxfId="0" priority="2">
-      <formula>ISERROR(G17)</formula>
+      <formula>ISERROR(F17)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C29" xr:uid="{C1123F06-8B29-48BB-A12A-D925C7A9F710}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C29" xr:uid="{8FD657AC-53C2-4300-B4F8-F5B0F815A818}">
       <formula1>$B$9:$B$38</formula1>
     </dataValidation>
   </dataValidations>
@@ -48119,562 +47924,604 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE484BE1-84F5-4D25-A78D-8C29E89A8EE0}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="325" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="326" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="326" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="322" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="323" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="323" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="325" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="326" t="s">
+      <c r="A1" s="322" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="323" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="326" t="s">
+      <c r="C1" s="323" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="325">
+      <c r="A2" s="322">
         <f>'DATA - Since Change'!J3</f>
         <v>43074</v>
       </c>
-      <c r="B2" s="326">
+      <c r="B2" s="323">
         <f>'DATA - Since Change'!K3</f>
         <v>10000</v>
       </c>
-      <c r="C2" s="326">
+      <c r="C2" s="323">
         <f>'DATA - Since Change'!O3</f>
         <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="325">
+      <c r="A3" s="322">
         <f>'DATA - Since Change'!J4</f>
         <v>43100</v>
       </c>
-      <c r="B3" s="326">
+      <c r="B3" s="323">
         <f>'DATA - Since Change'!K4</f>
         <v>10092.000000000002</v>
       </c>
-      <c r="C3" s="326">
+      <c r="C3" s="323">
         <f>'DATA - Since Change'!O4</f>
         <v>10179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="325">
+      <c r="A4" s="322">
         <f>'DATA - Since Change'!J5</f>
         <v>43131</v>
       </c>
-      <c r="B4" s="326">
+      <c r="B4" s="323">
         <f>'DATA - Since Change'!K5</f>
         <v>10152.675676648692</v>
       </c>
-      <c r="C4" s="326">
+      <c r="C4" s="323">
         <f>'DATA - Since Change'!O5</f>
         <v>10761.785808285822</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="325">
+      <c r="A5" s="322">
         <f>'DATA - Since Change'!J6</f>
         <v>43159</v>
       </c>
-      <c r="B5" s="326">
+      <c r="B5" s="323">
         <f>'DATA - Since Change'!K6</f>
         <v>10294.242566764833</v>
       </c>
-      <c r="C5" s="326">
+      <c r="C5" s="323">
         <f>'DATA - Since Change'!O6</f>
         <v>10365.151687397847</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="325">
+      <c r="A6" s="322">
         <f>'DATA - Since Change'!J7</f>
         <v>43190</v>
       </c>
-      <c r="B6" s="326">
+      <c r="B6" s="323">
         <f>'DATA - Since Change'!K7</f>
         <v>10294.242566764833</v>
       </c>
-      <c r="C6" s="326">
+      <c r="C6" s="323">
         <f>'DATA - Since Change'!O7</f>
         <v>10101.731330427643</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="325">
+      <c r="A7" s="322">
         <f>'DATA - Since Change'!J8</f>
         <v>43220</v>
       </c>
-      <c r="B7" s="326">
+      <c r="B7" s="323">
         <f>'DATA - Since Change'!K8</f>
         <v>10375.133780232285</v>
       </c>
-      <c r="C7" s="326">
+      <c r="C7" s="323">
         <f>'DATA - Since Change'!O8</f>
         <v>10140.49259125684</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="325">
+      <c r="A8" s="322">
         <f>'DATA - Since Change'!J9</f>
         <v>43251</v>
       </c>
-      <c r="B8" s="326">
+      <c r="B8" s="323">
         <f>'DATA - Since Change'!K9</f>
         <v>10435.809456880976</v>
       </c>
-      <c r="C8" s="326">
+      <c r="C8" s="323">
         <f>'DATA - Since Change'!O9</f>
         <v>10384.698298022548</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="325">
+      <c r="A9" s="322">
         <f>'DATA - Since Change'!J10</f>
         <v>43281</v>
       </c>
-      <c r="B9" s="326">
+      <c r="B9" s="323">
         <f>'DATA - Since Change'!K10</f>
         <v>10496.485133529664</v>
       </c>
-      <c r="C9" s="326">
+      <c r="C9" s="323">
         <f>'DATA - Since Change'!O10</f>
         <v>10448.610442452753</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="325">
+      <c r="A10" s="322">
         <f>'DATA - Since Change'!J11</f>
         <v>43312</v>
       </c>
-      <c r="B10" s="326">
+      <c r="B10" s="323">
         <f>'DATA - Since Change'!K11</f>
         <v>10678.512163475734</v>
       </c>
-      <c r="C10" s="326">
+      <c r="C10" s="323">
         <f>'DATA - Since Change'!O11</f>
         <v>10837.453257007806</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="325">
+      <c r="A11" s="322">
         <f>'DATA - Since Change'!J12</f>
         <v>43343</v>
       </c>
-      <c r="B11" s="326">
+      <c r="B11" s="323">
         <f>'DATA - Since Change'!K12</f>
         <v>10840.294590410635</v>
       </c>
-      <c r="C11" s="326">
+      <c r="C11" s="323">
         <f>'DATA - Since Change'!O12</f>
         <v>11190.581035766085</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="325">
+      <c r="A12" s="322">
         <f>'DATA - Since Change'!J13</f>
         <v>43373</v>
       </c>
-      <c r="B12" s="326">
+      <c r="B12" s="323">
         <f>'DATA - Since Change'!K13</f>
         <v>11002.091550441741</v>
       </c>
-      <c r="C12" s="326">
+      <c r="C12" s="323">
         <f>'DATA - Since Change'!O13</f>
         <v>11254.278382277338</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="325">
+      <c r="A13" s="322">
         <f>'DATA - Since Change'!J14</f>
         <v>43404</v>
       </c>
-      <c r="B13" s="326">
+      <c r="B13" s="323">
         <f>'DATA - Since Change'!K14</f>
         <v>11002.091550441741</v>
       </c>
-      <c r="C13" s="326">
+      <c r="C13" s="323">
         <f>'DATA - Since Change'!O14</f>
         <v>10485.047980340551</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="325">
+      <c r="A14" s="322">
         <f>'DATA - Since Change'!J15</f>
         <v>43434</v>
       </c>
-      <c r="B14" s="326">
+      <c r="B14" s="323">
         <f>'DATA - Since Change'!K15</f>
         <v>11062.76722709043</v>
       </c>
-      <c r="C14" s="326">
+      <c r="C14" s="323">
         <f>'DATA - Since Change'!O15</f>
         <v>10698.713328447888</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="325">
+      <c r="A15" s="322">
         <f>'DATA - Since Change'!J16</f>
         <v>43465</v>
       </c>
-      <c r="B15" s="326">
+      <c r="B15" s="323">
         <f>'DATA - Since Change'!K16</f>
         <v>11066.749295450129</v>
       </c>
-      <c r="C15" s="326">
+      <c r="C15" s="323">
         <f>'DATA - Since Change'!O16</f>
         <v>9732.7280327504068</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="325">
+      <c r="A16" s="322">
         <f>'DATA - Since Change'!J17</f>
         <v>43496</v>
       </c>
-      <c r="B16" s="326">
+      <c r="B16" s="323">
         <f>'DATA - Since Change'!K17</f>
         <v>11148.715958036622</v>
       </c>
-      <c r="C16" s="326">
+      <c r="C16" s="323">
         <f>'DATA - Since Change'!O17</f>
         <v>10512.659276467746</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="325">
+      <c r="A17" s="322">
         <f>'DATA - Since Change'!J18</f>
         <v>43524</v>
       </c>
-      <c r="B17" s="326">
+      <c r="B17" s="323">
         <f>'DATA - Since Change'!K18</f>
         <v>11230.69715371932</v>
       </c>
-      <c r="C17" s="326">
+      <c r="C17" s="323">
         <f>'DATA - Since Change'!O18</f>
         <v>10850.204442560182</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="325">
+      <c r="A18" s="322">
         <f>'DATA - Since Change'!J19</f>
         <v>43555</v>
       </c>
-      <c r="B18" s="326">
+      <c r="B18" s="323">
         <f>'DATA - Since Change'!K19</f>
         <v>11333.170015048643</v>
       </c>
-      <c r="C18" s="326">
+      <c r="C18" s="323">
         <f>'DATA - Since Change'!O19</f>
         <v>11061.038363554051</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="325">
+      <c r="A19" s="322">
         <f>'DATA - Since Change'!J20</f>
         <v>43585</v>
       </c>
-      <c r="B19" s="326">
+      <c r="B19" s="323">
         <f>'DATA - Since Change'!K20</f>
         <v>11456.134542024585</v>
       </c>
-      <c r="C19" s="326">
+      <c r="C19" s="323">
         <f>'DATA - Since Change'!O20</f>
         <v>11508.892024570479</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="325">
+      <c r="A20" s="322">
         <f>'DATA - Since Change'!J21</f>
         <v>43616</v>
       </c>
-      <c r="B20" s="326">
+      <c r="B20" s="323">
         <f>'DATA - Since Change'!K21</f>
         <v>11456.134542024585</v>
       </c>
-      <c r="C20" s="326">
+      <c r="C20" s="323">
         <f>'DATA - Since Change'!O21</f>
         <v>10777.524637619996</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="325">
+      <c r="A21" s="322">
         <f>'DATA - Since Change'!J22</f>
         <v>43646</v>
       </c>
-      <c r="B21" s="326">
+      <c r="B21" s="323">
         <f>'DATA - Since Change'!K22</f>
         <v>11599.590734647152</v>
       </c>
-      <c r="C21" s="326">
+      <c r="C21" s="323">
         <f>'DATA - Since Change'!O22</f>
         <v>11537.089133203908</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="325">
+      <c r="A22" s="322">
         <f>'DATA - Since Change'!J23</f>
         <v>43677</v>
       </c>
-      <c r="B22" s="326">
+      <c r="B22" s="323">
         <f>'DATA - Since Change'!K23</f>
         <v>11743.046927269719</v>
       </c>
-      <c r="C22" s="326">
+      <c r="C22" s="323">
         <f>'DATA - Since Change'!O23</f>
         <v>11702.913126635411</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="325">
+      <c r="A23" s="322">
         <f>'DATA - Since Change'!J24</f>
         <v>43708</v>
       </c>
-      <c r="B23" s="326">
+      <c r="B23" s="323">
         <f>'DATA - Since Change'!K24</f>
         <v>11722.555261623094</v>
       </c>
-      <c r="C23" s="326">
+      <c r="C23" s="323">
         <f>'DATA - Since Change'!O24</f>
         <v>11517.522995495669</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="325">
+      <c r="A24" s="322">
         <f>'DATA - Since Change'!J25</f>
         <v>43738</v>
       </c>
-      <c r="B24" s="326">
+      <c r="B24" s="323">
         <f>'DATA - Since Change'!K25</f>
         <v>11804.536457305792</v>
       </c>
-      <c r="C24" s="326">
+      <c r="C24" s="323">
         <f>'DATA - Since Change'!O25</f>
         <v>11733.023889455877</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="325">
+      <c r="A25" s="322">
         <f>'DATA - Since Change'!J26</f>
         <v>43769</v>
       </c>
-      <c r="B25" s="326">
+      <c r="B25" s="323">
         <f>'DATA - Since Change'!K26</f>
         <v>11825.580380608139</v>
       </c>
-      <c r="C25" s="326">
+      <c r="C25" s="323">
         <f>'DATA - Since Change'!O26</f>
         <v>11987.149354660489</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="325">
+      <c r="A26" s="322">
         <f>'DATA - Since Change'!J27</f>
         <v>43799</v>
       </c>
-      <c r="B26" s="326">
+      <c r="B26" s="323">
         <f>'DATA - Since Change'!K27</f>
         <v>11906.965719346501</v>
       </c>
-      <c r="C26" s="326">
+      <c r="C26" s="323">
         <f>'DATA - Since Change'!O27</f>
         <v>12422.271357208087</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="325">
+      <c r="A27" s="322">
         <f>'DATA - Since Change'!J28</f>
         <v>43830</v>
       </c>
-      <c r="B27" s="326">
+      <c r="B27" s="323">
         <f>'DATA - Since Change'!K28</f>
         <v>11991.257677325519</v>
       </c>
-      <c r="C27" s="326">
+      <c r="C27" s="323">
         <f>'DATA - Since Change'!O28</f>
         <v>12797.210888281834</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="325">
+      <c r="A28" s="322">
         <f>'DATA - Since Change'!J29</f>
         <v>43861</v>
       </c>
-      <c r="B28" s="326">
+      <c r="B28" s="323">
         <f>'DATA - Since Change'!K29</f>
         <v>11991.257677325519</v>
       </c>
-      <c r="C28" s="326">
+      <c r="C28" s="323">
         <f>'DATA - Since Change'!O29</f>
         <v>12792.192427811757</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="325">
+      <c r="A29" s="322">
         <f>'DATA - Since Change'!J30</f>
         <v>43890</v>
       </c>
-      <c r="B29" s="326">
+      <c r="B29" s="323">
         <f>'DATA - Since Change'!K30</f>
         <v>12013.057321630438</v>
       </c>
-      <c r="C29" s="326">
+      <c r="C29" s="323">
         <f>'DATA - Since Change'!O30</f>
         <v>11739.155393687799</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="325">
+      <c r="A30" s="322">
         <f>'DATA - Since Change'!J31</f>
         <v>43921</v>
       </c>
-      <c r="B30" s="326">
+      <c r="B30" s="323">
         <f>'DATA - Since Change'!K31</f>
         <v>12033.403656315029</v>
       </c>
-      <c r="C30" s="326">
+      <c r="C30" s="323">
         <f>'DATA - Since Change'!O31</f>
         <v>10289.210859506291</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="325">
+      <c r="A31" s="322">
         <f>'DATA - Since Change'!J32</f>
         <v>43951</v>
       </c>
-      <c r="B31" s="326">
+      <c r="B31" s="323">
         <f>'DATA - Since Change'!K32</f>
         <v>12117.695614294047</v>
       </c>
-      <c r="C31" s="326">
+      <c r="C31" s="323">
         <f>'DATA - Since Change'!O32</f>
         <v>11608.226298544345</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="325">
+      <c r="A32" s="322">
         <f>'DATA - Since Change'!J33</f>
         <v>43982</v>
       </c>
-      <c r="B32" s="326">
+      <c r="B32" s="323">
         <f>'DATA - Since Change'!K33</f>
         <v>12203.440881893393</v>
       </c>
-      <c r="C32" s="326">
+      <c r="C32" s="323">
         <f>'DATA - Since Change'!O33</f>
         <v>12161.096614845115</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="325">
+      <c r="A33" s="322">
         <f>'DATA - Since Change'!J34</f>
         <v>44012</v>
       </c>
-      <c r="B33" s="326">
+      <c r="B33" s="323">
         <f>'DATA - Since Change'!K34</f>
         <v>12181.641237588474</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="323">
         <f>'DATA - Since Change'!O34</f>
         <v>12402.959071585881</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="325">
+      <c r="A34" s="322">
         <f>'DATA - Since Change'!J35</f>
         <v>44043</v>
       </c>
-      <c r="B34" s="326">
+      <c r="B34" s="323">
         <f>'DATA - Since Change'!K35</f>
         <v>12203.440881893392</v>
       </c>
-      <c r="C34" s="326">
+      <c r="C34" s="323">
         <f>'DATA - Since Change'!O35</f>
         <v>13102.302041528868</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="325">
+      <c r="A35" s="322">
         <f>'DATA - Since Change'!J36</f>
         <v>44074</v>
       </c>
-      <c r="B35" s="326">
+      <c r="B35" s="323">
         <f>'DATA - Since Change'!K36</f>
         <v>12287.732839872409</v>
       </c>
-      <c r="C35" s="326">
+      <c r="C35" s="323">
         <f>'DATA - Since Change'!O36</f>
         <v>14044.093280718855</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="325">
+      <c r="A36" s="322">
         <f>'DATA - Since Change'!J37</f>
         <v>44104</v>
       </c>
-      <c r="B36" s="326">
+      <c r="B36" s="323">
         <f>'DATA - Since Change'!K37</f>
         <v>12139.495258598963</v>
       </c>
-      <c r="C36" s="326">
+      <c r="C36" s="323">
         <f>'DATA - Since Change'!O37</f>
         <v>13510.457141706125</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="325">
+      <c r="A37" s="322">
         <f>'DATA - Since Change'!J38</f>
         <v>44135</v>
       </c>
-      <c r="B37" s="326">
+      <c r="B37" s="323">
         <f>'DATA - Since Change'!K38</f>
         <v>12181.641237588474</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="323">
         <f>'DATA - Since Change'!O38</f>
         <v>13151.078981736742</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="325">
+      <c r="A38" s="322">
         <f>'DATA - Since Change'!J39</f>
         <v>44165</v>
       </c>
-      <c r="B38" s="326">
+      <c r="B38" s="323">
         <f>'DATA - Since Change'!K39</f>
         <v>12223.787216577983</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="323">
         <f>'DATA - Since Change'!O39</f>
         <v>14591.122130236914</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="325">
+      <c r="A39" s="322">
         <f>'DATA - Since Change'!J40</f>
         <v>44196</v>
       </c>
-      <c r="B39" s="326">
+      <c r="B39" s="323">
         <f>'DATA - Since Change'!K40</f>
         <v>12308.079174557</v>
       </c>
-      <c r="C39" s="326">
+      <c r="C39" s="323">
         <f>'DATA - Since Change'!O40</f>
         <v>15151.421220038012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="322">
+        <f>'DATA - Since Change'!J41</f>
+        <v>44227</v>
+      </c>
+      <c r="B40" s="323">
+        <f>'DATA - Since Change'!K41</f>
+        <v>12373.478107471756</v>
+      </c>
+      <c r="C40" s="323">
+        <f>'DATA - Since Change'!O41</f>
+        <v>14998.449342448037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="322">
+        <f>'DATA - Since Change'!J42</f>
+        <v>44255</v>
+      </c>
+      <c r="B41" s="323">
+        <f>'DATA - Since Change'!K42</f>
+        <v>12417.077396081593</v>
+      </c>
+      <c r="C41" s="323">
+        <f>'DATA - Since Change'!O42</f>
+        <v>15412.024063836303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="322">
+        <f>'DATA - Since Change'!J43</f>
+        <v>44286</v>
+      </c>
+      <c r="B42" s="323">
+        <f>'DATA - Since Change'!K43</f>
+        <v>12459.223375071102</v>
+      </c>
+      <c r="C42" s="323">
+        <f>'DATA - Since Change'!O43</f>
+        <v>16087.002222204019</v>
       </c>
     </row>
   </sheetData>
@@ -48686,24 +48533,24 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74E5A7F-7A4C-4C2A-9213-58FBBDCEBA50}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="str">
         <f>'Tactical - FACT SHEET'!D13</f>
@@ -48715,11 +48562,11 @@
       </c>
       <c r="D1" t="str">
         <f>'Tactical - FACT SHEET'!F13</f>
-        <v>Since 12/5/17</v>
+        <v>3 Years</v>
       </c>
       <c r="E1" t="str">
         <f>'Tactical - FACT SHEET'!G13</f>
-        <v>3 Years</v>
+        <v>Since 12/5/17</v>
       </c>
       <c r="F1" t="str">
         <f>'Tactical - FACT SHEET'!H13</f>
@@ -48734,180 +48581,181 @@
         <v>Inception*</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="326" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="326">
+      <c r="A2" s="323" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="323">
         <f>'Tactical - FACT SHEET'!D14</f>
-        <v>2.65</v>
-      </c>
-      <c r="C2" s="326">
+        <v>1.23</v>
+      </c>
+      <c r="C2" s="323">
         <f>'Tactical - FACT SHEET'!E14</f>
-        <v>2.65</v>
-      </c>
-      <c r="D2" s="326">
+        <v>3.54</v>
+      </c>
+      <c r="D2" s="323">
         <f>'Tactical - FACT SHEET'!F14</f>
-        <v>6.9988156990374639</v>
-      </c>
-      <c r="E2" s="326">
+        <v>6.5693192466216743</v>
+      </c>
+      <c r="E2" s="323">
         <f>'Tactical - FACT SHEET'!G14</f>
-        <v>6.8409349492220217</v>
-      </c>
-      <c r="F2" s="326">
+        <v>6.8472312204649777</v>
+      </c>
+      <c r="F2" s="323">
         <f>'Tactical - FACT SHEET'!H14</f>
-        <v>6.2318516198524909</v>
-      </c>
-      <c r="G2" s="326">
+        <v>6.1006706725691418</v>
+      </c>
+      <c r="G2" s="323">
         <f>'Tactical - FACT SHEET'!I14</f>
-        <v>4.4707681864886162E-2</v>
-      </c>
-      <c r="H2" s="326">
+        <v>-0.60197581578534942</v>
+      </c>
+      <c r="H2" s="323">
         <f>'Tactical - FACT SHEET'!J14</f>
-        <v>-1.2085353116480957</v>
+        <v>-1.1002547415217223</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="326" t="str">
+      <c r="A3" s="323" t="str">
         <f>'Tactical - FACT SHEET'!C15</f>
         <v>Class A</v>
       </c>
-      <c r="B3" s="326">
+      <c r="B3" s="323">
         <f>'Tactical - FACT SHEET'!D15</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C3" s="326">
+        <v>1.22</v>
+      </c>
+      <c r="C3" s="323">
         <f>'Tactical - FACT SHEET'!E15</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="D3" s="326">
+        <v>3.16</v>
+      </c>
+      <c r="D3" s="323">
         <f>'Tactical - FACT SHEET'!F15</f>
-        <v>6.7518938402899575</v>
-      </c>
-      <c r="E3" s="326">
+        <v>6.43</v>
+      </c>
+      <c r="E3" s="323">
         <f>'Tactical - FACT SHEET'!G15</f>
-        <v>6.62</v>
-      </c>
-      <c r="F3" s="326">
+        <v>6.6175891820999144</v>
+      </c>
+      <c r="F3" s="323">
         <f>'Tactical - FACT SHEET'!H15</f>
-        <v>6.0540658789299595</v>
-      </c>
-      <c r="G3" s="326">
+        <v>5.9632122370227414</v>
+      </c>
+      <c r="G3" s="323">
         <f>'Tactical - FACT SHEET'!I15</f>
-        <v>-0.11310839363227743</v>
-      </c>
-      <c r="H3" s="326">
+        <v>-0.74685140863456345</v>
+      </c>
+      <c r="H3" s="323">
         <f>'Tactical - FACT SHEET'!J15</f>
-        <v>-1.38987214146572</v>
+        <v>-1.2788895279366774</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="326" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="326">
+      <c r="A4" s="323" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="323">
         <f>'Tactical - FACT SHEET'!D16</f>
-        <v>-2.35</v>
-      </c>
-      <c r="C4" s="326">
+        <v>-3.66</v>
+      </c>
+      <c r="C4" s="323">
         <f>'Tactical - FACT SHEET'!E16</f>
-        <v>-2.35</v>
-      </c>
-      <c r="D4" s="326">
+        <v>-1.81</v>
+      </c>
+      <c r="D4" s="323">
         <f>'Tactical - FACT SHEET'!F16</f>
-        <v>5.0729625283800317</v>
-      </c>
-      <c r="E4" s="326">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E4" s="323">
         <f>'Tactical - FACT SHEET'!G16</f>
-        <v>4.91</v>
-      </c>
-      <c r="F4" s="326">
+        <v>5.0661173188810471</v>
+      </c>
+      <c r="F4" s="323">
         <f>'Tactical - FACT SHEET'!H16</f>
-        <v>5.03</v>
-      </c>
-      <c r="G4" s="326">
+        <v>4.92</v>
+      </c>
+      <c r="G4" s="323">
         <f>'Tactical - FACT SHEET'!I16</f>
-        <v>-0.6</v>
-      </c>
-      <c r="H4" s="326">
+        <v>-1.23</v>
+      </c>
+      <c r="H4" s="323">
         <f>'Tactical - FACT SHEET'!J16</f>
-        <v>-1.74</v>
+        <v>-1.62</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="326" t="str">
+      <c r="A5" s="323" t="str">
         <f>'Tactical - FACT SHEET'!C17</f>
         <v>Class C</v>
       </c>
-      <c r="B5" s="326">
+      <c r="B5" s="323">
         <f>'Tactical - FACT SHEET'!D17</f>
-        <v>1.77</v>
-      </c>
-      <c r="C5" s="326">
+        <v>1.07</v>
+      </c>
+      <c r="C5" s="323">
         <f>'Tactical - FACT SHEET'!E17</f>
-        <v>1.77</v>
-      </c>
-      <c r="D5" s="326">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="323">
         <f>'Tactical - FACT SHEET'!F17</f>
-        <v>6.0533172875340435</v>
-      </c>
-      <c r="E5" s="326">
+        <v>5.58</v>
+      </c>
+      <c r="E5" s="323">
         <f>'Tactical - FACT SHEET'!G17</f>
-        <v>5.76</v>
-      </c>
-      <c r="F5" s="326" t="s">
+        <v>5.925029936541959</v>
+      </c>
+      <c r="F5" s="323" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="326" t="s">
+      <c r="G5" s="323" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="326">
+      <c r="H5" s="323">
         <f>'Tactical - FACT SHEET'!J17</f>
-        <v>5.64</v>
+        <v>5.57</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="326" t="s">
+      <c r="A6" s="323" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="326">
+      <c r="B6" s="323">
         <f>'Tactical - FACT SHEET'!D18</f>
-        <v>18.396276753647033</v>
-      </c>
-      <c r="C6" s="326">
+        <v>6.1748728952811804</v>
+      </c>
+      <c r="C6" s="323">
         <f>'Tactical - FACT SHEET'!E18</f>
-        <v>18.396276753647033</v>
-      </c>
-      <c r="D6" s="326">
+        <v>56.348260735089298</v>
+      </c>
+      <c r="D6" s="323">
         <f>'Tactical - FACT SHEET'!F18</f>
-        <v>14.493718060639527</v>
-      </c>
-      <c r="E6" s="326">
-        <v>0</v>
-      </c>
-      <c r="F6" s="326">
-        <v>0</v>
-      </c>
-      <c r="G6" s="326">
-        <v>0</v>
-      </c>
-      <c r="H6" s="326">
-        <v>0</v>
+        <v>16.78</v>
+      </c>
+      <c r="E6" s="323">
+        <f>'Tactical - FACT SHEET'!G18</f>
+        <v>15.396680488046343</v>
+      </c>
+      <c r="F6" s="323" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="323" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="323" t="s">
+        <v>66</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -48921,123 +48769,124 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C82C10D-90E1-440D-9AA1-F04EBBB07C38}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="329" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="326"/>
-    <col min="3" max="3" width="16.109375" style="326" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="326" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="323"/>
+    <col min="3" max="3" width="16.140625" style="323" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="329" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="326" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="326" t="s">
+      <c r="A1" s="326" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="323" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="323" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="329" t="str">
+      <c r="A2" s="326" t="str">
         <f>'Tactical - FACT SHEET'!D13</f>
         <v>YTD</v>
       </c>
-      <c r="B2" s="326">
+      <c r="B2" s="323">
         <f>'Tactical - FACT SHEET'!D14</f>
-        <v>2.65</v>
-      </c>
-      <c r="C2" s="326">
+        <v>1.23</v>
+      </c>
+      <c r="C2" s="323">
         <f>'Tactical - FACT SHEET'!D18</f>
-        <v>18.396276753647033</v>
+        <v>6.1748728952811804</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="329" t="str">
+      <c r="A3" s="326" t="str">
         <f>'Tactical - FACT SHEET'!E13</f>
         <v>1 Year</v>
       </c>
-      <c r="B3" s="326">
+      <c r="B3" s="323">
         <f>'Tactical - FACT SHEET'!E14</f>
-        <v>2.65</v>
-      </c>
-      <c r="C3" s="326">
+        <v>3.54</v>
+      </c>
+      <c r="C3" s="323">
         <f>'Tactical - FACT SHEET'!E18</f>
-        <v>18.396276753647033</v>
+        <v>56.348260735089298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="329" t="str">
+      <c r="A4" s="326" t="str">
         <f>'Tactical - FACT SHEET'!F13</f>
+        <v>3 Years</v>
+      </c>
+      <c r="B4" s="323">
+        <f>'Tactical - FACT SHEET'!F14</f>
+        <v>6.5693192466216743</v>
+      </c>
+      <c r="C4" s="323">
+        <f>'Tactical - FACT SHEET'!F18</f>
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="326" t="str">
+        <f>'Tactical - FACT SHEET'!G13</f>
         <v>Since 12/5/17</v>
       </c>
-      <c r="B4" s="326">
-        <f>'Tactical - FACT SHEET'!F14</f>
-        <v>6.9988156990374639</v>
-      </c>
-      <c r="C4" s="326">
-        <f>'Tactical - FACT SHEET'!F18</f>
-        <v>14.493718060639527</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="329" t="str">
-        <f>'Tactical - FACT SHEET'!G13</f>
-        <v>3 Years</v>
-      </c>
-      <c r="B5" s="326">
+      <c r="B5" s="323">
         <f>'Tactical - FACT SHEET'!G14</f>
-        <v>6.8409349492220217</v>
-      </c>
-      <c r="C5" s="326">
-        <v>0</v>
+        <v>6.8472312204649777</v>
+      </c>
+      <c r="C5" s="323">
+        <f>'Tactical - FACT SHEET'!G18</f>
+        <v>15.396680488046343</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="329" t="str">
+      <c r="A6" s="326" t="str">
         <f>'Tactical - FACT SHEET'!H13</f>
         <v>5 Years</v>
       </c>
-      <c r="B6" s="326">
+      <c r="B6" s="323">
         <f>'Tactical - FACT SHEET'!H14</f>
-        <v>6.2318516198524909</v>
-      </c>
-      <c r="C6" s="326">
+        <v>6.1006706725691418</v>
+      </c>
+      <c r="C6" s="323">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="329" t="str">
+      <c r="A7" s="326" t="str">
         <f>'Tactical - FACT SHEET'!I13</f>
         <v>10 Years</v>
       </c>
-      <c r="B7" s="326">
+      <c r="B7" s="323">
         <f>'Tactical - FACT SHEET'!I14</f>
-        <v>4.4707681864886162E-2</v>
-      </c>
-      <c r="C7" s="326">
+        <v>-0.60197581578534942</v>
+      </c>
+      <c r="C7" s="323">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="329" t="str">
+      <c r="A8" s="326" t="str">
         <f>'Tactical - FACT SHEET'!J13</f>
         <v>Inception*</v>
       </c>
-      <c r="B8" s="326">
+      <c r="B8" s="323">
         <f>'Tactical - FACT SHEET'!J14</f>
-        <v>-1.2085353116480957</v>
-      </c>
-      <c r="C8" s="326">
+        <v>-1.1002547415217223</v>
+      </c>
+      <c r="C8" s="323">
         <v>0</v>
       </c>
     </row>
@@ -49050,21 +48899,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E51301-6618-4228-A794-3928BCD289CE}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -49073,20 +48924,20 @@
         <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="327">
+        <v>99</v>
+      </c>
+      <c r="B2" s="324">
         <f>'Tactical - FACT SHEET'!D21</f>
-        <v>0.23080791745570006</v>
-      </c>
-      <c r="C2" s="327">
+        <v>0.24592233750711023</v>
+      </c>
+      <c r="C2" s="324">
         <f>'Tactical - FACT SHEET'!E21</f>
-        <v>0.51514212200380105</v>
+        <v>0.60870022222040188</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -49094,15 +48945,15 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="327">
+        <v>100</v>
+      </c>
+      <c r="B3" s="324">
         <f>'Tactical - FACT SHEET'!D22</f>
-        <v>6.9988156990374639E-2</v>
-      </c>
-      <c r="C3" s="327">
+        <v>6.8472312204649777E-2</v>
+      </c>
+      <c r="C3" s="324">
         <f>'Tactical - FACT SHEET'!E22</f>
-        <v>0.14493718060639527</v>
+        <v>0.15396680488046344</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -49112,13 +48963,13 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="327">
+      <c r="B4" s="324">
         <f>'Tactical - FACT SHEET'!D23</f>
-        <v>1.9987161464971911E-2</v>
-      </c>
-      <c r="C4" s="327">
+        <v>1.927597067358322E-2</v>
+      </c>
+      <c r="C4" s="324">
         <f>'Tactical - FACT SHEET'!E23</f>
-        <v>0.18534879892899031</v>
+        <v>0.17953544402088195</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -49128,13 +48979,13 @@
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="326">
+      <c r="B5" s="323">
         <f>'Tactical - FACT SHEET'!D24</f>
-        <v>3.4654824354005376</v>
-      </c>
-      <c r="C5" s="326">
+        <v>3.5430284347882508</v>
+      </c>
+      <c r="C5" s="323">
         <f>'Tactical - FACT SHEET'!E24</f>
-        <v>0.66326397212583743</v>
+        <v>0.73503483170217065</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -49142,13 +48993,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="326">
+        <v>102</v>
+      </c>
+      <c r="B6" s="323">
         <f>'Tactical - FACT SHEET'!D25</f>
-        <v>4.2190735938126334E-2</v>
-      </c>
-      <c r="C6" s="326">
+        <v>4.0745167634476449E-2</v>
+      </c>
+      <c r="C6" s="323">
         <f>'Tactical - FACT SHEET'!E25</f>
         <v>1</v>
       </c>
@@ -49158,13 +49009,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="327">
+        <v>103</v>
+      </c>
+      <c r="B7" s="324">
         <f>'Tactical - FACT SHEET'!D26</f>
-        <v>6.3180654577876957E-2</v>
-      </c>
-      <c r="C7" s="327">
+        <v>6.2029120824321875E-2</v>
+      </c>
+      <c r="C7" s="324">
         <f>'Tactical - FACT SHEET'!E26</f>
         <v>0</v>
       </c>
@@ -49174,13 +49025,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="326">
+        <v>104</v>
+      </c>
+      <c r="B8" s="323">
         <f>'Tactical - FACT SHEET'!D27</f>
-        <v>0.40211935698679946</v>
-      </c>
-      <c r="C8" s="326">
+        <v>0.38922922046237279</v>
+      </c>
+      <c r="C8" s="323">
         <f>'Tactical - FACT SHEET'!E27</f>
         <v>1</v>
       </c>
@@ -49192,13 +49043,13 @@
       <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="328">
+      <c r="B9" s="325">
         <f>'Tactical - FACT SHEET'!D28</f>
-        <v>0.91891891891891897</v>
-      </c>
-      <c r="C9" s="328">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C9" s="325">
         <f>'Tactical - FACT SHEET'!E28</f>
-        <v>0.70270270270270274</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -49206,13 +49057,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="327">
+        <v>101</v>
+      </c>
+      <c r="B10" s="324">
         <f>'Tactical - FACT SHEET'!D29</f>
         <v>-1.2063867534003569E-2</v>
       </c>
-      <c r="C10" s="327">
+      <c r="C10" s="324">
         <f>'Tactical - FACT SHEET'!E29</f>
         <v>-0.19598020620821932</v>
       </c>
